--- a/experiment_results/worst_case/ExamDB/4wise/0.8_worst_case.xlsx
+++ b/experiment_results/worst_case/ExamDB/4wise/0.8_worst_case.xlsx
@@ -594,7 +594,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -626,7 +626,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G3">
         <v>7</v>
@@ -658,7 +658,7 @@
         <v>8</v>
       </c>
       <c r="E4">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="G4">
         <v>9</v>
@@ -690,7 +690,7 @@
         <v>3</v>
       </c>
       <c r="E5">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G5">
         <v>3</v>
@@ -722,7 +722,7 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -754,7 +754,7 @@
         <v>10</v>
       </c>
       <c r="E7">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G7">
         <v>10</v>
@@ -786,7 +786,7 @@
         <v>2</v>
       </c>
       <c r="E8">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -818,7 +818,7 @@
         <v>9</v>
       </c>
       <c r="E9">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G9">
         <v>10</v>
@@ -850,7 +850,7 @@
         <v>15</v>
       </c>
       <c r="E10">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G10">
         <v>16</v>
@@ -882,7 +882,7 @@
         <v>7</v>
       </c>
       <c r="E11">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G11">
         <v>14</v>
@@ -914,7 +914,7 @@
         <v>3</v>
       </c>
       <c r="E12">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -946,7 +946,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -978,7 +978,7 @@
         <v>2</v>
       </c>
       <c r="E14">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -1010,7 +1010,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -1042,7 +1042,7 @@
         <v>10</v>
       </c>
       <c r="E16">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G16">
         <v>11</v>
@@ -1074,7 +1074,7 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1106,7 +1106,7 @@
         <v>2</v>
       </c>
       <c r="E18">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -1138,7 +1138,7 @@
         <v>1</v>
       </c>
       <c r="E19">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -1202,7 +1202,7 @@
         <v>10</v>
       </c>
       <c r="E21">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G21">
         <v>9</v>
@@ -1225,16 +1225,16 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C22">
-        <v>-1</v>
+        <v>16</v>
       </c>
       <c r="D22">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E22">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="G22">
         <v>3</v>
@@ -1266,7 +1266,7 @@
         <v>6</v>
       </c>
       <c r="E23">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G23">
         <v>6</v>
@@ -1298,7 +1298,7 @@
         <v>2</v>
       </c>
       <c r="E24">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="G24">
         <v>3</v>
@@ -1330,7 +1330,7 @@
         <v>11</v>
       </c>
       <c r="E25">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G25">
         <v>12</v>
@@ -1362,7 +1362,7 @@
         <v>2</v>
       </c>
       <c r="E26">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -1385,16 +1385,16 @@
         <v>35</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E27">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -1426,7 +1426,7 @@
         <v>2</v>
       </c>
       <c r="E28">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -1458,7 +1458,7 @@
         <v>8</v>
       </c>
       <c r="E29">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G29">
         <v>7</v>
@@ -1490,7 +1490,7 @@
         <v>13</v>
       </c>
       <c r="E30">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G30">
         <v>13</v>
@@ -1522,7 +1522,7 @@
         <v>3</v>
       </c>
       <c r="E31">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -1554,7 +1554,7 @@
         <v>2</v>
       </c>
       <c r="E32">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -1586,7 +1586,7 @@
         <v>2</v>
       </c>
       <c r="E33">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G33">
         <v>2</v>
@@ -1618,7 +1618,7 @@
         <v>7</v>
       </c>
       <c r="E34">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G34">
         <v>7</v>
@@ -1650,7 +1650,7 @@
         <v>7</v>
       </c>
       <c r="E35">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G35">
         <v>7</v>
@@ -1682,7 +1682,7 @@
         <v>2</v>
       </c>
       <c r="E36">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -1714,7 +1714,7 @@
         <v>3</v>
       </c>
       <c r="E37">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="G37">
         <v>4</v>
@@ -1746,7 +1746,7 @@
         <v>7</v>
       </c>
       <c r="E38">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G38">
         <v>7</v>
@@ -1778,7 +1778,7 @@
         <v>8</v>
       </c>
       <c r="E39">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G39">
         <v>4</v>
@@ -1810,7 +1810,7 @@
         <v>4</v>
       </c>
       <c r="E40">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G40">
         <v>4</v>
@@ -1842,7 +1842,7 @@
         <v>3</v>
       </c>
       <c r="E41">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G41">
         <v>3</v>
@@ -1874,7 +1874,7 @@
         <v>6</v>
       </c>
       <c r="E42">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G42">
         <v>6</v>
@@ -1906,7 +1906,7 @@
         <v>6</v>
       </c>
       <c r="E43">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G43">
         <v>6</v>
@@ -1938,7 +1938,7 @@
         <v>6</v>
       </c>
       <c r="E44">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G44">
         <v>6</v>
@@ -1970,7 +1970,7 @@
         <v>2</v>
       </c>
       <c r="E45">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -2002,7 +2002,7 @@
         <v>4</v>
       </c>
       <c r="E46">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G46">
         <v>4</v>
@@ -2034,7 +2034,7 @@
         <v>13</v>
       </c>
       <c r="E47">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G47">
         <v>13</v>
@@ -2066,7 +2066,7 @@
         <v>1</v>
       </c>
       <c r="E48">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -2098,7 +2098,7 @@
         <v>5</v>
       </c>
       <c r="E49">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G49">
         <v>5</v>
@@ -2130,7 +2130,7 @@
         <v>7</v>
       </c>
       <c r="E50">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G50">
         <v>7</v>
@@ -2162,7 +2162,7 @@
         <v>5</v>
       </c>
       <c r="E51">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G51">
         <v>5</v>
@@ -2194,7 +2194,7 @@
         <v>1</v>
       </c>
       <c r="E52">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G52">
         <v>2</v>
@@ -2262,16 +2262,16 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -2303,7 +2303,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -2335,7 +2335,7 @@
         <v>8</v>
       </c>
       <c r="E4">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="G4">
         <v>8</v>
@@ -2367,7 +2367,7 @@
         <v>3</v>
       </c>
       <c r="E5">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G5">
         <v>3</v>
@@ -2399,7 +2399,7 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -2431,7 +2431,7 @@
         <v>10</v>
       </c>
       <c r="E7">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G7">
         <v>10</v>
@@ -2463,7 +2463,7 @@
         <v>2</v>
       </c>
       <c r="E8">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -2495,7 +2495,7 @@
         <v>1</v>
       </c>
       <c r="E9">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -2527,7 +2527,7 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -2559,7 +2559,7 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -2591,7 +2591,7 @@
         <v>3</v>
       </c>
       <c r="E12">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -2623,7 +2623,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -2655,7 +2655,7 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -2687,7 +2687,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -2719,7 +2719,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -2751,7 +2751,7 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -2783,7 +2783,7 @@
         <v>2</v>
       </c>
       <c r="E18">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -2815,7 +2815,7 @@
         <v>1</v>
       </c>
       <c r="E19">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -2879,7 +2879,7 @@
         <v>10</v>
       </c>
       <c r="E21">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G21">
         <v>9</v>
@@ -2902,16 +2902,16 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="C22">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D22">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="E22">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -2943,7 +2943,7 @@
         <v>3</v>
       </c>
       <c r="E23">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G23">
         <v>3</v>
@@ -2975,7 +2975,7 @@
         <v>2</v>
       </c>
       <c r="E24">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="G24">
         <v>3</v>
@@ -3007,7 +3007,7 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -3039,7 +3039,7 @@
         <v>2</v>
       </c>
       <c r="E26">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -3071,7 +3071,7 @@
         <v>1</v>
       </c>
       <c r="E27">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -3103,7 +3103,7 @@
         <v>2</v>
       </c>
       <c r="E28">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -3135,7 +3135,7 @@
         <v>8</v>
       </c>
       <c r="E29">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G29">
         <v>7</v>
@@ -3167,7 +3167,7 @@
         <v>3</v>
       </c>
       <c r="E30">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G30">
         <v>3</v>
@@ -3199,7 +3199,7 @@
         <v>3</v>
       </c>
       <c r="E31">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -3231,7 +3231,7 @@
         <v>2</v>
       </c>
       <c r="E32">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -3263,7 +3263,7 @@
         <v>2</v>
       </c>
       <c r="E33">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G33">
         <v>2</v>
@@ -3295,7 +3295,7 @@
         <v>7</v>
       </c>
       <c r="E34">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G34">
         <v>7</v>
@@ -3327,7 +3327,7 @@
         <v>4</v>
       </c>
       <c r="E35">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G35">
         <v>4</v>
@@ -3359,7 +3359,7 @@
         <v>1</v>
       </c>
       <c r="E36">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -3391,7 +3391,7 @@
         <v>1</v>
       </c>
       <c r="E37">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -3423,7 +3423,7 @@
         <v>4</v>
       </c>
       <c r="E38">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G38">
         <v>4</v>
@@ -3455,7 +3455,7 @@
         <v>4</v>
       </c>
       <c r="E39">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G39">
         <v>4</v>
@@ -3487,7 +3487,7 @@
         <v>4</v>
       </c>
       <c r="E40">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G40">
         <v>4</v>
@@ -3519,7 +3519,7 @@
         <v>2</v>
       </c>
       <c r="E41">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G41">
         <v>2</v>
@@ -3551,7 +3551,7 @@
         <v>3</v>
       </c>
       <c r="E42">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G42">
         <v>3</v>
@@ -3583,7 +3583,7 @@
         <v>3</v>
       </c>
       <c r="E43">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G43">
         <v>3</v>
@@ -3615,7 +3615,7 @@
         <v>4</v>
       </c>
       <c r="E44">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G44">
         <v>4</v>
@@ -3647,7 +3647,7 @@
         <v>2</v>
       </c>
       <c r="E45">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -3679,7 +3679,7 @@
         <v>2</v>
       </c>
       <c r="E46">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G46">
         <v>2</v>
@@ -3711,7 +3711,7 @@
         <v>3</v>
       </c>
       <c r="E47">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G47">
         <v>3</v>
@@ -3743,7 +3743,7 @@
         <v>1</v>
       </c>
       <c r="E48">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -3775,7 +3775,7 @@
         <v>3</v>
       </c>
       <c r="E49">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G49">
         <v>3</v>
@@ -3807,7 +3807,7 @@
         <v>7</v>
       </c>
       <c r="E50">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G50">
         <v>7</v>
@@ -3839,7 +3839,7 @@
         <v>5</v>
       </c>
       <c r="E51">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G51">
         <v>5</v>
@@ -3871,7 +3871,7 @@
         <v>1</v>
       </c>
       <c r="E52">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G52">
         <v>2</v>
@@ -3939,16 +3939,16 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -3980,7 +3980,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -4012,7 +4012,7 @@
         <v>8</v>
       </c>
       <c r="E4">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="G4">
         <v>8</v>
@@ -4044,7 +4044,7 @@
         <v>3</v>
       </c>
       <c r="E5">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G5">
         <v>3</v>
@@ -4076,7 +4076,7 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -4108,7 +4108,7 @@
         <v>10</v>
       </c>
       <c r="E7">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G7">
         <v>10</v>
@@ -4140,7 +4140,7 @@
         <v>2</v>
       </c>
       <c r="E8">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -4172,7 +4172,7 @@
         <v>1</v>
       </c>
       <c r="E9">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -4204,7 +4204,7 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -4236,7 +4236,7 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -4268,7 +4268,7 @@
         <v>3</v>
       </c>
       <c r="E12">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -4300,7 +4300,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -4332,7 +4332,7 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -4364,7 +4364,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -4396,7 +4396,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -4428,7 +4428,7 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -4460,7 +4460,7 @@
         <v>2</v>
       </c>
       <c r="E18">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -4492,7 +4492,7 @@
         <v>1</v>
       </c>
       <c r="E19">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -4556,7 +4556,7 @@
         <v>10</v>
       </c>
       <c r="E21">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G21">
         <v>9</v>
@@ -4579,16 +4579,16 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="C22">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="D22">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="E22">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -4620,7 +4620,7 @@
         <v>3</v>
       </c>
       <c r="E23">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G23">
         <v>3</v>
@@ -4652,7 +4652,7 @@
         <v>2</v>
       </c>
       <c r="E24">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="G24">
         <v>3</v>
@@ -4684,7 +4684,7 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -4716,7 +4716,7 @@
         <v>2</v>
       </c>
       <c r="E26">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -4748,7 +4748,7 @@
         <v>1</v>
       </c>
       <c r="E27">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -4780,7 +4780,7 @@
         <v>2</v>
       </c>
       <c r="E28">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -4812,7 +4812,7 @@
         <v>8</v>
       </c>
       <c r="E29">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G29">
         <v>7</v>
@@ -4844,7 +4844,7 @@
         <v>3</v>
       </c>
       <c r="E30">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G30">
         <v>3</v>
@@ -4876,7 +4876,7 @@
         <v>3</v>
       </c>
       <c r="E31">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -4908,7 +4908,7 @@
         <v>2</v>
       </c>
       <c r="E32">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -4940,7 +4940,7 @@
         <v>2</v>
       </c>
       <c r="E33">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G33">
         <v>2</v>
@@ -4972,7 +4972,7 @@
         <v>7</v>
       </c>
       <c r="E34">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G34">
         <v>7</v>
@@ -5004,7 +5004,7 @@
         <v>4</v>
       </c>
       <c r="E35">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G35">
         <v>4</v>
@@ -5036,7 +5036,7 @@
         <v>1</v>
       </c>
       <c r="E36">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -5068,7 +5068,7 @@
         <v>1</v>
       </c>
       <c r="E37">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -5100,7 +5100,7 @@
         <v>4</v>
       </c>
       <c r="E38">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G38">
         <v>4</v>
@@ -5132,7 +5132,7 @@
         <v>4</v>
       </c>
       <c r="E39">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G39">
         <v>4</v>
@@ -5164,7 +5164,7 @@
         <v>4</v>
       </c>
       <c r="E40">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G40">
         <v>4</v>
@@ -5196,7 +5196,7 @@
         <v>2</v>
       </c>
       <c r="E41">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G41">
         <v>2</v>
@@ -5228,7 +5228,7 @@
         <v>3</v>
       </c>
       <c r="E42">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G42">
         <v>3</v>
@@ -5260,7 +5260,7 @@
         <v>3</v>
       </c>
       <c r="E43">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G43">
         <v>3</v>
@@ -5292,7 +5292,7 @@
         <v>4</v>
       </c>
       <c r="E44">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G44">
         <v>4</v>
@@ -5324,7 +5324,7 @@
         <v>2</v>
       </c>
       <c r="E45">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -5356,7 +5356,7 @@
         <v>2</v>
       </c>
       <c r="E46">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G46">
         <v>2</v>
@@ -5388,7 +5388,7 @@
         <v>3</v>
       </c>
       <c r="E47">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G47">
         <v>3</v>
@@ -5420,7 +5420,7 @@
         <v>1</v>
       </c>
       <c r="E48">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -5452,7 +5452,7 @@
         <v>3</v>
       </c>
       <c r="E49">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G49">
         <v>3</v>
@@ -5484,7 +5484,7 @@
         <v>7</v>
       </c>
       <c r="E50">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G50">
         <v>7</v>
@@ -5516,7 +5516,7 @@
         <v>5</v>
       </c>
       <c r="E51">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G51">
         <v>5</v>
@@ -5548,7 +5548,7 @@
         <v>1</v>
       </c>
       <c r="E52">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G52">
         <v>2</v>
@@ -5616,16 +5616,16 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -5657,7 +5657,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -5689,7 +5689,7 @@
         <v>8</v>
       </c>
       <c r="E4">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="G4">
         <v>8</v>
@@ -5721,7 +5721,7 @@
         <v>3</v>
       </c>
       <c r="E5">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G5">
         <v>3</v>
@@ -5753,7 +5753,7 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -5785,7 +5785,7 @@
         <v>10</v>
       </c>
       <c r="E7">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G7">
         <v>10</v>
@@ -5817,7 +5817,7 @@
         <v>2</v>
       </c>
       <c r="E8">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -5849,7 +5849,7 @@
         <v>1</v>
       </c>
       <c r="E9">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -5881,7 +5881,7 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -5913,7 +5913,7 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -5945,7 +5945,7 @@
         <v>3</v>
       </c>
       <c r="E12">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -5977,7 +5977,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -6009,7 +6009,7 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -6041,7 +6041,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -6073,7 +6073,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -6105,7 +6105,7 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -6137,7 +6137,7 @@
         <v>2</v>
       </c>
       <c r="E18">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -6169,7 +6169,7 @@
         <v>1</v>
       </c>
       <c r="E19">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -6233,7 +6233,7 @@
         <v>10</v>
       </c>
       <c r="E21">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G21">
         <v>9</v>
@@ -6256,16 +6256,16 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="C22">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="D22">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="E22">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -6297,7 +6297,7 @@
         <v>3</v>
       </c>
       <c r="E23">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G23">
         <v>3</v>
@@ -6329,7 +6329,7 @@
         <v>2</v>
       </c>
       <c r="E24">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="G24">
         <v>3</v>
@@ -6361,7 +6361,7 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -6393,7 +6393,7 @@
         <v>2</v>
       </c>
       <c r="E26">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -6425,7 +6425,7 @@
         <v>1</v>
       </c>
       <c r="E27">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -6457,7 +6457,7 @@
         <v>2</v>
       </c>
       <c r="E28">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -6489,7 +6489,7 @@
         <v>8</v>
       </c>
       <c r="E29">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G29">
         <v>7</v>
@@ -6521,7 +6521,7 @@
         <v>3</v>
       </c>
       <c r="E30">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G30">
         <v>3</v>
@@ -6553,7 +6553,7 @@
         <v>3</v>
       </c>
       <c r="E31">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -6585,7 +6585,7 @@
         <v>2</v>
       </c>
       <c r="E32">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -6617,7 +6617,7 @@
         <v>2</v>
       </c>
       <c r="E33">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G33">
         <v>2</v>
@@ -6649,7 +6649,7 @@
         <v>7</v>
       </c>
       <c r="E34">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G34">
         <v>7</v>
@@ -6681,7 +6681,7 @@
         <v>4</v>
       </c>
       <c r="E35">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G35">
         <v>4</v>
@@ -6713,7 +6713,7 @@
         <v>1</v>
       </c>
       <c r="E36">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -6745,7 +6745,7 @@
         <v>1</v>
       </c>
       <c r="E37">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -6777,7 +6777,7 @@
         <v>4</v>
       </c>
       <c r="E38">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G38">
         <v>4</v>
@@ -6809,7 +6809,7 @@
         <v>4</v>
       </c>
       <c r="E39">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G39">
         <v>4</v>
@@ -6841,7 +6841,7 @@
         <v>4</v>
       </c>
       <c r="E40">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G40">
         <v>4</v>
@@ -6873,7 +6873,7 @@
         <v>2</v>
       </c>
       <c r="E41">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G41">
         <v>2</v>
@@ -6905,7 +6905,7 @@
         <v>3</v>
       </c>
       <c r="E42">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G42">
         <v>3</v>
@@ -6937,7 +6937,7 @@
         <v>3</v>
       </c>
       <c r="E43">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G43">
         <v>3</v>
@@ -6969,7 +6969,7 @@
         <v>4</v>
       </c>
       <c r="E44">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G44">
         <v>4</v>
@@ -7001,7 +7001,7 @@
         <v>2</v>
       </c>
       <c r="E45">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -7033,7 +7033,7 @@
         <v>2</v>
       </c>
       <c r="E46">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G46">
         <v>2</v>
@@ -7065,7 +7065,7 @@
         <v>3</v>
       </c>
       <c r="E47">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G47">
         <v>3</v>
@@ -7097,7 +7097,7 @@
         <v>1</v>
       </c>
       <c r="E48">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -7129,7 +7129,7 @@
         <v>3</v>
       </c>
       <c r="E49">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G49">
         <v>3</v>
@@ -7161,7 +7161,7 @@
         <v>7</v>
       </c>
       <c r="E50">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G50">
         <v>7</v>
@@ -7193,7 +7193,7 @@
         <v>5</v>
       </c>
       <c r="E51">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G51">
         <v>5</v>
@@ -7225,7 +7225,7 @@
         <v>1</v>
       </c>
       <c r="E52">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G52">
         <v>2</v>
@@ -7293,16 +7293,16 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -7334,7 +7334,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -7366,7 +7366,7 @@
         <v>8</v>
       </c>
       <c r="E4">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="G4">
         <v>8</v>
@@ -7398,7 +7398,7 @@
         <v>3</v>
       </c>
       <c r="E5">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G5">
         <v>3</v>
@@ -7430,7 +7430,7 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -7462,7 +7462,7 @@
         <v>10</v>
       </c>
       <c r="E7">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G7">
         <v>10</v>
@@ -7494,7 +7494,7 @@
         <v>2</v>
       </c>
       <c r="E8">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -7526,7 +7526,7 @@
         <v>1</v>
       </c>
       <c r="E9">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -7558,7 +7558,7 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -7590,7 +7590,7 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -7622,7 +7622,7 @@
         <v>3</v>
       </c>
       <c r="E12">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -7654,7 +7654,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -7686,7 +7686,7 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -7718,7 +7718,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -7750,7 +7750,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -7782,7 +7782,7 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -7814,7 +7814,7 @@
         <v>2</v>
       </c>
       <c r="E18">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -7846,7 +7846,7 @@
         <v>1</v>
       </c>
       <c r="E19">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -7910,7 +7910,7 @@
         <v>10</v>
       </c>
       <c r="E21">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G21">
         <v>9</v>
@@ -7933,16 +7933,16 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="C22">
-        <v>-1</v>
+        <v>29</v>
       </c>
       <c r="D22">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="E22">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -7974,7 +7974,7 @@
         <v>3</v>
       </c>
       <c r="E23">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G23">
         <v>3</v>
@@ -8006,7 +8006,7 @@
         <v>2</v>
       </c>
       <c r="E24">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="G24">
         <v>3</v>
@@ -8038,7 +8038,7 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -8070,7 +8070,7 @@
         <v>2</v>
       </c>
       <c r="E26">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -8102,7 +8102,7 @@
         <v>1</v>
       </c>
       <c r="E27">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -8134,7 +8134,7 @@
         <v>2</v>
       </c>
       <c r="E28">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -8166,7 +8166,7 @@
         <v>8</v>
       </c>
       <c r="E29">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G29">
         <v>7</v>
@@ -8198,7 +8198,7 @@
         <v>3</v>
       </c>
       <c r="E30">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G30">
         <v>3</v>
@@ -8230,7 +8230,7 @@
         <v>3</v>
       </c>
       <c r="E31">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -8262,7 +8262,7 @@
         <v>2</v>
       </c>
       <c r="E32">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -8294,7 +8294,7 @@
         <v>2</v>
       </c>
       <c r="E33">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G33">
         <v>2</v>
@@ -8326,7 +8326,7 @@
         <v>7</v>
       </c>
       <c r="E34">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G34">
         <v>7</v>
@@ -8358,7 +8358,7 @@
         <v>4</v>
       </c>
       <c r="E35">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G35">
         <v>4</v>
@@ -8390,7 +8390,7 @@
         <v>1</v>
       </c>
       <c r="E36">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -8422,7 +8422,7 @@
         <v>1</v>
       </c>
       <c r="E37">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -8454,7 +8454,7 @@
         <v>4</v>
       </c>
       <c r="E38">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G38">
         <v>4</v>
@@ -8486,7 +8486,7 @@
         <v>4</v>
       </c>
       <c r="E39">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G39">
         <v>4</v>
@@ -8518,7 +8518,7 @@
         <v>4</v>
       </c>
       <c r="E40">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G40">
         <v>4</v>
@@ -8550,7 +8550,7 @@
         <v>2</v>
       </c>
       <c r="E41">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G41">
         <v>2</v>
@@ -8582,7 +8582,7 @@
         <v>3</v>
       </c>
       <c r="E42">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G42">
         <v>3</v>
@@ -8614,7 +8614,7 @@
         <v>3</v>
       </c>
       <c r="E43">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G43">
         <v>3</v>
@@ -8646,7 +8646,7 @@
         <v>4</v>
       </c>
       <c r="E44">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G44">
         <v>4</v>
@@ -8678,7 +8678,7 @@
         <v>2</v>
       </c>
       <c r="E45">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -8710,7 +8710,7 @@
         <v>2</v>
       </c>
       <c r="E46">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G46">
         <v>2</v>
@@ -8742,7 +8742,7 @@
         <v>3</v>
       </c>
       <c r="E47">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G47">
         <v>3</v>
@@ -8774,7 +8774,7 @@
         <v>1</v>
       </c>
       <c r="E48">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -8806,7 +8806,7 @@
         <v>3</v>
       </c>
       <c r="E49">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G49">
         <v>3</v>
@@ -8838,7 +8838,7 @@
         <v>7</v>
       </c>
       <c r="E50">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G50">
         <v>7</v>
@@ -8870,7 +8870,7 @@
         <v>5</v>
       </c>
       <c r="E51">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G51">
         <v>5</v>
@@ -8902,7 +8902,7 @@
         <v>1</v>
       </c>
       <c r="E52">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G52">
         <v>2</v>
@@ -8970,16 +8970,16 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -9011,7 +9011,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -9043,7 +9043,7 @@
         <v>8</v>
       </c>
       <c r="E4">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="G4">
         <v>8</v>
@@ -9075,7 +9075,7 @@
         <v>3</v>
       </c>
       <c r="E5">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G5">
         <v>3</v>
@@ -9107,7 +9107,7 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -9139,7 +9139,7 @@
         <v>10</v>
       </c>
       <c r="E7">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G7">
         <v>10</v>
@@ -9171,7 +9171,7 @@
         <v>2</v>
       </c>
       <c r="E8">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -9203,7 +9203,7 @@
         <v>1</v>
       </c>
       <c r="E9">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -9235,7 +9235,7 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -9267,7 +9267,7 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -9299,7 +9299,7 @@
         <v>3</v>
       </c>
       <c r="E12">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -9331,7 +9331,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -9363,7 +9363,7 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -9395,7 +9395,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -9427,7 +9427,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -9459,7 +9459,7 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -9491,7 +9491,7 @@
         <v>2</v>
       </c>
       <c r="E18">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -9523,7 +9523,7 @@
         <v>1</v>
       </c>
       <c r="E19">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -9587,7 +9587,7 @@
         <v>8</v>
       </c>
       <c r="E21">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G21">
         <v>7</v>
@@ -9610,16 +9610,16 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="C22">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="D22">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="E22">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -9651,7 +9651,7 @@
         <v>3</v>
       </c>
       <c r="E23">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G23">
         <v>3</v>
@@ -9683,7 +9683,7 @@
         <v>2</v>
       </c>
       <c r="E24">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="G24">
         <v>3</v>
@@ -9715,7 +9715,7 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -9747,7 +9747,7 @@
         <v>2</v>
       </c>
       <c r="E26">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -9779,7 +9779,7 @@
         <v>1</v>
       </c>
       <c r="E27">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -9811,7 +9811,7 @@
         <v>2</v>
       </c>
       <c r="E28">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -9843,7 +9843,7 @@
         <v>8</v>
       </c>
       <c r="E29">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G29">
         <v>7</v>
@@ -9875,7 +9875,7 @@
         <v>3</v>
       </c>
       <c r="E30">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G30">
         <v>3</v>
@@ -9907,7 +9907,7 @@
         <v>3</v>
       </c>
       <c r="E31">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -9939,7 +9939,7 @@
         <v>2</v>
       </c>
       <c r="E32">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -9971,7 +9971,7 @@
         <v>2</v>
       </c>
       <c r="E33">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G33">
         <v>2</v>
@@ -10003,7 +10003,7 @@
         <v>7</v>
       </c>
       <c r="E34">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G34">
         <v>7</v>
@@ -10035,7 +10035,7 @@
         <v>4</v>
       </c>
       <c r="E35">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G35">
         <v>4</v>
@@ -10067,7 +10067,7 @@
         <v>1</v>
       </c>
       <c r="E36">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -10099,7 +10099,7 @@
         <v>1</v>
       </c>
       <c r="E37">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -10131,7 +10131,7 @@
         <v>4</v>
       </c>
       <c r="E38">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G38">
         <v>4</v>
@@ -10163,7 +10163,7 @@
         <v>4</v>
       </c>
       <c r="E39">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G39">
         <v>4</v>
@@ -10195,7 +10195,7 @@
         <v>4</v>
       </c>
       <c r="E40">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G40">
         <v>4</v>
@@ -10227,7 +10227,7 @@
         <v>2</v>
       </c>
       <c r="E41">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G41">
         <v>2</v>
@@ -10259,7 +10259,7 @@
         <v>3</v>
       </c>
       <c r="E42">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G42">
         <v>3</v>
@@ -10291,7 +10291,7 @@
         <v>3</v>
       </c>
       <c r="E43">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G43">
         <v>3</v>
@@ -10323,7 +10323,7 @@
         <v>4</v>
       </c>
       <c r="E44">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G44">
         <v>4</v>
@@ -10355,7 +10355,7 @@
         <v>2</v>
       </c>
       <c r="E45">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -10387,7 +10387,7 @@
         <v>2</v>
       </c>
       <c r="E46">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G46">
         <v>2</v>
@@ -10419,7 +10419,7 @@
         <v>3</v>
       </c>
       <c r="E47">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G47">
         <v>3</v>
@@ -10451,7 +10451,7 @@
         <v>1</v>
       </c>
       <c r="E48">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -10483,7 +10483,7 @@
         <v>3</v>
       </c>
       <c r="E49">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G49">
         <v>3</v>
@@ -10515,7 +10515,7 @@
         <v>7</v>
       </c>
       <c r="E50">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G50">
         <v>7</v>
@@ -10547,7 +10547,7 @@
         <v>5</v>
       </c>
       <c r="E51">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G51">
         <v>5</v>
@@ -10579,7 +10579,7 @@
         <v>1</v>
       </c>
       <c r="E52">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G52">
         <v>2</v>
@@ -10647,16 +10647,16 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2">
         <v>18</v>
       </c>
       <c r="D2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -10688,7 +10688,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -10720,7 +10720,7 @@
         <v>12</v>
       </c>
       <c r="E4">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -10752,7 +10752,7 @@
         <v>3</v>
       </c>
       <c r="E5">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G5">
         <v>3</v>
@@ -10784,7 +10784,7 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -10816,7 +10816,7 @@
         <v>10</v>
       </c>
       <c r="E7">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G7">
         <v>10</v>
@@ -10848,7 +10848,7 @@
         <v>2</v>
       </c>
       <c r="E8">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -10880,7 +10880,7 @@
         <v>1</v>
       </c>
       <c r="E9">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -10912,7 +10912,7 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -10944,7 +10944,7 @@
         <v>18</v>
       </c>
       <c r="E11">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -10976,7 +10976,7 @@
         <v>3</v>
       </c>
       <c r="E12">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -11008,7 +11008,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -11040,7 +11040,7 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -11072,7 +11072,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -11104,7 +11104,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -11136,7 +11136,7 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -11168,7 +11168,7 @@
         <v>2</v>
       </c>
       <c r="E18">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -11200,7 +11200,7 @@
         <v>1</v>
       </c>
       <c r="E19">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -11264,7 +11264,7 @@
         <v>8</v>
       </c>
       <c r="E21">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G21">
         <v>7</v>
@@ -11287,16 +11287,16 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C22">
-        <v>-1</v>
+        <v>16</v>
       </c>
       <c r="D22">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E22">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -11328,7 +11328,7 @@
         <v>3</v>
       </c>
       <c r="E23">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G23">
         <v>3</v>
@@ -11360,7 +11360,7 @@
         <v>2</v>
       </c>
       <c r="E24">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="G24">
         <v>3</v>
@@ -11392,7 +11392,7 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -11424,7 +11424,7 @@
         <v>2</v>
       </c>
       <c r="E26">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -11456,7 +11456,7 @@
         <v>1</v>
       </c>
       <c r="E27">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -11488,7 +11488,7 @@
         <v>2</v>
       </c>
       <c r="E28">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -11520,7 +11520,7 @@
         <v>7</v>
       </c>
       <c r="E29">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G29">
         <v>7</v>
@@ -11552,7 +11552,7 @@
         <v>3</v>
       </c>
       <c r="E30">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G30">
         <v>3</v>
@@ -11584,7 +11584,7 @@
         <v>3</v>
       </c>
       <c r="E31">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -11616,7 +11616,7 @@
         <v>2</v>
       </c>
       <c r="E32">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -11648,7 +11648,7 @@
         <v>2</v>
       </c>
       <c r="E33">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G33">
         <v>2</v>
@@ -11680,7 +11680,7 @@
         <v>7</v>
       </c>
       <c r="E34">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G34">
         <v>7</v>
@@ -11712,7 +11712,7 @@
         <v>4</v>
       </c>
       <c r="E35">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G35">
         <v>4</v>
@@ -11744,7 +11744,7 @@
         <v>1</v>
       </c>
       <c r="E36">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -11776,7 +11776,7 @@
         <v>2</v>
       </c>
       <c r="E37">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -11808,7 +11808,7 @@
         <v>4</v>
       </c>
       <c r="E38">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G38">
         <v>4</v>
@@ -11840,7 +11840,7 @@
         <v>4</v>
       </c>
       <c r="E39">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G39">
         <v>4</v>
@@ -11872,7 +11872,7 @@
         <v>4</v>
       </c>
       <c r="E40">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G40">
         <v>4</v>
@@ -11904,7 +11904,7 @@
         <v>2</v>
       </c>
       <c r="E41">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G41">
         <v>2</v>
@@ -11936,7 +11936,7 @@
         <v>3</v>
       </c>
       <c r="E42">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G42">
         <v>3</v>
@@ -11968,7 +11968,7 @@
         <v>3</v>
       </c>
       <c r="E43">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G43">
         <v>3</v>
@@ -12000,7 +12000,7 @@
         <v>4</v>
       </c>
       <c r="E44">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G44">
         <v>4</v>
@@ -12032,7 +12032,7 @@
         <v>2</v>
       </c>
       <c r="E45">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -12064,7 +12064,7 @@
         <v>2</v>
       </c>
       <c r="E46">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G46">
         <v>2</v>
@@ -12096,7 +12096,7 @@
         <v>3</v>
       </c>
       <c r="E47">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G47">
         <v>3</v>
@@ -12128,7 +12128,7 @@
         <v>1</v>
       </c>
       <c r="E48">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -12160,7 +12160,7 @@
         <v>3</v>
       </c>
       <c r="E49">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G49">
         <v>3</v>
@@ -12192,7 +12192,7 @@
         <v>7</v>
       </c>
       <c r="E50">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G50">
         <v>7</v>
@@ -12224,7 +12224,7 @@
         <v>5</v>
       </c>
       <c r="E51">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G51">
         <v>5</v>
@@ -12256,7 +12256,7 @@
         <v>1</v>
       </c>
       <c r="E52">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G52">
         <v>2</v>
@@ -12324,16 +12324,16 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -12365,7 +12365,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -12397,7 +12397,7 @@
         <v>8</v>
       </c>
       <c r="E4">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="G4">
         <v>8</v>
@@ -12429,7 +12429,7 @@
         <v>3</v>
       </c>
       <c r="E5">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G5">
         <v>3</v>
@@ -12461,7 +12461,7 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -12493,7 +12493,7 @@
         <v>10</v>
       </c>
       <c r="E7">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G7">
         <v>10</v>
@@ -12525,7 +12525,7 @@
         <v>2</v>
       </c>
       <c r="E8">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -12557,7 +12557,7 @@
         <v>1</v>
       </c>
       <c r="E9">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -12589,7 +12589,7 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -12621,7 +12621,7 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -12653,7 +12653,7 @@
         <v>3</v>
       </c>
       <c r="E12">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -12685,7 +12685,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -12717,7 +12717,7 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -12749,7 +12749,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -12781,7 +12781,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -12813,7 +12813,7 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -12845,7 +12845,7 @@
         <v>2</v>
       </c>
       <c r="E18">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -12877,7 +12877,7 @@
         <v>1</v>
       </c>
       <c r="E19">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -12941,7 +12941,7 @@
         <v>8</v>
       </c>
       <c r="E21">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G21">
         <v>7</v>
@@ -12964,16 +12964,16 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="C22">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="D22">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="E22">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -13005,7 +13005,7 @@
         <v>3</v>
       </c>
       <c r="E23">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G23">
         <v>3</v>
@@ -13037,7 +13037,7 @@
         <v>2</v>
       </c>
       <c r="E24">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="G24">
         <v>3</v>
@@ -13069,7 +13069,7 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -13101,7 +13101,7 @@
         <v>2</v>
       </c>
       <c r="E26">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -13133,7 +13133,7 @@
         <v>1</v>
       </c>
       <c r="E27">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -13165,7 +13165,7 @@
         <v>2</v>
       </c>
       <c r="E28">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -13197,7 +13197,7 @@
         <v>8</v>
       </c>
       <c r="E29">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G29">
         <v>7</v>
@@ -13229,7 +13229,7 @@
         <v>3</v>
       </c>
       <c r="E30">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G30">
         <v>3</v>
@@ -13261,7 +13261,7 @@
         <v>3</v>
       </c>
       <c r="E31">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -13293,7 +13293,7 @@
         <v>2</v>
       </c>
       <c r="E32">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -13325,7 +13325,7 @@
         <v>2</v>
       </c>
       <c r="E33">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G33">
         <v>2</v>
@@ -13357,7 +13357,7 @@
         <v>7</v>
       </c>
       <c r="E34">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G34">
         <v>7</v>
@@ -13389,7 +13389,7 @@
         <v>4</v>
       </c>
       <c r="E35">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G35">
         <v>4</v>
@@ -13421,7 +13421,7 @@
         <v>1</v>
       </c>
       <c r="E36">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -13453,7 +13453,7 @@
         <v>1</v>
       </c>
       <c r="E37">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -13485,7 +13485,7 @@
         <v>4</v>
       </c>
       <c r="E38">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G38">
         <v>4</v>
@@ -13517,7 +13517,7 @@
         <v>4</v>
       </c>
       <c r="E39">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G39">
         <v>4</v>
@@ -13549,7 +13549,7 @@
         <v>4</v>
       </c>
       <c r="E40">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G40">
         <v>4</v>
@@ -13581,7 +13581,7 @@
         <v>2</v>
       </c>
       <c r="E41">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G41">
         <v>2</v>
@@ -13613,7 +13613,7 @@
         <v>3</v>
       </c>
       <c r="E42">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G42">
         <v>3</v>
@@ -13645,7 +13645,7 @@
         <v>3</v>
       </c>
       <c r="E43">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G43">
         <v>3</v>
@@ -13677,7 +13677,7 @@
         <v>4</v>
       </c>
       <c r="E44">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G44">
         <v>4</v>
@@ -13709,7 +13709,7 @@
         <v>2</v>
       </c>
       <c r="E45">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -13741,7 +13741,7 @@
         <v>2</v>
       </c>
       <c r="E46">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G46">
         <v>2</v>
@@ -13773,7 +13773,7 @@
         <v>3</v>
       </c>
       <c r="E47">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G47">
         <v>3</v>
@@ -13805,7 +13805,7 @@
         <v>1</v>
       </c>
       <c r="E48">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -13837,7 +13837,7 @@
         <v>3</v>
       </c>
       <c r="E49">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G49">
         <v>3</v>
@@ -13869,7 +13869,7 @@
         <v>7</v>
       </c>
       <c r="E50">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G50">
         <v>7</v>
@@ -13901,7 +13901,7 @@
         <v>5</v>
       </c>
       <c r="E51">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G51">
         <v>5</v>
@@ -13933,7 +13933,7 @@
         <v>1</v>
       </c>
       <c r="E52">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G52">
         <v>2</v>
@@ -14010,7 +14010,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -14042,7 +14042,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -14074,7 +14074,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -14106,7 +14106,7 @@
         <v>3</v>
       </c>
       <c r="E5">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G5">
         <v>3</v>
@@ -14138,7 +14138,7 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -14170,7 +14170,7 @@
         <v>10</v>
       </c>
       <c r="E7">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G7">
         <v>10</v>
@@ -14202,7 +14202,7 @@
         <v>2</v>
       </c>
       <c r="E8">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -14234,7 +14234,7 @@
         <v>1</v>
       </c>
       <c r="E9">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -14266,7 +14266,7 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -14298,7 +14298,7 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -14330,7 +14330,7 @@
         <v>3</v>
       </c>
       <c r="E12">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -14362,7 +14362,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -14394,7 +14394,7 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -14426,7 +14426,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -14458,7 +14458,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -14490,7 +14490,7 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -14522,7 +14522,7 @@
         <v>2</v>
       </c>
       <c r="E18">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -14554,7 +14554,7 @@
         <v>1</v>
       </c>
       <c r="E19">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -14618,7 +14618,7 @@
         <v>8</v>
       </c>
       <c r="E21">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G21">
         <v>7</v>
@@ -14641,16 +14641,16 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C22">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D22">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E22">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -14682,7 +14682,7 @@
         <v>3</v>
       </c>
       <c r="E23">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G23">
         <v>3</v>
@@ -14714,7 +14714,7 @@
         <v>2</v>
       </c>
       <c r="E24">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="G24">
         <v>3</v>
@@ -14746,7 +14746,7 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -14778,7 +14778,7 @@
         <v>2</v>
       </c>
       <c r="E26">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -14810,7 +14810,7 @@
         <v>1</v>
       </c>
       <c r="E27">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -14842,7 +14842,7 @@
         <v>2</v>
       </c>
       <c r="E28">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -14874,7 +14874,7 @@
         <v>7</v>
       </c>
       <c r="E29">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G29">
         <v>7</v>
@@ -14906,7 +14906,7 @@
         <v>3</v>
       </c>
       <c r="E30">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G30">
         <v>3</v>
@@ -14938,7 +14938,7 @@
         <v>3</v>
       </c>
       <c r="E31">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -14970,7 +14970,7 @@
         <v>2</v>
       </c>
       <c r="E32">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -15002,7 +15002,7 @@
         <v>2</v>
       </c>
       <c r="E33">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G33">
         <v>2</v>
@@ -15034,7 +15034,7 @@
         <v>7</v>
       </c>
       <c r="E34">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G34">
         <v>7</v>
@@ -15066,7 +15066,7 @@
         <v>4</v>
       </c>
       <c r="E35">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G35">
         <v>4</v>
@@ -15098,7 +15098,7 @@
         <v>1</v>
       </c>
       <c r="E36">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -15130,7 +15130,7 @@
         <v>1</v>
       </c>
       <c r="E37">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -15162,7 +15162,7 @@
         <v>4</v>
       </c>
       <c r="E38">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G38">
         <v>4</v>
@@ -15194,7 +15194,7 @@
         <v>4</v>
       </c>
       <c r="E39">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G39">
         <v>4</v>
@@ -15226,7 +15226,7 @@
         <v>4</v>
       </c>
       <c r="E40">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G40">
         <v>4</v>
@@ -15258,7 +15258,7 @@
         <v>2</v>
       </c>
       <c r="E41">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G41">
         <v>2</v>
@@ -15290,7 +15290,7 @@
         <v>3</v>
       </c>
       <c r="E42">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G42">
         <v>3</v>
@@ -15322,7 +15322,7 @@
         <v>3</v>
       </c>
       <c r="E43">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G43">
         <v>3</v>
@@ -15354,7 +15354,7 @@
         <v>4</v>
       </c>
       <c r="E44">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G44">
         <v>4</v>
@@ -15386,7 +15386,7 @@
         <v>2</v>
       </c>
       <c r="E45">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -15418,7 +15418,7 @@
         <v>2</v>
       </c>
       <c r="E46">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G46">
         <v>2</v>
@@ -15450,7 +15450,7 @@
         <v>3</v>
       </c>
       <c r="E47">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G47">
         <v>3</v>
@@ -15482,7 +15482,7 @@
         <v>1</v>
       </c>
       <c r="E48">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -15514,7 +15514,7 @@
         <v>3</v>
       </c>
       <c r="E49">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G49">
         <v>3</v>
@@ -15546,7 +15546,7 @@
         <v>7</v>
       </c>
       <c r="E50">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G50">
         <v>7</v>
@@ -15578,7 +15578,7 @@
         <v>5</v>
       </c>
       <c r="E51">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G51">
         <v>5</v>
@@ -15610,7 +15610,7 @@
         <v>1</v>
       </c>
       <c r="E52">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G52">
         <v>2</v>
@@ -15678,16 +15678,16 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -15719,7 +15719,7 @@
         <v>4</v>
       </c>
       <c r="E3">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G3">
         <v>7</v>
@@ -15751,7 +15751,7 @@
         <v>9</v>
       </c>
       <c r="E4">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="G4">
         <v>9</v>
@@ -15783,7 +15783,7 @@
         <v>3</v>
       </c>
       <c r="E5">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G5">
         <v>3</v>
@@ -15815,7 +15815,7 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -15847,7 +15847,7 @@
         <v>10</v>
       </c>
       <c r="E7">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G7">
         <v>10</v>
@@ -15879,7 +15879,7 @@
         <v>2</v>
       </c>
       <c r="E8">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -15911,7 +15911,7 @@
         <v>9</v>
       </c>
       <c r="E9">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G9">
         <v>10</v>
@@ -15943,7 +15943,7 @@
         <v>15</v>
       </c>
       <c r="E10">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G10">
         <v>16</v>
@@ -15966,16 +15966,16 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11">
         <v>7</v>
       </c>
       <c r="D11">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E11">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G11">
         <v>14</v>
@@ -16007,7 +16007,7 @@
         <v>3</v>
       </c>
       <c r="E12">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -16039,7 +16039,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -16071,7 +16071,7 @@
         <v>2</v>
       </c>
       <c r="E14">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -16103,7 +16103,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -16135,7 +16135,7 @@
         <v>10</v>
       </c>
       <c r="E16">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G16">
         <v>11</v>
@@ -16167,7 +16167,7 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -16199,7 +16199,7 @@
         <v>2</v>
       </c>
       <c r="E18">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -16231,7 +16231,7 @@
         <v>1</v>
       </c>
       <c r="E19">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -16295,7 +16295,7 @@
         <v>10</v>
       </c>
       <c r="E21">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G21">
         <v>9</v>
@@ -16318,16 +16318,16 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="C22">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D22">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="E22">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="G22">
         <v>3</v>
@@ -16359,7 +16359,7 @@
         <v>6</v>
       </c>
       <c r="E23">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G23">
         <v>6</v>
@@ -16391,7 +16391,7 @@
         <v>2</v>
       </c>
       <c r="E24">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="G24">
         <v>3</v>
@@ -16423,7 +16423,7 @@
         <v>11</v>
       </c>
       <c r="E25">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G25">
         <v>12</v>
@@ -16455,7 +16455,7 @@
         <v>2</v>
       </c>
       <c r="E26">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -16478,16 +16478,16 @@
         <v>35</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E27">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -16519,7 +16519,7 @@
         <v>2</v>
       </c>
       <c r="E28">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -16551,7 +16551,7 @@
         <v>8</v>
       </c>
       <c r="E29">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G29">
         <v>7</v>
@@ -16583,7 +16583,7 @@
         <v>13</v>
       </c>
       <c r="E30">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G30">
         <v>13</v>
@@ -16615,7 +16615,7 @@
         <v>3</v>
       </c>
       <c r="E31">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -16647,7 +16647,7 @@
         <v>2</v>
       </c>
       <c r="E32">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -16679,7 +16679,7 @@
         <v>2</v>
       </c>
       <c r="E33">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G33">
         <v>2</v>
@@ -16711,7 +16711,7 @@
         <v>7</v>
       </c>
       <c r="E34">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G34">
         <v>7</v>
@@ -16743,7 +16743,7 @@
         <v>7</v>
       </c>
       <c r="E35">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G35">
         <v>7</v>
@@ -16775,7 +16775,7 @@
         <v>2</v>
       </c>
       <c r="E36">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -16807,7 +16807,7 @@
         <v>4</v>
       </c>
       <c r="E37">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="G37">
         <v>4</v>
@@ -16839,7 +16839,7 @@
         <v>7</v>
       </c>
       <c r="E38">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G38">
         <v>7</v>
@@ -16871,7 +16871,7 @@
         <v>8</v>
       </c>
       <c r="E39">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G39">
         <v>8</v>
@@ -16903,7 +16903,7 @@
         <v>4</v>
       </c>
       <c r="E40">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G40">
         <v>4</v>
@@ -16935,7 +16935,7 @@
         <v>3</v>
       </c>
       <c r="E41">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G41">
         <v>3</v>
@@ -16967,7 +16967,7 @@
         <v>6</v>
       </c>
       <c r="E42">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G42">
         <v>6</v>
@@ -16999,7 +16999,7 @@
         <v>6</v>
       </c>
       <c r="E43">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G43">
         <v>6</v>
@@ -17031,7 +17031,7 @@
         <v>6</v>
       </c>
       <c r="E44">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G44">
         <v>6</v>
@@ -17063,7 +17063,7 @@
         <v>2</v>
       </c>
       <c r="E45">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -17095,7 +17095,7 @@
         <v>4</v>
       </c>
       <c r="E46">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G46">
         <v>4</v>
@@ -17127,7 +17127,7 @@
         <v>13</v>
       </c>
       <c r="E47">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G47">
         <v>13</v>
@@ -17159,7 +17159,7 @@
         <v>1</v>
       </c>
       <c r="E48">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -17191,7 +17191,7 @@
         <v>5</v>
       </c>
       <c r="E49">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G49">
         <v>5</v>
@@ -17223,7 +17223,7 @@
         <v>7</v>
       </c>
       <c r="E50">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G50">
         <v>7</v>
@@ -17255,7 +17255,7 @@
         <v>5</v>
       </c>
       <c r="E51">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G51">
         <v>5</v>
@@ -17278,16 +17278,16 @@
         <v>60</v>
       </c>
       <c r="B52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C52">
         <v>1</v>
       </c>
       <c r="D52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E52">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G52">
         <v>2</v>
@@ -17355,7 +17355,7 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C2">
         <v>18</v>
@@ -17364,7 +17364,7 @@
         <v>18</v>
       </c>
       <c r="E2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -17387,7 +17387,7 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -17396,7 +17396,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -17419,7 +17419,7 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C4">
         <v>7</v>
@@ -17428,7 +17428,7 @@
         <v>7</v>
       </c>
       <c r="E4">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -17451,7 +17451,7 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C5">
         <v>8</v>
@@ -17460,7 +17460,7 @@
         <v>8</v>
       </c>
       <c r="E5">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G5">
         <v>3</v>
@@ -17483,7 +17483,7 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C6">
         <v>24</v>
@@ -17492,7 +17492,7 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -17515,7 +17515,7 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C7">
         <v>16</v>
@@ -17524,7 +17524,7 @@
         <v>16</v>
       </c>
       <c r="E7">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G7">
         <v>10</v>
@@ -17547,7 +17547,7 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C8">
         <v>8</v>
@@ -17556,7 +17556,7 @@
         <v>8</v>
       </c>
       <c r="E8">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -17579,7 +17579,7 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C9">
         <v>2</v>
@@ -17588,7 +17588,7 @@
         <v>2</v>
       </c>
       <c r="E9">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -17611,7 +17611,7 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C10">
         <v>2</v>
@@ -17620,7 +17620,7 @@
         <v>2</v>
       </c>
       <c r="E10">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -17643,7 +17643,7 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C11">
         <v>7</v>
@@ -17652,7 +17652,7 @@
         <v>7</v>
       </c>
       <c r="E11">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -17675,7 +17675,7 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C12">
         <v>4</v>
@@ -17684,7 +17684,7 @@
         <v>4</v>
       </c>
       <c r="E12">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -17707,7 +17707,7 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C13">
         <v>4</v>
@@ -17716,7 +17716,7 @@
         <v>4</v>
       </c>
       <c r="E13">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -17739,7 +17739,7 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C14">
         <v>9</v>
@@ -17748,7 +17748,7 @@
         <v>9</v>
       </c>
       <c r="E14">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -17771,7 +17771,7 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C15">
         <v>8</v>
@@ -17780,7 +17780,7 @@
         <v>8</v>
       </c>
       <c r="E15">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -17803,7 +17803,7 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C16">
         <v>2</v>
@@ -17812,7 +17812,7 @@
         <v>2</v>
       </c>
       <c r="E16">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -17835,7 +17835,7 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C17">
         <v>16</v>
@@ -17844,7 +17844,7 @@
         <v>16</v>
       </c>
       <c r="E17">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -17867,7 +17867,7 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C18">
         <v>8</v>
@@ -17876,7 +17876,7 @@
         <v>8</v>
       </c>
       <c r="E18">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -17899,7 +17899,7 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -17908,7 +17908,7 @@
         <v>1</v>
       </c>
       <c r="E19">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -17963,7 +17963,7 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C21">
         <v>8</v>
@@ -17972,7 +17972,7 @@
         <v>8</v>
       </c>
       <c r="E21">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G21">
         <v>7</v>
@@ -17995,16 +17995,16 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="C22">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D22">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E22">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -18027,7 +18027,7 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C23">
         <v>5</v>
@@ -18036,7 +18036,7 @@
         <v>5</v>
       </c>
       <c r="E23">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G23">
         <v>3</v>
@@ -18059,7 +18059,7 @@
         <v>32</v>
       </c>
       <c r="B24">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C24">
         <v>2</v>
@@ -18068,7 +18068,7 @@
         <v>2</v>
       </c>
       <c r="E24">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="G24">
         <v>3</v>
@@ -18091,7 +18091,7 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C25">
         <v>2</v>
@@ -18100,7 +18100,7 @@
         <v>2</v>
       </c>
       <c r="E25">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -18123,7 +18123,7 @@
         <v>34</v>
       </c>
       <c r="B26">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C26">
         <v>2</v>
@@ -18132,7 +18132,7 @@
         <v>2</v>
       </c>
       <c r="E26">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -18155,7 +18155,7 @@
         <v>35</v>
       </c>
       <c r="B27">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C27">
         <v>2</v>
@@ -18164,7 +18164,7 @@
         <v>2</v>
       </c>
       <c r="E27">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -18187,7 +18187,7 @@
         <v>36</v>
       </c>
       <c r="B28">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C28">
         <v>2</v>
@@ -18196,7 +18196,7 @@
         <v>2</v>
       </c>
       <c r="E28">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -18219,7 +18219,7 @@
         <v>37</v>
       </c>
       <c r="B29">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C29">
         <v>8</v>
@@ -18228,7 +18228,7 @@
         <v>8</v>
       </c>
       <c r="E29">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G29">
         <v>7</v>
@@ -18251,7 +18251,7 @@
         <v>38</v>
       </c>
       <c r="B30">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C30">
         <v>8</v>
@@ -18260,7 +18260,7 @@
         <v>8</v>
       </c>
       <c r="E30">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G30">
         <v>3</v>
@@ -18283,7 +18283,7 @@
         <v>39</v>
       </c>
       <c r="B31">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C31">
         <v>16</v>
@@ -18292,7 +18292,7 @@
         <v>16</v>
       </c>
       <c r="E31">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -18315,7 +18315,7 @@
         <v>40</v>
       </c>
       <c r="B32">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C32">
         <v>7</v>
@@ -18324,7 +18324,7 @@
         <v>7</v>
       </c>
       <c r="E32">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -18347,7 +18347,7 @@
         <v>41</v>
       </c>
       <c r="B33">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C33">
         <v>16</v>
@@ -18356,7 +18356,7 @@
         <v>16</v>
       </c>
       <c r="E33">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G33">
         <v>2</v>
@@ -18379,7 +18379,7 @@
         <v>42</v>
       </c>
       <c r="B34">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C34">
         <v>8</v>
@@ -18388,7 +18388,7 @@
         <v>8</v>
       </c>
       <c r="E34">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G34">
         <v>7</v>
@@ -18411,7 +18411,7 @@
         <v>43</v>
       </c>
       <c r="B35">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C35">
         <v>5</v>
@@ -18420,7 +18420,7 @@
         <v>5</v>
       </c>
       <c r="E35">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G35">
         <v>4</v>
@@ -18443,7 +18443,7 @@
         <v>44</v>
       </c>
       <c r="B36">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C36">
         <v>8</v>
@@ -18452,7 +18452,7 @@
         <v>8</v>
       </c>
       <c r="E36">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -18475,7 +18475,7 @@
         <v>45</v>
       </c>
       <c r="B37">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C37">
         <v>9</v>
@@ -18484,7 +18484,7 @@
         <v>9</v>
       </c>
       <c r="E37">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -18507,7 +18507,7 @@
         <v>46</v>
       </c>
       <c r="B38">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C38">
         <v>5</v>
@@ -18516,7 +18516,7 @@
         <v>5</v>
       </c>
       <c r="E38">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G38">
         <v>4</v>
@@ -18539,7 +18539,7 @@
         <v>47</v>
       </c>
       <c r="B39">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C39">
         <v>5</v>
@@ -18548,7 +18548,7 @@
         <v>5</v>
       </c>
       <c r="E39">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G39">
         <v>4</v>
@@ -18571,7 +18571,7 @@
         <v>48</v>
       </c>
       <c r="B40">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C40">
         <v>8</v>
@@ -18580,7 +18580,7 @@
         <v>8</v>
       </c>
       <c r="E40">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G40">
         <v>4</v>
@@ -18603,7 +18603,7 @@
         <v>49</v>
       </c>
       <c r="B41">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C41">
         <v>8</v>
@@ -18612,7 +18612,7 @@
         <v>8</v>
       </c>
       <c r="E41">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G41">
         <v>2</v>
@@ -18635,7 +18635,7 @@
         <v>50</v>
       </c>
       <c r="B42">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C42">
         <v>5</v>
@@ -18644,7 +18644,7 @@
         <v>5</v>
       </c>
       <c r="E42">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G42">
         <v>3</v>
@@ -18667,7 +18667,7 @@
         <v>51</v>
       </c>
       <c r="B43">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C43">
         <v>4</v>
@@ -18676,7 +18676,7 @@
         <v>4</v>
       </c>
       <c r="E43">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G43">
         <v>3</v>
@@ -18699,7 +18699,7 @@
         <v>52</v>
       </c>
       <c r="B44">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C44">
         <v>5</v>
@@ -18708,7 +18708,7 @@
         <v>5</v>
       </c>
       <c r="E44">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G44">
         <v>4</v>
@@ -18731,7 +18731,7 @@
         <v>53</v>
       </c>
       <c r="B45">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C45">
         <v>2</v>
@@ -18740,7 +18740,7 @@
         <v>2</v>
       </c>
       <c r="E45">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -18763,7 +18763,7 @@
         <v>54</v>
       </c>
       <c r="B46">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C46">
         <v>7</v>
@@ -18772,7 +18772,7 @@
         <v>7</v>
       </c>
       <c r="E46">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G46">
         <v>2</v>
@@ -18795,7 +18795,7 @@
         <v>55</v>
       </c>
       <c r="B47">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C47">
         <v>10</v>
@@ -18804,7 +18804,7 @@
         <v>10</v>
       </c>
       <c r="E47">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G47">
         <v>3</v>
@@ -18827,7 +18827,7 @@
         <v>56</v>
       </c>
       <c r="B48">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C48">
         <v>2</v>
@@ -18836,7 +18836,7 @@
         <v>2</v>
       </c>
       <c r="E48">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -18859,7 +18859,7 @@
         <v>57</v>
       </c>
       <c r="B49">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C49">
         <v>4</v>
@@ -18868,7 +18868,7 @@
         <v>4</v>
       </c>
       <c r="E49">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G49">
         <v>3</v>
@@ -18891,7 +18891,7 @@
         <v>58</v>
       </c>
       <c r="B50">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C50">
         <v>8</v>
@@ -18900,7 +18900,7 @@
         <v>8</v>
       </c>
       <c r="E50">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G50">
         <v>7</v>
@@ -18923,7 +18923,7 @@
         <v>59</v>
       </c>
       <c r="B51">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C51">
         <v>24</v>
@@ -18932,7 +18932,7 @@
         <v>24</v>
       </c>
       <c r="E51">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G51">
         <v>5</v>
@@ -18955,7 +18955,7 @@
         <v>60</v>
       </c>
       <c r="B52">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -18964,7 +18964,7 @@
         <v>1</v>
       </c>
       <c r="E52">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G52">
         <v>2</v>
@@ -19032,16 +19032,16 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C2">
         <v>23</v>
       </c>
       <c r="D2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G2">
         <v>15</v>
@@ -19064,7 +19064,7 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C3">
         <v>4</v>
@@ -19073,7 +19073,7 @@
         <v>4</v>
       </c>
       <c r="E3">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G3">
         <v>8</v>
@@ -19096,7 +19096,7 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C4">
         <v>24</v>
@@ -19105,7 +19105,7 @@
         <v>29</v>
       </c>
       <c r="E4">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="G4">
         <v>17</v>
@@ -19128,7 +19128,7 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C5">
         <v>8</v>
@@ -19137,7 +19137,7 @@
         <v>8</v>
       </c>
       <c r="E5">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G5">
         <v>25</v>
@@ -19160,7 +19160,7 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C6">
         <v>24</v>
@@ -19169,7 +19169,7 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G6">
         <v>63</v>
@@ -19192,7 +19192,7 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C7">
         <v>16</v>
@@ -19201,7 +19201,7 @@
         <v>16</v>
       </c>
       <c r="E7">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G7">
         <v>40</v>
@@ -19224,7 +19224,7 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C8">
         <v>8</v>
@@ -19233,7 +19233,7 @@
         <v>8</v>
       </c>
       <c r="E8">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G8">
         <v>24</v>
@@ -19256,7 +19256,7 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -19265,7 +19265,7 @@
         <v>1</v>
       </c>
       <c r="E9">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G9">
         <v>10</v>
@@ -19288,7 +19288,7 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -19297,7 +19297,7 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G10">
         <v>10</v>
@@ -19320,7 +19320,7 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C11">
         <v>19</v>
@@ -19329,7 +19329,7 @@
         <v>19</v>
       </c>
       <c r="E11">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G11">
         <v>11</v>
@@ -19352,7 +19352,7 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C12">
         <v>4</v>
@@ -19361,7 +19361,7 @@
         <v>4</v>
       </c>
       <c r="E12">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G12">
         <v>14</v>
@@ -19384,7 +19384,7 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C13">
         <v>4</v>
@@ -19393,7 +19393,7 @@
         <v>4</v>
       </c>
       <c r="E13">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G13">
         <v>14</v>
@@ -19416,7 +19416,7 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C14">
         <v>8</v>
@@ -19425,7 +19425,7 @@
         <v>8</v>
       </c>
       <c r="E14">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G14">
         <v>25</v>
@@ -19448,7 +19448,7 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C15">
         <v>8</v>
@@ -19457,7 +19457,7 @@
         <v>8</v>
       </c>
       <c r="E15">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G15">
         <v>31</v>
@@ -19480,7 +19480,7 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -19489,7 +19489,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G16">
         <v>10</v>
@@ -19512,7 +19512,7 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C17">
         <v>16</v>
@@ -19521,7 +19521,7 @@
         <v>16</v>
       </c>
       <c r="E17">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G17">
         <v>40</v>
@@ -19544,7 +19544,7 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C18">
         <v>8</v>
@@ -19553,7 +19553,7 @@
         <v>8</v>
       </c>
       <c r="E18">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G18">
         <v>24</v>
@@ -19576,7 +19576,7 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -19585,7 +19585,7 @@
         <v>1</v>
       </c>
       <c r="E19">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="G19">
         <v>17</v>
@@ -19640,7 +19640,7 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C21">
         <v>8</v>
@@ -19649,7 +19649,7 @@
         <v>8</v>
       </c>
       <c r="E21">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G21">
         <v>25</v>
@@ -19672,16 +19672,16 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="C22">
-        <v>-1</v>
+        <v>16</v>
       </c>
       <c r="D22">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E22">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="G22">
         <v>16</v>
@@ -19704,7 +19704,7 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C23">
         <v>4</v>
@@ -19713,7 +19713,7 @@
         <v>4</v>
       </c>
       <c r="E23">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G23">
         <v>14</v>
@@ -19736,7 +19736,7 @@
         <v>32</v>
       </c>
       <c r="B24">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C24">
         <v>2</v>
@@ -19745,7 +19745,7 @@
         <v>2</v>
       </c>
       <c r="E24">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="G24">
         <v>10</v>
@@ -19768,7 +19768,7 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -19777,7 +19777,7 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G25">
         <v>10</v>
@@ -19800,7 +19800,7 @@
         <v>34</v>
       </c>
       <c r="B26">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C26">
         <v>2</v>
@@ -19809,7 +19809,7 @@
         <v>2</v>
       </c>
       <c r="E26">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="G26">
         <v>10</v>
@@ -19832,7 +19832,7 @@
         <v>35</v>
       </c>
       <c r="B27">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C27">
         <v>2</v>
@@ -19841,7 +19841,7 @@
         <v>2</v>
       </c>
       <c r="E27">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="G27">
         <v>15</v>
@@ -19864,7 +19864,7 @@
         <v>36</v>
       </c>
       <c r="B28">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C28">
         <v>2</v>
@@ -19873,7 +19873,7 @@
         <v>2</v>
       </c>
       <c r="E28">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G28">
         <v>14</v>
@@ -19896,7 +19896,7 @@
         <v>37</v>
       </c>
       <c r="B29">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C29">
         <v>8</v>
@@ -19905,7 +19905,7 @@
         <v>8</v>
       </c>
       <c r="E29">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G29">
         <v>31</v>
@@ -19928,7 +19928,7 @@
         <v>38</v>
       </c>
       <c r="B30">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C30">
         <v>4</v>
@@ -19937,7 +19937,7 @@
         <v>4</v>
       </c>
       <c r="E30">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G30">
         <v>14</v>
@@ -19960,7 +19960,7 @@
         <v>39</v>
       </c>
       <c r="B31">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C31">
         <v>16</v>
@@ -19969,7 +19969,7 @@
         <v>16</v>
       </c>
       <c r="E31">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G31">
         <v>39</v>
@@ -19992,7 +19992,7 @@
         <v>40</v>
       </c>
       <c r="B32">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C32">
         <v>7</v>
@@ -20001,7 +20001,7 @@
         <v>7</v>
       </c>
       <c r="E32">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G32">
         <v>31</v>
@@ -20024,7 +20024,7 @@
         <v>41</v>
       </c>
       <c r="B33">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C33">
         <v>16</v>
@@ -20033,7 +20033,7 @@
         <v>16</v>
       </c>
       <c r="E33">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G33">
         <v>55</v>
@@ -20056,7 +20056,7 @@
         <v>42</v>
       </c>
       <c r="B34">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C34">
         <v>8</v>
@@ -20065,7 +20065,7 @@
         <v>8</v>
       </c>
       <c r="E34">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G34">
         <v>25</v>
@@ -20088,7 +20088,7 @@
         <v>43</v>
       </c>
       <c r="B35">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C35">
         <v>5</v>
@@ -20097,7 +20097,7 @@
         <v>5</v>
       </c>
       <c r="E35">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G35">
         <v>15</v>
@@ -20120,7 +20120,7 @@
         <v>44</v>
       </c>
       <c r="B36">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C36">
         <v>8</v>
@@ -20129,7 +20129,7 @@
         <v>8</v>
       </c>
       <c r="E36">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G36">
         <v>25</v>
@@ -20152,7 +20152,7 @@
         <v>45</v>
       </c>
       <c r="B37">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C37">
         <v>24</v>
@@ -20161,7 +20161,7 @@
         <v>29</v>
       </c>
       <c r="E37">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="G37">
         <v>16</v>
@@ -20184,7 +20184,7 @@
         <v>46</v>
       </c>
       <c r="B38">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C38">
         <v>5</v>
@@ -20193,7 +20193,7 @@
         <v>5</v>
       </c>
       <c r="E38">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G38">
         <v>15</v>
@@ -20216,7 +20216,7 @@
         <v>47</v>
       </c>
       <c r="B39">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C39">
         <v>5</v>
@@ -20225,7 +20225,7 @@
         <v>5</v>
       </c>
       <c r="E39">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G39">
         <v>22</v>
@@ -20248,7 +20248,7 @@
         <v>48</v>
       </c>
       <c r="B40">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C40">
         <v>8</v>
@@ -20257,7 +20257,7 @@
         <v>8</v>
       </c>
       <c r="E40">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G40">
         <v>47</v>
@@ -20280,7 +20280,7 @@
         <v>49</v>
       </c>
       <c r="B41">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C41">
         <v>8</v>
@@ -20289,7 +20289,7 @@
         <v>8</v>
       </c>
       <c r="E41">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G41">
         <v>25</v>
@@ -20312,7 +20312,7 @@
         <v>50</v>
       </c>
       <c r="B42">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C42">
         <v>4</v>
@@ -20321,7 +20321,7 @@
         <v>4</v>
       </c>
       <c r="E42">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G42">
         <v>14</v>
@@ -20344,7 +20344,7 @@
         <v>51</v>
       </c>
       <c r="B43">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C43">
         <v>4</v>
@@ -20353,7 +20353,7 @@
         <v>4</v>
       </c>
       <c r="E43">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G43">
         <v>14</v>
@@ -20376,7 +20376,7 @@
         <v>52</v>
       </c>
       <c r="B44">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C44">
         <v>5</v>
@@ -20385,7 +20385,7 @@
         <v>5</v>
       </c>
       <c r="E44">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G44">
         <v>15</v>
@@ -20408,7 +20408,7 @@
         <v>53</v>
       </c>
       <c r="B45">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C45">
         <v>2</v>
@@ -20417,7 +20417,7 @@
         <v>2</v>
       </c>
       <c r="E45">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G45">
         <v>14</v>
@@ -20440,7 +20440,7 @@
         <v>54</v>
       </c>
       <c r="B46">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C46">
         <v>7</v>
@@ -20449,7 +20449,7 @@
         <v>7</v>
       </c>
       <c r="E46">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G46">
         <v>23</v>
@@ -20472,7 +20472,7 @@
         <v>55</v>
       </c>
       <c r="B47">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C47">
         <v>4</v>
@@ -20481,7 +20481,7 @@
         <v>4</v>
       </c>
       <c r="E47">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G47">
         <v>18</v>
@@ -20504,7 +20504,7 @@
         <v>56</v>
       </c>
       <c r="B48">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C48">
         <v>2</v>
@@ -20513,7 +20513,7 @@
         <v>2</v>
       </c>
       <c r="E48">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G48">
         <v>16</v>
@@ -20536,7 +20536,7 @@
         <v>57</v>
       </c>
       <c r="B49">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C49">
         <v>4</v>
@@ -20545,7 +20545,7 @@
         <v>4</v>
       </c>
       <c r="E49">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G49">
         <v>18</v>
@@ -20568,7 +20568,7 @@
         <v>58</v>
       </c>
       <c r="B50">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C50">
         <v>8</v>
@@ -20577,7 +20577,7 @@
         <v>8</v>
       </c>
       <c r="E50">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G50">
         <v>31</v>
@@ -20600,7 +20600,7 @@
         <v>59</v>
       </c>
       <c r="B51">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C51">
         <v>24</v>
@@ -20609,7 +20609,7 @@
         <v>24</v>
       </c>
       <c r="E51">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G51">
         <v>63</v>
@@ -20632,7 +20632,7 @@
         <v>60</v>
       </c>
       <c r="B52">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -20641,7 +20641,7 @@
         <v>1</v>
       </c>
       <c r="E52">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G52">
         <v>16</v>
@@ -20709,16 +20709,16 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C2">
         <v>12</v>
       </c>
       <c r="D2">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G2">
         <v>113</v>
@@ -20750,7 +20750,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -20782,7 +20782,7 @@
         <v>11</v>
       </c>
       <c r="E4">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="G4">
         <v>38</v>
@@ -20805,16 +20805,16 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C5">
         <v>22</v>
       </c>
       <c r="D5">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E5">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G5">
         <v>98</v>
@@ -20846,7 +20846,7 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -20869,16 +20869,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C7">
         <v>14</v>
       </c>
       <c r="D7">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E7">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G7">
         <v>25</v>
@@ -20910,7 +20910,7 @@
         <v>2</v>
       </c>
       <c r="E8">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -20942,7 +20942,7 @@
         <v>2</v>
       </c>
       <c r="E9">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -20974,7 +20974,7 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -20997,16 +20997,16 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C11">
         <v>51</v>
       </c>
       <c r="D11">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E11">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G11">
         <v>210</v>
@@ -21038,7 +21038,7 @@
         <v>3</v>
       </c>
       <c r="E12">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -21070,7 +21070,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -21102,7 +21102,7 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -21134,7 +21134,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -21166,7 +21166,7 @@
         <v>2</v>
       </c>
       <c r="E16">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -21198,7 +21198,7 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -21230,7 +21230,7 @@
         <v>2</v>
       </c>
       <c r="E18">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -21262,7 +21262,7 @@
         <v>5</v>
       </c>
       <c r="E19">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="G19">
         <v>20</v>
@@ -21317,16 +21317,16 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C21">
         <v>20</v>
       </c>
       <c r="D21">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E21">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G21">
         <v>57</v>
@@ -21349,16 +21349,16 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="C22">
-        <v>-1</v>
+        <v>32</v>
       </c>
       <c r="D22">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="E22">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="G22">
         <v>133</v>
@@ -21390,7 +21390,7 @@
         <v>3</v>
       </c>
       <c r="E23">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G23">
         <v>3</v>
@@ -21413,16 +21413,16 @@
         <v>32</v>
       </c>
       <c r="B24">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C24">
         <v>34</v>
       </c>
       <c r="D24">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E24">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="G24">
         <v>145</v>
@@ -21454,7 +21454,7 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -21486,7 +21486,7 @@
         <v>8</v>
       </c>
       <c r="E26">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="G26">
         <v>24</v>
@@ -21518,7 +21518,7 @@
         <v>1</v>
       </c>
       <c r="E27">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -21550,7 +21550,7 @@
         <v>2</v>
       </c>
       <c r="E28">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -21573,16 +21573,16 @@
         <v>37</v>
       </c>
       <c r="B29">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C29">
         <v>18</v>
       </c>
       <c r="D29">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E29">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G29">
         <v>39</v>
@@ -21614,7 +21614,7 @@
         <v>3</v>
       </c>
       <c r="E30">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G30">
         <v>3</v>
@@ -21646,7 +21646,7 @@
         <v>3</v>
       </c>
       <c r="E31">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -21669,16 +21669,16 @@
         <v>40</v>
       </c>
       <c r="B32">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32">
         <v>8</v>
       </c>
       <c r="D32">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E32">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G32">
         <v>20</v>
@@ -21701,16 +21701,16 @@
         <v>41</v>
       </c>
       <c r="B33">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C33">
         <v>5</v>
       </c>
       <c r="D33">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E33">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G33">
         <v>17</v>
@@ -21733,16 +21733,16 @@
         <v>42</v>
       </c>
       <c r="B34">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C34">
         <v>21</v>
       </c>
       <c r="D34">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E34">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G34">
         <v>66</v>
@@ -21774,7 +21774,7 @@
         <v>4</v>
       </c>
       <c r="E35">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G35">
         <v>4</v>
@@ -21806,7 +21806,7 @@
         <v>1</v>
       </c>
       <c r="E36">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -21838,7 +21838,7 @@
         <v>1</v>
       </c>
       <c r="E37">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -21870,7 +21870,7 @@
         <v>4</v>
       </c>
       <c r="E38">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G38">
         <v>4</v>
@@ -21902,7 +21902,7 @@
         <v>8</v>
       </c>
       <c r="E39">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G39">
         <v>10</v>
@@ -21925,16 +21925,16 @@
         <v>48</v>
       </c>
       <c r="B40">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C40">
         <v>9</v>
       </c>
       <c r="D40">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G40">
         <v>25</v>
@@ -21966,7 +21966,7 @@
         <v>2</v>
       </c>
       <c r="E41">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G41">
         <v>2</v>
@@ -21998,7 +21998,7 @@
         <v>3</v>
       </c>
       <c r="E42">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G42">
         <v>3</v>
@@ -22030,7 +22030,7 @@
         <v>3</v>
       </c>
       <c r="E43">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G43">
         <v>3</v>
@@ -22062,7 +22062,7 @@
         <v>4</v>
       </c>
       <c r="E44">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G44">
         <v>4</v>
@@ -22094,7 +22094,7 @@
         <v>2</v>
       </c>
       <c r="E45">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -22117,16 +22117,16 @@
         <v>54</v>
       </c>
       <c r="B46">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C46">
         <v>9</v>
       </c>
       <c r="D46">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G46">
         <v>19</v>
@@ -22158,7 +22158,7 @@
         <v>10</v>
       </c>
       <c r="E47">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G47">
         <v>10</v>
@@ -22190,7 +22190,7 @@
         <v>2</v>
       </c>
       <c r="E48">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G48">
         <v>4</v>
@@ -22222,7 +22222,7 @@
         <v>3</v>
       </c>
       <c r="E49">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G49">
         <v>3</v>
@@ -22245,16 +22245,16 @@
         <v>58</v>
       </c>
       <c r="B50">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C50">
         <v>14</v>
       </c>
       <c r="D50">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E50">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G50">
         <v>35</v>
@@ -22277,7 +22277,7 @@
         <v>59</v>
       </c>
       <c r="B51">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C51">
         <v>5</v>
@@ -22286,7 +22286,7 @@
         <v>5</v>
       </c>
       <c r="E51">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G51">
         <v>8</v>
@@ -22309,7 +22309,7 @@
         <v>60</v>
       </c>
       <c r="B52">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C52">
         <v>5</v>
@@ -22318,7 +22318,7 @@
         <v>5</v>
       </c>
       <c r="E52">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G52">
         <v>26</v>
@@ -22386,16 +22386,16 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C2">
         <v>12</v>
       </c>
       <c r="D2">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G2">
         <v>113</v>
@@ -22427,7 +22427,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -22459,7 +22459,7 @@
         <v>11</v>
       </c>
       <c r="E4">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="G4">
         <v>38</v>
@@ -22482,16 +22482,16 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C5">
         <v>22</v>
       </c>
       <c r="D5">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E5">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G5">
         <v>98</v>
@@ -22523,7 +22523,7 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -22546,16 +22546,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C7">
         <v>14</v>
       </c>
       <c r="D7">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E7">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G7">
         <v>25</v>
@@ -22587,7 +22587,7 @@
         <v>2</v>
       </c>
       <c r="E8">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -22619,7 +22619,7 @@
         <v>2</v>
       </c>
       <c r="E9">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -22651,7 +22651,7 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -22674,16 +22674,16 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C11">
         <v>51</v>
       </c>
       <c r="D11">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E11">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G11">
         <v>210</v>
@@ -22715,7 +22715,7 @@
         <v>3</v>
       </c>
       <c r="E12">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -22747,7 +22747,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -22779,7 +22779,7 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -22811,7 +22811,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -22843,7 +22843,7 @@
         <v>2</v>
       </c>
       <c r="E16">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -22875,7 +22875,7 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -22907,7 +22907,7 @@
         <v>2</v>
       </c>
       <c r="E18">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -22939,7 +22939,7 @@
         <v>5</v>
       </c>
       <c r="E19">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="G19">
         <v>20</v>
@@ -22994,16 +22994,16 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C21">
         <v>20</v>
       </c>
       <c r="D21">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E21">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G21">
         <v>57</v>
@@ -23026,16 +23026,16 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="C22">
-        <v>-1</v>
+        <v>32</v>
       </c>
       <c r="D22">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="E22">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="G22">
         <v>133</v>
@@ -23067,7 +23067,7 @@
         <v>3</v>
       </c>
       <c r="E23">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G23">
         <v>3</v>
@@ -23090,16 +23090,16 @@
         <v>32</v>
       </c>
       <c r="B24">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C24">
         <v>34</v>
       </c>
       <c r="D24">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E24">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="G24">
         <v>145</v>
@@ -23131,7 +23131,7 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -23163,7 +23163,7 @@
         <v>8</v>
       </c>
       <c r="E26">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="G26">
         <v>24</v>
@@ -23195,7 +23195,7 @@
         <v>1</v>
       </c>
       <c r="E27">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -23227,7 +23227,7 @@
         <v>2</v>
       </c>
       <c r="E28">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -23250,16 +23250,16 @@
         <v>37</v>
       </c>
       <c r="B29">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C29">
         <v>18</v>
       </c>
       <c r="D29">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E29">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G29">
         <v>39</v>
@@ -23291,7 +23291,7 @@
         <v>3</v>
       </c>
       <c r="E30">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G30">
         <v>3</v>
@@ -23323,7 +23323,7 @@
         <v>3</v>
       </c>
       <c r="E31">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -23346,16 +23346,16 @@
         <v>40</v>
       </c>
       <c r="B32">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32">
         <v>8</v>
       </c>
       <c r="D32">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E32">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G32">
         <v>20</v>
@@ -23378,16 +23378,16 @@
         <v>41</v>
       </c>
       <c r="B33">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C33">
         <v>5</v>
       </c>
       <c r="D33">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E33">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G33">
         <v>17</v>
@@ -23410,16 +23410,16 @@
         <v>42</v>
       </c>
       <c r="B34">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C34">
         <v>21</v>
       </c>
       <c r="D34">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E34">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G34">
         <v>66</v>
@@ -23451,7 +23451,7 @@
         <v>4</v>
       </c>
       <c r="E35">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G35">
         <v>4</v>
@@ -23483,7 +23483,7 @@
         <v>1</v>
       </c>
       <c r="E36">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -23515,7 +23515,7 @@
         <v>1</v>
       </c>
       <c r="E37">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -23547,7 +23547,7 @@
         <v>4</v>
       </c>
       <c r="E38">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G38">
         <v>4</v>
@@ -23579,7 +23579,7 @@
         <v>8</v>
       </c>
       <c r="E39">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G39">
         <v>10</v>
@@ -23602,16 +23602,16 @@
         <v>48</v>
       </c>
       <c r="B40">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C40">
         <v>9</v>
       </c>
       <c r="D40">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G40">
         <v>25</v>
@@ -23643,7 +23643,7 @@
         <v>2</v>
       </c>
       <c r="E41">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G41">
         <v>2</v>
@@ -23675,7 +23675,7 @@
         <v>3</v>
       </c>
       <c r="E42">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G42">
         <v>3</v>
@@ -23707,7 +23707,7 @@
         <v>3</v>
       </c>
       <c r="E43">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G43">
         <v>3</v>
@@ -23739,7 +23739,7 @@
         <v>4</v>
       </c>
       <c r="E44">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G44">
         <v>4</v>
@@ -23771,7 +23771,7 @@
         <v>2</v>
       </c>
       <c r="E45">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -23794,16 +23794,16 @@
         <v>54</v>
       </c>
       <c r="B46">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C46">
         <v>9</v>
       </c>
       <c r="D46">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G46">
         <v>19</v>
@@ -23835,7 +23835,7 @@
         <v>10</v>
       </c>
       <c r="E47">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G47">
         <v>10</v>
@@ -23867,7 +23867,7 @@
         <v>2</v>
       </c>
       <c r="E48">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G48">
         <v>4</v>
@@ -23899,7 +23899,7 @@
         <v>3</v>
       </c>
       <c r="E49">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G49">
         <v>3</v>
@@ -23922,16 +23922,16 @@
         <v>58</v>
       </c>
       <c r="B50">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C50">
         <v>14</v>
       </c>
       <c r="D50">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E50">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G50">
         <v>35</v>
@@ -23954,7 +23954,7 @@
         <v>59</v>
       </c>
       <c r="B51">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C51">
         <v>5</v>
@@ -23963,7 +23963,7 @@
         <v>5</v>
       </c>
       <c r="E51">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G51">
         <v>8</v>
@@ -23986,7 +23986,7 @@
         <v>60</v>
       </c>
       <c r="B52">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C52">
         <v>5</v>
@@ -23995,7 +23995,7 @@
         <v>5</v>
       </c>
       <c r="E52">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G52">
         <v>26</v>
@@ -24072,7 +24072,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -24104,7 +24104,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -24136,7 +24136,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -24168,7 +24168,7 @@
         <v>3</v>
       </c>
       <c r="E5">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G5">
         <v>3</v>
@@ -24200,7 +24200,7 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -24232,7 +24232,7 @@
         <v>10</v>
       </c>
       <c r="E7">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G7">
         <v>10</v>
@@ -24264,7 +24264,7 @@
         <v>2</v>
       </c>
       <c r="E8">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -24296,7 +24296,7 @@
         <v>1</v>
       </c>
       <c r="E9">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -24328,7 +24328,7 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -24360,7 +24360,7 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -24392,7 +24392,7 @@
         <v>3</v>
       </c>
       <c r="E12">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -24424,7 +24424,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -24456,7 +24456,7 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -24488,7 +24488,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -24520,7 +24520,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -24552,7 +24552,7 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -24584,7 +24584,7 @@
         <v>2</v>
       </c>
       <c r="E18">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -24616,7 +24616,7 @@
         <v>1</v>
       </c>
       <c r="E19">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -24680,7 +24680,7 @@
         <v>8</v>
       </c>
       <c r="E21">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G21">
         <v>7</v>
@@ -24703,16 +24703,16 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C22">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D22">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E22">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -24744,7 +24744,7 @@
         <v>3</v>
       </c>
       <c r="E23">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G23">
         <v>3</v>
@@ -24776,7 +24776,7 @@
         <v>2</v>
       </c>
       <c r="E24">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="G24">
         <v>3</v>
@@ -24808,7 +24808,7 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -24840,7 +24840,7 @@
         <v>2</v>
       </c>
       <c r="E26">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -24872,7 +24872,7 @@
         <v>1</v>
       </c>
       <c r="E27">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -24904,7 +24904,7 @@
         <v>2</v>
       </c>
       <c r="E28">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -24936,7 +24936,7 @@
         <v>7</v>
       </c>
       <c r="E29">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G29">
         <v>7</v>
@@ -24968,7 +24968,7 @@
         <v>3</v>
       </c>
       <c r="E30">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G30">
         <v>3</v>
@@ -25000,7 +25000,7 @@
         <v>3</v>
       </c>
       <c r="E31">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -25032,7 +25032,7 @@
         <v>2</v>
       </c>
       <c r="E32">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -25064,7 +25064,7 @@
         <v>2</v>
       </c>
       <c r="E33">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G33">
         <v>2</v>
@@ -25096,7 +25096,7 @@
         <v>7</v>
       </c>
       <c r="E34">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G34">
         <v>7</v>
@@ -25128,7 +25128,7 @@
         <v>4</v>
       </c>
       <c r="E35">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G35">
         <v>4</v>
@@ -25160,7 +25160,7 @@
         <v>1</v>
       </c>
       <c r="E36">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -25192,7 +25192,7 @@
         <v>1</v>
       </c>
       <c r="E37">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -25224,7 +25224,7 @@
         <v>4</v>
       </c>
       <c r="E38">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G38">
         <v>4</v>
@@ -25256,7 +25256,7 @@
         <v>4</v>
       </c>
       <c r="E39">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G39">
         <v>4</v>
@@ -25288,7 +25288,7 @@
         <v>4</v>
       </c>
       <c r="E40">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G40">
         <v>4</v>
@@ -25320,7 +25320,7 @@
         <v>2</v>
       </c>
       <c r="E41">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G41">
         <v>2</v>
@@ -25352,7 +25352,7 @@
         <v>3</v>
       </c>
       <c r="E42">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G42">
         <v>3</v>
@@ -25384,7 +25384,7 @@
         <v>3</v>
       </c>
       <c r="E43">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G43">
         <v>3</v>
@@ -25416,7 +25416,7 @@
         <v>4</v>
       </c>
       <c r="E44">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G44">
         <v>4</v>
@@ -25448,7 +25448,7 @@
         <v>2</v>
       </c>
       <c r="E45">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -25480,7 +25480,7 @@
         <v>2</v>
       </c>
       <c r="E46">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G46">
         <v>2</v>
@@ -25512,7 +25512,7 @@
         <v>3</v>
       </c>
       <c r="E47">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G47">
         <v>3</v>
@@ -25544,7 +25544,7 @@
         <v>1</v>
       </c>
       <c r="E48">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -25576,7 +25576,7 @@
         <v>3</v>
       </c>
       <c r="E49">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G49">
         <v>3</v>
@@ -25608,7 +25608,7 @@
         <v>7</v>
       </c>
       <c r="E50">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G50">
         <v>7</v>
@@ -25640,7 +25640,7 @@
         <v>5</v>
       </c>
       <c r="E51">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G51">
         <v>5</v>
@@ -25672,7 +25672,7 @@
         <v>1</v>
       </c>
       <c r="E52">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G52">
         <v>2</v>

--- a/experiment_results/worst_case/ExamDB/4wise/0.8_worst_case.xlsx
+++ b/experiment_results/worst_case/ExamDB/4wise/0.8_worst_case.xlsx
@@ -594,7 +594,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -626,7 +626,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="G3">
         <v>7</v>
@@ -690,7 +690,7 @@
         <v>3</v>
       </c>
       <c r="E5">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G5">
         <v>3</v>
@@ -722,7 +722,7 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -882,7 +882,7 @@
         <v>7</v>
       </c>
       <c r="E11">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="G11">
         <v>14</v>
@@ -914,7 +914,7 @@
         <v>3</v>
       </c>
       <c r="E12">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -946,7 +946,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -1010,7 +1010,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -1042,7 +1042,7 @@
         <v>10</v>
       </c>
       <c r="E16">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G16">
         <v>11</v>
@@ -1234,7 +1234,7 @@
         <v>1</v>
       </c>
       <c r="E22">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="G22">
         <v>3</v>
@@ -1266,7 +1266,7 @@
         <v>6</v>
       </c>
       <c r="E23">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G23">
         <v>6</v>
@@ -1330,7 +1330,7 @@
         <v>11</v>
       </c>
       <c r="E25">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G25">
         <v>12</v>
@@ -1362,7 +1362,7 @@
         <v>2</v>
       </c>
       <c r="E26">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -1458,7 +1458,7 @@
         <v>8</v>
       </c>
       <c r="E29">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G29">
         <v>7</v>
@@ -1554,7 +1554,7 @@
         <v>2</v>
       </c>
       <c r="E32">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -1586,7 +1586,7 @@
         <v>2</v>
       </c>
       <c r="E33">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G33">
         <v>2</v>
@@ -1650,7 +1650,7 @@
         <v>7</v>
       </c>
       <c r="E35">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G35">
         <v>7</v>
@@ -1682,7 +1682,7 @@
         <v>2</v>
       </c>
       <c r="E36">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -1746,7 +1746,7 @@
         <v>7</v>
       </c>
       <c r="E38">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G38">
         <v>7</v>
@@ -1810,7 +1810,7 @@
         <v>4</v>
       </c>
       <c r="E40">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G40">
         <v>4</v>
@@ -1842,7 +1842,7 @@
         <v>3</v>
       </c>
       <c r="E41">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G41">
         <v>3</v>
@@ -1874,7 +1874,7 @@
         <v>6</v>
       </c>
       <c r="E42">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G42">
         <v>6</v>
@@ -1970,7 +1970,7 @@
         <v>2</v>
       </c>
       <c r="E45">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -2066,7 +2066,7 @@
         <v>1</v>
       </c>
       <c r="E48">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -2162,7 +2162,7 @@
         <v>5</v>
       </c>
       <c r="E51">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G51">
         <v>5</v>
@@ -2194,7 +2194,7 @@
         <v>1</v>
       </c>
       <c r="E52">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G52">
         <v>2</v>
@@ -2262,16 +2262,16 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -2303,7 +2303,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -2367,7 +2367,7 @@
         <v>3</v>
       </c>
       <c r="E5">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G5">
         <v>3</v>
@@ -2399,7 +2399,7 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -2559,7 +2559,7 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -2591,7 +2591,7 @@
         <v>3</v>
       </c>
       <c r="E12">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -2623,7 +2623,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -2687,7 +2687,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -2719,7 +2719,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -2902,16 +2902,16 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C22">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E22">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -2943,7 +2943,7 @@
         <v>3</v>
       </c>
       <c r="E23">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G23">
         <v>3</v>
@@ -3007,7 +3007,7 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -3039,7 +3039,7 @@
         <v>2</v>
       </c>
       <c r="E26">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -3135,7 +3135,7 @@
         <v>8</v>
       </c>
       <c r="E29">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G29">
         <v>7</v>
@@ -3231,7 +3231,7 @@
         <v>2</v>
       </c>
       <c r="E32">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -3263,7 +3263,7 @@
         <v>2</v>
       </c>
       <c r="E33">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G33">
         <v>2</v>
@@ -3327,7 +3327,7 @@
         <v>4</v>
       </c>
       <c r="E35">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G35">
         <v>4</v>
@@ -3359,7 +3359,7 @@
         <v>1</v>
       </c>
       <c r="E36">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -3423,7 +3423,7 @@
         <v>4</v>
       </c>
       <c r="E38">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G38">
         <v>4</v>
@@ -3487,7 +3487,7 @@
         <v>4</v>
       </c>
       <c r="E40">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G40">
         <v>4</v>
@@ -3519,7 +3519,7 @@
         <v>2</v>
       </c>
       <c r="E41">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G41">
         <v>2</v>
@@ -3551,7 +3551,7 @@
         <v>3</v>
       </c>
       <c r="E42">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G42">
         <v>3</v>
@@ -3647,7 +3647,7 @@
         <v>2</v>
       </c>
       <c r="E45">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -3743,7 +3743,7 @@
         <v>1</v>
       </c>
       <c r="E48">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -3839,7 +3839,7 @@
         <v>5</v>
       </c>
       <c r="E51">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G51">
         <v>5</v>
@@ -3871,7 +3871,7 @@
         <v>1</v>
       </c>
       <c r="E52">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G52">
         <v>2</v>
@@ -3939,16 +3939,16 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -3980,7 +3980,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -4044,7 +4044,7 @@
         <v>3</v>
       </c>
       <c r="E5">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G5">
         <v>3</v>
@@ -4076,7 +4076,7 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -4236,7 +4236,7 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -4268,7 +4268,7 @@
         <v>3</v>
       </c>
       <c r="E12">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -4300,7 +4300,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -4364,7 +4364,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -4396,7 +4396,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -4579,16 +4579,16 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E22">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -4620,7 +4620,7 @@
         <v>3</v>
       </c>
       <c r="E23">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G23">
         <v>3</v>
@@ -4684,7 +4684,7 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -4716,7 +4716,7 @@
         <v>2</v>
       </c>
       <c r="E26">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -4812,7 +4812,7 @@
         <v>8</v>
       </c>
       <c r="E29">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G29">
         <v>7</v>
@@ -4908,7 +4908,7 @@
         <v>2</v>
       </c>
       <c r="E32">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -4940,7 +4940,7 @@
         <v>2</v>
       </c>
       <c r="E33">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G33">
         <v>2</v>
@@ -5004,7 +5004,7 @@
         <v>4</v>
       </c>
       <c r="E35">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G35">
         <v>4</v>
@@ -5036,7 +5036,7 @@
         <v>1</v>
       </c>
       <c r="E36">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -5100,7 +5100,7 @@
         <v>4</v>
       </c>
       <c r="E38">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G38">
         <v>4</v>
@@ -5164,7 +5164,7 @@
         <v>4</v>
       </c>
       <c r="E40">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G40">
         <v>4</v>
@@ -5196,7 +5196,7 @@
         <v>2</v>
       </c>
       <c r="E41">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G41">
         <v>2</v>
@@ -5228,7 +5228,7 @@
         <v>3</v>
       </c>
       <c r="E42">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G42">
         <v>3</v>
@@ -5324,7 +5324,7 @@
         <v>2</v>
       </c>
       <c r="E45">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -5420,7 +5420,7 @@
         <v>1</v>
       </c>
       <c r="E48">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -5516,7 +5516,7 @@
         <v>5</v>
       </c>
       <c r="E51">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G51">
         <v>5</v>
@@ -5548,7 +5548,7 @@
         <v>1</v>
       </c>
       <c r="E52">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G52">
         <v>2</v>
@@ -5616,16 +5616,16 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -5657,7 +5657,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -5721,7 +5721,7 @@
         <v>3</v>
       </c>
       <c r="E5">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G5">
         <v>3</v>
@@ -5753,7 +5753,7 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -5913,7 +5913,7 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -5945,7 +5945,7 @@
         <v>3</v>
       </c>
       <c r="E12">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -5977,7 +5977,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -6041,7 +6041,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -6073,7 +6073,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -6256,16 +6256,16 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E22">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -6297,7 +6297,7 @@
         <v>3</v>
       </c>
       <c r="E23">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G23">
         <v>3</v>
@@ -6361,7 +6361,7 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -6393,7 +6393,7 @@
         <v>2</v>
       </c>
       <c r="E26">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -6489,7 +6489,7 @@
         <v>8</v>
       </c>
       <c r="E29">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G29">
         <v>7</v>
@@ -6585,7 +6585,7 @@
         <v>2</v>
       </c>
       <c r="E32">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -6617,7 +6617,7 @@
         <v>2</v>
       </c>
       <c r="E33">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G33">
         <v>2</v>
@@ -6681,7 +6681,7 @@
         <v>4</v>
       </c>
       <c r="E35">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G35">
         <v>4</v>
@@ -6713,7 +6713,7 @@
         <v>1</v>
       </c>
       <c r="E36">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -6777,7 +6777,7 @@
         <v>4</v>
       </c>
       <c r="E38">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G38">
         <v>4</v>
@@ -6841,7 +6841,7 @@
         <v>4</v>
       </c>
       <c r="E40">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G40">
         <v>4</v>
@@ -6873,7 +6873,7 @@
         <v>2</v>
       </c>
       <c r="E41">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G41">
         <v>2</v>
@@ -6905,7 +6905,7 @@
         <v>3</v>
       </c>
       <c r="E42">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G42">
         <v>3</v>
@@ -7001,7 +7001,7 @@
         <v>2</v>
       </c>
       <c r="E45">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -7097,7 +7097,7 @@
         <v>1</v>
       </c>
       <c r="E48">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -7193,7 +7193,7 @@
         <v>5</v>
       </c>
       <c r="E51">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G51">
         <v>5</v>
@@ -7225,7 +7225,7 @@
         <v>1</v>
       </c>
       <c r="E52">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G52">
         <v>2</v>
@@ -7293,16 +7293,16 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -7334,7 +7334,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -7398,7 +7398,7 @@
         <v>3</v>
       </c>
       <c r="E5">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G5">
         <v>3</v>
@@ -7430,7 +7430,7 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -7590,7 +7590,7 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -7622,7 +7622,7 @@
         <v>3</v>
       </c>
       <c r="E12">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -7654,7 +7654,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -7718,7 +7718,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -7750,7 +7750,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -7933,16 +7933,16 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C22">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E22">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -7974,7 +7974,7 @@
         <v>3</v>
       </c>
       <c r="E23">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G23">
         <v>3</v>
@@ -8038,7 +8038,7 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -8070,7 +8070,7 @@
         <v>2</v>
       </c>
       <c r="E26">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -8166,7 +8166,7 @@
         <v>8</v>
       </c>
       <c r="E29">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G29">
         <v>7</v>
@@ -8262,7 +8262,7 @@
         <v>2</v>
       </c>
       <c r="E32">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -8294,7 +8294,7 @@
         <v>2</v>
       </c>
       <c r="E33">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G33">
         <v>2</v>
@@ -8358,7 +8358,7 @@
         <v>4</v>
       </c>
       <c r="E35">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G35">
         <v>4</v>
@@ -8390,7 +8390,7 @@
         <v>1</v>
       </c>
       <c r="E36">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -8454,7 +8454,7 @@
         <v>4</v>
       </c>
       <c r="E38">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G38">
         <v>4</v>
@@ -8518,7 +8518,7 @@
         <v>4</v>
       </c>
       <c r="E40">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G40">
         <v>4</v>
@@ -8550,7 +8550,7 @@
         <v>2</v>
       </c>
       <c r="E41">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G41">
         <v>2</v>
@@ -8582,7 +8582,7 @@
         <v>3</v>
       </c>
       <c r="E42">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G42">
         <v>3</v>
@@ -8678,7 +8678,7 @@
         <v>2</v>
       </c>
       <c r="E45">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -8774,7 +8774,7 @@
         <v>1</v>
       </c>
       <c r="E48">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -8870,7 +8870,7 @@
         <v>5</v>
       </c>
       <c r="E51">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G51">
         <v>5</v>
@@ -8902,7 +8902,7 @@
         <v>1</v>
       </c>
       <c r="E52">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G52">
         <v>2</v>
@@ -8970,16 +8970,16 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -9011,7 +9011,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -9075,7 +9075,7 @@
         <v>3</v>
       </c>
       <c r="E5">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G5">
         <v>3</v>
@@ -9107,7 +9107,7 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -9267,7 +9267,7 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -9299,7 +9299,7 @@
         <v>3</v>
       </c>
       <c r="E12">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -9331,7 +9331,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -9395,7 +9395,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -9427,7 +9427,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -9610,16 +9610,16 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C22">
         <v>3</v>
       </c>
       <c r="D22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E22">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -9651,7 +9651,7 @@
         <v>3</v>
       </c>
       <c r="E23">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G23">
         <v>3</v>
@@ -9715,7 +9715,7 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -9747,7 +9747,7 @@
         <v>2</v>
       </c>
       <c r="E26">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -9843,7 +9843,7 @@
         <v>8</v>
       </c>
       <c r="E29">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G29">
         <v>7</v>
@@ -9939,7 +9939,7 @@
         <v>2</v>
       </c>
       <c r="E32">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -9971,7 +9971,7 @@
         <v>2</v>
       </c>
       <c r="E33">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G33">
         <v>2</v>
@@ -10035,7 +10035,7 @@
         <v>4</v>
       </c>
       <c r="E35">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G35">
         <v>4</v>
@@ -10067,7 +10067,7 @@
         <v>1</v>
       </c>
       <c r="E36">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -10131,7 +10131,7 @@
         <v>4</v>
       </c>
       <c r="E38">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G38">
         <v>4</v>
@@ -10195,7 +10195,7 @@
         <v>4</v>
       </c>
       <c r="E40">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G40">
         <v>4</v>
@@ -10227,7 +10227,7 @@
         <v>2</v>
       </c>
       <c r="E41">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G41">
         <v>2</v>
@@ -10259,7 +10259,7 @@
         <v>3</v>
       </c>
       <c r="E42">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G42">
         <v>3</v>
@@ -10355,7 +10355,7 @@
         <v>2</v>
       </c>
       <c r="E45">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -10451,7 +10451,7 @@
         <v>1</v>
       </c>
       <c r="E48">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -10547,7 +10547,7 @@
         <v>5</v>
       </c>
       <c r="E51">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G51">
         <v>5</v>
@@ -10579,7 +10579,7 @@
         <v>1</v>
       </c>
       <c r="E52">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G52">
         <v>2</v>
@@ -10647,16 +10647,16 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2">
         <v>18</v>
       </c>
       <c r="D2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E2">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -10688,7 +10688,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -10752,7 +10752,7 @@
         <v>3</v>
       </c>
       <c r="E5">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G5">
         <v>3</v>
@@ -10784,7 +10784,7 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -10944,7 +10944,7 @@
         <v>18</v>
       </c>
       <c r="E11">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -10976,7 +10976,7 @@
         <v>3</v>
       </c>
       <c r="E12">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -11008,7 +11008,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -11072,7 +11072,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -11104,7 +11104,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -11296,7 +11296,7 @@
         <v>1</v>
       </c>
       <c r="E22">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -11328,7 +11328,7 @@
         <v>3</v>
       </c>
       <c r="E23">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G23">
         <v>3</v>
@@ -11392,7 +11392,7 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -11424,7 +11424,7 @@
         <v>2</v>
       </c>
       <c r="E26">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -11520,7 +11520,7 @@
         <v>7</v>
       </c>
       <c r="E29">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G29">
         <v>7</v>
@@ -11616,7 +11616,7 @@
         <v>2</v>
       </c>
       <c r="E32">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -11648,7 +11648,7 @@
         <v>2</v>
       </c>
       <c r="E33">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G33">
         <v>2</v>
@@ -11712,7 +11712,7 @@
         <v>4</v>
       </c>
       <c r="E35">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G35">
         <v>4</v>
@@ -11744,7 +11744,7 @@
         <v>1</v>
       </c>
       <c r="E36">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -11808,7 +11808,7 @@
         <v>4</v>
       </c>
       <c r="E38">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G38">
         <v>4</v>
@@ -11872,7 +11872,7 @@
         <v>4</v>
       </c>
       <c r="E40">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G40">
         <v>4</v>
@@ -11904,7 +11904,7 @@
         <v>2</v>
       </c>
       <c r="E41">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G41">
         <v>2</v>
@@ -11936,7 +11936,7 @@
         <v>3</v>
       </c>
       <c r="E42">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G42">
         <v>3</v>
@@ -12032,7 +12032,7 @@
         <v>2</v>
       </c>
       <c r="E45">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -12128,7 +12128,7 @@
         <v>1</v>
       </c>
       <c r="E48">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -12224,7 +12224,7 @@
         <v>5</v>
       </c>
       <c r="E51">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G51">
         <v>5</v>
@@ -12256,7 +12256,7 @@
         <v>1</v>
       </c>
       <c r="E52">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G52">
         <v>2</v>
@@ -12324,16 +12324,16 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -12365,7 +12365,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -12429,7 +12429,7 @@
         <v>3</v>
       </c>
       <c r="E5">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G5">
         <v>3</v>
@@ -12461,7 +12461,7 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -12621,7 +12621,7 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -12653,7 +12653,7 @@
         <v>3</v>
       </c>
       <c r="E12">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -12685,7 +12685,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -12749,7 +12749,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -12781,7 +12781,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -12964,16 +12964,16 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C22">
         <v>3</v>
       </c>
       <c r="D22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E22">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -13005,7 +13005,7 @@
         <v>3</v>
       </c>
       <c r="E23">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G23">
         <v>3</v>
@@ -13069,7 +13069,7 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -13101,7 +13101,7 @@
         <v>2</v>
       </c>
       <c r="E26">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -13197,7 +13197,7 @@
         <v>8</v>
       </c>
       <c r="E29">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G29">
         <v>7</v>
@@ -13293,7 +13293,7 @@
         <v>2</v>
       </c>
       <c r="E32">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -13325,7 +13325,7 @@
         <v>2</v>
       </c>
       <c r="E33">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G33">
         <v>2</v>
@@ -13389,7 +13389,7 @@
         <v>4</v>
       </c>
       <c r="E35">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G35">
         <v>4</v>
@@ -13421,7 +13421,7 @@
         <v>1</v>
       </c>
       <c r="E36">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -13485,7 +13485,7 @@
         <v>4</v>
       </c>
       <c r="E38">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G38">
         <v>4</v>
@@ -13549,7 +13549,7 @@
         <v>4</v>
       </c>
       <c r="E40">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G40">
         <v>4</v>
@@ -13581,7 +13581,7 @@
         <v>2</v>
       </c>
       <c r="E41">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G41">
         <v>2</v>
@@ -13613,7 +13613,7 @@
         <v>3</v>
       </c>
       <c r="E42">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G42">
         <v>3</v>
@@ -13709,7 +13709,7 @@
         <v>2</v>
       </c>
       <c r="E45">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -13805,7 +13805,7 @@
         <v>1</v>
       </c>
       <c r="E48">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -13901,7 +13901,7 @@
         <v>5</v>
       </c>
       <c r="E51">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G51">
         <v>5</v>
@@ -13933,7 +13933,7 @@
         <v>1</v>
       </c>
       <c r="E52">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G52">
         <v>2</v>
@@ -14010,7 +14010,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -14042,7 +14042,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -14106,7 +14106,7 @@
         <v>3</v>
       </c>
       <c r="E5">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G5">
         <v>3</v>
@@ -14138,7 +14138,7 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -14298,7 +14298,7 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -14330,7 +14330,7 @@
         <v>3</v>
       </c>
       <c r="E12">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -14362,7 +14362,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -14426,7 +14426,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -14458,7 +14458,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -14650,7 +14650,7 @@
         <v>1</v>
       </c>
       <c r="E22">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -14682,7 +14682,7 @@
         <v>3</v>
       </c>
       <c r="E23">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G23">
         <v>3</v>
@@ -14746,7 +14746,7 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -14778,7 +14778,7 @@
         <v>2</v>
       </c>
       <c r="E26">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -14874,7 +14874,7 @@
         <v>7</v>
       </c>
       <c r="E29">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G29">
         <v>7</v>
@@ -14970,7 +14970,7 @@
         <v>2</v>
       </c>
       <c r="E32">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -15002,7 +15002,7 @@
         <v>2</v>
       </c>
       <c r="E33">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G33">
         <v>2</v>
@@ -15066,7 +15066,7 @@
         <v>4</v>
       </c>
       <c r="E35">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G35">
         <v>4</v>
@@ -15098,7 +15098,7 @@
         <v>1</v>
       </c>
       <c r="E36">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -15162,7 +15162,7 @@
         <v>4</v>
       </c>
       <c r="E38">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G38">
         <v>4</v>
@@ -15226,7 +15226,7 @@
         <v>4</v>
       </c>
       <c r="E40">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G40">
         <v>4</v>
@@ -15258,7 +15258,7 @@
         <v>2</v>
       </c>
       <c r="E41">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G41">
         <v>2</v>
@@ -15290,7 +15290,7 @@
         <v>3</v>
       </c>
       <c r="E42">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G42">
         <v>3</v>
@@ -15386,7 +15386,7 @@
         <v>2</v>
       </c>
       <c r="E45">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -15482,7 +15482,7 @@
         <v>1</v>
       </c>
       <c r="E48">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -15578,7 +15578,7 @@
         <v>5</v>
       </c>
       <c r="E51">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G51">
         <v>5</v>
@@ -15610,7 +15610,7 @@
         <v>1</v>
       </c>
       <c r="E52">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G52">
         <v>2</v>
@@ -15678,16 +15678,16 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -15719,7 +15719,7 @@
         <v>4</v>
       </c>
       <c r="E3">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="G3">
         <v>7</v>
@@ -15783,7 +15783,7 @@
         <v>3</v>
       </c>
       <c r="E5">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G5">
         <v>3</v>
@@ -15815,7 +15815,7 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -15966,16 +15966,16 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11">
         <v>7</v>
       </c>
       <c r="D11">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E11">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="G11">
         <v>14</v>
@@ -16007,7 +16007,7 @@
         <v>3</v>
       </c>
       <c r="E12">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -16039,7 +16039,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -16103,7 +16103,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -16135,7 +16135,7 @@
         <v>10</v>
       </c>
       <c r="E16">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G16">
         <v>11</v>
@@ -16318,16 +16318,16 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C22">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E22">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="G22">
         <v>3</v>
@@ -16359,7 +16359,7 @@
         <v>6</v>
       </c>
       <c r="E23">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G23">
         <v>6</v>
@@ -16423,7 +16423,7 @@
         <v>11</v>
       </c>
       <c r="E25">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G25">
         <v>12</v>
@@ -16455,7 +16455,7 @@
         <v>2</v>
       </c>
       <c r="E26">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -16551,7 +16551,7 @@
         <v>8</v>
       </c>
       <c r="E29">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G29">
         <v>7</v>
@@ -16647,7 +16647,7 @@
         <v>2</v>
       </c>
       <c r="E32">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -16679,7 +16679,7 @@
         <v>2</v>
       </c>
       <c r="E33">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G33">
         <v>2</v>
@@ -16743,7 +16743,7 @@
         <v>7</v>
       </c>
       <c r="E35">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G35">
         <v>7</v>
@@ -16775,7 +16775,7 @@
         <v>2</v>
       </c>
       <c r="E36">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -16839,7 +16839,7 @@
         <v>7</v>
       </c>
       <c r="E38">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G38">
         <v>7</v>
@@ -16903,7 +16903,7 @@
         <v>4</v>
       </c>
       <c r="E40">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G40">
         <v>4</v>
@@ -16935,7 +16935,7 @@
         <v>3</v>
       </c>
       <c r="E41">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G41">
         <v>3</v>
@@ -16967,7 +16967,7 @@
         <v>6</v>
       </c>
       <c r="E42">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G42">
         <v>6</v>
@@ -17063,7 +17063,7 @@
         <v>2</v>
       </c>
       <c r="E45">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -17159,7 +17159,7 @@
         <v>1</v>
       </c>
       <c r="E48">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -17255,7 +17255,7 @@
         <v>5</v>
       </c>
       <c r="E51">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G51">
         <v>5</v>
@@ -17278,16 +17278,16 @@
         <v>60</v>
       </c>
       <c r="B52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C52">
         <v>1</v>
       </c>
       <c r="D52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E52">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G52">
         <v>2</v>
@@ -17355,7 +17355,7 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2">
         <v>18</v>
@@ -17364,7 +17364,7 @@
         <v>18</v>
       </c>
       <c r="E2">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -17396,7 +17396,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -17460,7 +17460,7 @@
         <v>8</v>
       </c>
       <c r="E5">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G5">
         <v>3</v>
@@ -17483,7 +17483,7 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C6">
         <v>24</v>
@@ -17492,7 +17492,7 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -17643,7 +17643,7 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11">
         <v>7</v>
@@ -17652,7 +17652,7 @@
         <v>7</v>
       </c>
       <c r="E11">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -17684,7 +17684,7 @@
         <v>4</v>
       </c>
       <c r="E12">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -17716,7 +17716,7 @@
         <v>4</v>
       </c>
       <c r="E13">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -17771,7 +17771,7 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C15">
         <v>8</v>
@@ -17780,7 +17780,7 @@
         <v>8</v>
       </c>
       <c r="E15">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -17812,7 +17812,7 @@
         <v>2</v>
       </c>
       <c r="E16">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -17995,7 +17995,7 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -18004,7 +18004,7 @@
         <v>1</v>
       </c>
       <c r="E22">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -18036,7 +18036,7 @@
         <v>5</v>
       </c>
       <c r="E23">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G23">
         <v>3</v>
@@ -18100,7 +18100,7 @@
         <v>2</v>
       </c>
       <c r="E25">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -18132,7 +18132,7 @@
         <v>2</v>
       </c>
       <c r="E26">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -18219,7 +18219,7 @@
         <v>37</v>
       </c>
       <c r="B29">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C29">
         <v>8</v>
@@ -18228,7 +18228,7 @@
         <v>8</v>
       </c>
       <c r="E29">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G29">
         <v>7</v>
@@ -18315,7 +18315,7 @@
         <v>40</v>
       </c>
       <c r="B32">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C32">
         <v>7</v>
@@ -18324,7 +18324,7 @@
         <v>7</v>
       </c>
       <c r="E32">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -18347,7 +18347,7 @@
         <v>41</v>
       </c>
       <c r="B33">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C33">
         <v>16</v>
@@ -18356,7 +18356,7 @@
         <v>16</v>
       </c>
       <c r="E33">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G33">
         <v>2</v>
@@ -18420,7 +18420,7 @@
         <v>5</v>
       </c>
       <c r="E35">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G35">
         <v>4</v>
@@ -18452,7 +18452,7 @@
         <v>8</v>
       </c>
       <c r="E36">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -18516,7 +18516,7 @@
         <v>5</v>
       </c>
       <c r="E38">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G38">
         <v>4</v>
@@ -18571,7 +18571,7 @@
         <v>48</v>
       </c>
       <c r="B40">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C40">
         <v>8</v>
@@ -18580,7 +18580,7 @@
         <v>8</v>
       </c>
       <c r="E40">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G40">
         <v>4</v>
@@ -18612,7 +18612,7 @@
         <v>8</v>
       </c>
       <c r="E41">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G41">
         <v>2</v>
@@ -18644,7 +18644,7 @@
         <v>5</v>
       </c>
       <c r="E42">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G42">
         <v>3</v>
@@ -18740,7 +18740,7 @@
         <v>2</v>
       </c>
       <c r="E45">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -18827,7 +18827,7 @@
         <v>56</v>
       </c>
       <c r="B48">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C48">
         <v>2</v>
@@ -18836,7 +18836,7 @@
         <v>2</v>
       </c>
       <c r="E48">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -18923,7 +18923,7 @@
         <v>59</v>
       </c>
       <c r="B51">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C51">
         <v>24</v>
@@ -18932,7 +18932,7 @@
         <v>24</v>
       </c>
       <c r="E51">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G51">
         <v>5</v>
@@ -18955,7 +18955,7 @@
         <v>60</v>
       </c>
       <c r="B52">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -18964,7 +18964,7 @@
         <v>1</v>
       </c>
       <c r="E52">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G52">
         <v>2</v>
@@ -19032,16 +19032,16 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2">
         <v>23</v>
       </c>
       <c r="D2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E2">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="G2">
         <v>15</v>
@@ -19073,7 +19073,7 @@
         <v>4</v>
       </c>
       <c r="E3">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="G3">
         <v>8</v>
@@ -19137,7 +19137,7 @@
         <v>8</v>
       </c>
       <c r="E5">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G5">
         <v>25</v>
@@ -19160,7 +19160,7 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C6">
         <v>24</v>
@@ -19169,7 +19169,7 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G6">
         <v>63</v>
@@ -19320,7 +19320,7 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11">
         <v>19</v>
@@ -19329,7 +19329,7 @@
         <v>19</v>
       </c>
       <c r="E11">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="G11">
         <v>11</v>
@@ -19361,7 +19361,7 @@
         <v>4</v>
       </c>
       <c r="E12">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G12">
         <v>14</v>
@@ -19393,7 +19393,7 @@
         <v>4</v>
       </c>
       <c r="E13">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G13">
         <v>14</v>
@@ -19448,7 +19448,7 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C15">
         <v>8</v>
@@ -19457,7 +19457,7 @@
         <v>8</v>
       </c>
       <c r="E15">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G15">
         <v>31</v>
@@ -19489,7 +19489,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G16">
         <v>10</v>
@@ -19672,7 +19672,7 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C22">
         <v>16</v>
@@ -19681,7 +19681,7 @@
         <v>1</v>
       </c>
       <c r="E22">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="G22">
         <v>16</v>
@@ -19713,7 +19713,7 @@
         <v>4</v>
       </c>
       <c r="E23">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G23">
         <v>14</v>
@@ -19777,7 +19777,7 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G25">
         <v>10</v>
@@ -19809,7 +19809,7 @@
         <v>2</v>
       </c>
       <c r="E26">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G26">
         <v>10</v>
@@ -19896,7 +19896,7 @@
         <v>37</v>
       </c>
       <c r="B29">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C29">
         <v>8</v>
@@ -19905,7 +19905,7 @@
         <v>8</v>
       </c>
       <c r="E29">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G29">
         <v>31</v>
@@ -19992,7 +19992,7 @@
         <v>40</v>
       </c>
       <c r="B32">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C32">
         <v>7</v>
@@ -20001,7 +20001,7 @@
         <v>7</v>
       </c>
       <c r="E32">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G32">
         <v>31</v>
@@ -20024,7 +20024,7 @@
         <v>41</v>
       </c>
       <c r="B33">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C33">
         <v>16</v>
@@ -20033,7 +20033,7 @@
         <v>16</v>
       </c>
       <c r="E33">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G33">
         <v>55</v>
@@ -20097,7 +20097,7 @@
         <v>5</v>
       </c>
       <c r="E35">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G35">
         <v>15</v>
@@ -20129,7 +20129,7 @@
         <v>8</v>
       </c>
       <c r="E36">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G36">
         <v>25</v>
@@ -20193,7 +20193,7 @@
         <v>5</v>
       </c>
       <c r="E38">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G38">
         <v>15</v>
@@ -20248,7 +20248,7 @@
         <v>48</v>
       </c>
       <c r="B40">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C40">
         <v>8</v>
@@ -20257,7 +20257,7 @@
         <v>8</v>
       </c>
       <c r="E40">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G40">
         <v>47</v>
@@ -20289,7 +20289,7 @@
         <v>8</v>
       </c>
       <c r="E41">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G41">
         <v>25</v>
@@ -20321,7 +20321,7 @@
         <v>4</v>
       </c>
       <c r="E42">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G42">
         <v>14</v>
@@ -20417,7 +20417,7 @@
         <v>2</v>
       </c>
       <c r="E45">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G45">
         <v>14</v>
@@ -20504,7 +20504,7 @@
         <v>56</v>
       </c>
       <c r="B48">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C48">
         <v>2</v>
@@ -20513,7 +20513,7 @@
         <v>2</v>
       </c>
       <c r="E48">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G48">
         <v>16</v>
@@ -20600,7 +20600,7 @@
         <v>59</v>
       </c>
       <c r="B51">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C51">
         <v>24</v>
@@ -20609,7 +20609,7 @@
         <v>24</v>
       </c>
       <c r="E51">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G51">
         <v>63</v>
@@ -20641,7 +20641,7 @@
         <v>1</v>
       </c>
       <c r="E52">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G52">
         <v>16</v>
@@ -20709,16 +20709,16 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C2">
         <v>12</v>
       </c>
       <c r="D2">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E2">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="G2">
         <v>113</v>
@@ -20750,7 +20750,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -20805,16 +20805,16 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C5">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="E5">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G5">
         <v>98</v>
@@ -20846,7 +20846,7 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -20997,16 +20997,16 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="C11">
         <v>51</v>
       </c>
       <c r="D11">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="E11">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="G11">
         <v>210</v>
@@ -21038,7 +21038,7 @@
         <v>3</v>
       </c>
       <c r="E12">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -21070,7 +21070,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -21134,7 +21134,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -21166,7 +21166,7 @@
         <v>2</v>
       </c>
       <c r="E16">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -21349,16 +21349,16 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C22">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D22">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E22">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="G22">
         <v>133</v>
@@ -21390,7 +21390,7 @@
         <v>3</v>
       </c>
       <c r="E23">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G23">
         <v>3</v>
@@ -21454,7 +21454,7 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -21486,7 +21486,7 @@
         <v>8</v>
       </c>
       <c r="E26">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G26">
         <v>24</v>
@@ -21573,16 +21573,16 @@
         <v>37</v>
       </c>
       <c r="B29">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C29">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D29">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E29">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G29">
         <v>39</v>
@@ -21669,16 +21669,16 @@
         <v>40</v>
       </c>
       <c r="B32">
+        <v>14</v>
+      </c>
+      <c r="C32">
         <v>9</v>
       </c>
-      <c r="C32">
-        <v>8</v>
-      </c>
       <c r="D32">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E32">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G32">
         <v>20</v>
@@ -21701,16 +21701,16 @@
         <v>41</v>
       </c>
       <c r="B33">
+        <v>11</v>
+      </c>
+      <c r="C33">
         <v>6</v>
       </c>
-      <c r="C33">
-        <v>5</v>
-      </c>
       <c r="D33">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E33">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G33">
         <v>17</v>
@@ -21774,7 +21774,7 @@
         <v>4</v>
       </c>
       <c r="E35">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G35">
         <v>4</v>
@@ -21806,7 +21806,7 @@
         <v>1</v>
       </c>
       <c r="E36">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -21870,7 +21870,7 @@
         <v>4</v>
       </c>
       <c r="E38">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G38">
         <v>4</v>
@@ -21925,16 +21925,16 @@
         <v>48</v>
       </c>
       <c r="B40">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C40">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E40">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G40">
         <v>25</v>
@@ -21966,7 +21966,7 @@
         <v>2</v>
       </c>
       <c r="E41">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G41">
         <v>2</v>
@@ -21998,7 +21998,7 @@
         <v>3</v>
       </c>
       <c r="E42">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G42">
         <v>3</v>
@@ -22094,7 +22094,7 @@
         <v>2</v>
       </c>
       <c r="E45">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -22190,7 +22190,7 @@
         <v>2</v>
       </c>
       <c r="E48">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G48">
         <v>4</v>
@@ -22277,16 +22277,16 @@
         <v>59</v>
       </c>
       <c r="B51">
+        <v>8</v>
+      </c>
+      <c r="C51">
         <v>6</v>
       </c>
-      <c r="C51">
-        <v>5</v>
-      </c>
       <c r="D51">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E51">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G51">
         <v>8</v>
@@ -22309,16 +22309,16 @@
         <v>60</v>
       </c>
       <c r="B52">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C52">
         <v>5</v>
       </c>
       <c r="D52">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E52">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G52">
         <v>26</v>
@@ -22386,16 +22386,16 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C2">
         <v>12</v>
       </c>
       <c r="D2">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E2">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="G2">
         <v>113</v>
@@ -22427,7 +22427,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -22482,16 +22482,16 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C5">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="E5">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G5">
         <v>98</v>
@@ -22523,7 +22523,7 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -22674,16 +22674,16 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="C11">
         <v>51</v>
       </c>
       <c r="D11">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="E11">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="G11">
         <v>210</v>
@@ -22715,7 +22715,7 @@
         <v>3</v>
       </c>
       <c r="E12">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -22747,7 +22747,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -22811,7 +22811,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -22843,7 +22843,7 @@
         <v>2</v>
       </c>
       <c r="E16">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -23026,16 +23026,16 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C22">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D22">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E22">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="G22">
         <v>133</v>
@@ -23067,7 +23067,7 @@
         <v>3</v>
       </c>
       <c r="E23">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G23">
         <v>3</v>
@@ -23131,7 +23131,7 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -23163,7 +23163,7 @@
         <v>8</v>
       </c>
       <c r="E26">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G26">
         <v>24</v>
@@ -23250,16 +23250,16 @@
         <v>37</v>
       </c>
       <c r="B29">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C29">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D29">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E29">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G29">
         <v>39</v>
@@ -23346,16 +23346,16 @@
         <v>40</v>
       </c>
       <c r="B32">
+        <v>14</v>
+      </c>
+      <c r="C32">
         <v>9</v>
       </c>
-      <c r="C32">
-        <v>8</v>
-      </c>
       <c r="D32">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E32">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G32">
         <v>20</v>
@@ -23378,16 +23378,16 @@
         <v>41</v>
       </c>
       <c r="B33">
+        <v>11</v>
+      </c>
+      <c r="C33">
         <v>6</v>
       </c>
-      <c r="C33">
-        <v>5</v>
-      </c>
       <c r="D33">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E33">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G33">
         <v>17</v>
@@ -23451,7 +23451,7 @@
         <v>4</v>
       </c>
       <c r="E35">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G35">
         <v>4</v>
@@ -23483,7 +23483,7 @@
         <v>1</v>
       </c>
       <c r="E36">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -23547,7 +23547,7 @@
         <v>4</v>
       </c>
       <c r="E38">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G38">
         <v>4</v>
@@ -23602,16 +23602,16 @@
         <v>48</v>
       </c>
       <c r="B40">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C40">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E40">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G40">
         <v>25</v>
@@ -23643,7 +23643,7 @@
         <v>2</v>
       </c>
       <c r="E41">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G41">
         <v>2</v>
@@ -23675,7 +23675,7 @@
         <v>3</v>
       </c>
       <c r="E42">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G42">
         <v>3</v>
@@ -23771,7 +23771,7 @@
         <v>2</v>
       </c>
       <c r="E45">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -23867,7 +23867,7 @@
         <v>2</v>
       </c>
       <c r="E48">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G48">
         <v>4</v>
@@ -23954,16 +23954,16 @@
         <v>59</v>
       </c>
       <c r="B51">
+        <v>8</v>
+      </c>
+      <c r="C51">
         <v>6</v>
       </c>
-      <c r="C51">
-        <v>5</v>
-      </c>
       <c r="D51">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E51">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G51">
         <v>8</v>
@@ -23986,16 +23986,16 @@
         <v>60</v>
       </c>
       <c r="B52">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C52">
         <v>5</v>
       </c>
       <c r="D52">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E52">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G52">
         <v>26</v>
@@ -24072,7 +24072,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -24104,7 +24104,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -24168,7 +24168,7 @@
         <v>3</v>
       </c>
       <c r="E5">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G5">
         <v>3</v>
@@ -24200,7 +24200,7 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -24360,7 +24360,7 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -24392,7 +24392,7 @@
         <v>3</v>
       </c>
       <c r="E12">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -24424,7 +24424,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -24488,7 +24488,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -24520,7 +24520,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -24712,7 +24712,7 @@
         <v>1</v>
       </c>
       <c r="E22">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -24744,7 +24744,7 @@
         <v>3</v>
       </c>
       <c r="E23">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G23">
         <v>3</v>
@@ -24808,7 +24808,7 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -24840,7 +24840,7 @@
         <v>2</v>
       </c>
       <c r="E26">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -24936,7 +24936,7 @@
         <v>7</v>
       </c>
       <c r="E29">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G29">
         <v>7</v>
@@ -25032,7 +25032,7 @@
         <v>2</v>
       </c>
       <c r="E32">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -25064,7 +25064,7 @@
         <v>2</v>
       </c>
       <c r="E33">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G33">
         <v>2</v>
@@ -25128,7 +25128,7 @@
         <v>4</v>
       </c>
       <c r="E35">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G35">
         <v>4</v>
@@ -25160,7 +25160,7 @@
         <v>1</v>
       </c>
       <c r="E36">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -25224,7 +25224,7 @@
         <v>4</v>
       </c>
       <c r="E38">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G38">
         <v>4</v>
@@ -25288,7 +25288,7 @@
         <v>4</v>
       </c>
       <c r="E40">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G40">
         <v>4</v>
@@ -25320,7 +25320,7 @@
         <v>2</v>
       </c>
       <c r="E41">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G41">
         <v>2</v>
@@ -25352,7 +25352,7 @@
         <v>3</v>
       </c>
       <c r="E42">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G42">
         <v>3</v>
@@ -25448,7 +25448,7 @@
         <v>2</v>
       </c>
       <c r="E45">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -25544,7 +25544,7 @@
         <v>1</v>
       </c>
       <c r="E48">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -25640,7 +25640,7 @@
         <v>5</v>
       </c>
       <c r="E51">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G51">
         <v>5</v>
@@ -25672,7 +25672,7 @@
         <v>1</v>
       </c>
       <c r="E52">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G52">
         <v>2</v>

--- a/experiment_results/worst_case/ExamDB/4wise/0.8_worst_case.xlsx
+++ b/experiment_results/worst_case/ExamDB/4wise/0.8_worst_case.xlsx
@@ -716,7 +716,7 @@
         <v>10</v>
       </c>
       <c r="E6">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G6">
         <v>10</v>
@@ -748,7 +748,7 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -780,7 +780,7 @@
         <v>9</v>
       </c>
       <c r="E8">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G8">
         <v>10</v>
@@ -812,7 +812,7 @@
         <v>15</v>
       </c>
       <c r="E9">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G9">
         <v>16</v>
@@ -940,7 +940,7 @@
         <v>2</v>
       </c>
       <c r="E13">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G13">
         <v>2</v>
@@ -1036,7 +1036,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -1068,7 +1068,7 @@
         <v>2</v>
       </c>
       <c r="E17">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G17">
         <v>2</v>
@@ -1100,7 +1100,7 @@
         <v>1</v>
       </c>
       <c r="E18">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -1132,7 +1132,7 @@
         <v>10</v>
       </c>
       <c r="E19">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G19">
         <v>9</v>
@@ -1228,7 +1228,7 @@
         <v>2</v>
       </c>
       <c r="E22">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="G22">
         <v>3</v>
@@ -1315,16 +1315,16 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
       <c r="D25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E25">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1356,7 +1356,7 @@
         <v>2</v>
       </c>
       <c r="E26">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -1420,7 +1420,7 @@
         <v>13</v>
       </c>
       <c r="E28">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G28">
         <v>13</v>
@@ -1452,7 +1452,7 @@
         <v>3</v>
       </c>
       <c r="E29">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G29">
         <v>3</v>
@@ -1548,7 +1548,7 @@
         <v>7</v>
       </c>
       <c r="E32">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G32">
         <v>7</v>
@@ -1644,7 +1644,7 @@
         <v>3</v>
       </c>
       <c r="E35">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="G35">
         <v>4</v>
@@ -1708,7 +1708,7 @@
         <v>8</v>
       </c>
       <c r="E37">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G37">
         <v>4</v>
@@ -1836,7 +1836,7 @@
         <v>6</v>
       </c>
       <c r="E41">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G41">
         <v>6</v>
@@ -1868,7 +1868,7 @@
         <v>6</v>
       </c>
       <c r="E42">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G42">
         <v>6</v>
@@ -1932,7 +1932,7 @@
         <v>4</v>
       </c>
       <c r="E44">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G44">
         <v>4</v>
@@ -1964,7 +1964,7 @@
         <v>13</v>
       </c>
       <c r="E45">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G45">
         <v>13</v>
@@ -2028,7 +2028,7 @@
         <v>5</v>
       </c>
       <c r="E47">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G47">
         <v>5</v>
@@ -2060,7 +2060,7 @@
         <v>7</v>
       </c>
       <c r="E48">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G48">
         <v>7</v>
@@ -2329,7 +2329,7 @@
         <v>10</v>
       </c>
       <c r="E6">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G6">
         <v>10</v>
@@ -2361,7 +2361,7 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -2393,7 +2393,7 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -2425,7 +2425,7 @@
         <v>1</v>
       </c>
       <c r="E9">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -2553,7 +2553,7 @@
         <v>1</v>
       </c>
       <c r="E13">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -2649,7 +2649,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -2681,7 +2681,7 @@
         <v>2</v>
       </c>
       <c r="E17">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G17">
         <v>2</v>
@@ -2713,7 +2713,7 @@
         <v>1</v>
       </c>
       <c r="E18">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -2745,7 +2745,7 @@
         <v>10</v>
       </c>
       <c r="E19">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G19">
         <v>9</v>
@@ -2841,7 +2841,7 @@
         <v>2</v>
       </c>
       <c r="E22">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="G22">
         <v>3</v>
@@ -2937,7 +2937,7 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -2969,7 +2969,7 @@
         <v>2</v>
       </c>
       <c r="E26">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -3033,7 +3033,7 @@
         <v>3</v>
       </c>
       <c r="E28">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -3065,7 +3065,7 @@
         <v>3</v>
       </c>
       <c r="E29">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G29">
         <v>3</v>
@@ -3161,7 +3161,7 @@
         <v>7</v>
       </c>
       <c r="E32">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G32">
         <v>7</v>
@@ -3257,7 +3257,7 @@
         <v>1</v>
       </c>
       <c r="E35">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -3321,7 +3321,7 @@
         <v>4</v>
       </c>
       <c r="E37">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G37">
         <v>4</v>
@@ -3449,7 +3449,7 @@
         <v>3</v>
       </c>
       <c r="E41">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G41">
         <v>3</v>
@@ -3481,7 +3481,7 @@
         <v>4</v>
       </c>
       <c r="E42">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G42">
         <v>4</v>
@@ -3545,7 +3545,7 @@
         <v>2</v>
       </c>
       <c r="E44">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G44">
         <v>2</v>
@@ -3577,7 +3577,7 @@
         <v>3</v>
       </c>
       <c r="E45">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -3641,7 +3641,7 @@
         <v>3</v>
       </c>
       <c r="E47">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G47">
         <v>3</v>
@@ -3673,7 +3673,7 @@
         <v>7</v>
       </c>
       <c r="E48">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G48">
         <v>7</v>
@@ -3942,7 +3942,7 @@
         <v>10</v>
       </c>
       <c r="E6">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G6">
         <v>10</v>
@@ -3974,7 +3974,7 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -4006,7 +4006,7 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -4038,7 +4038,7 @@
         <v>1</v>
       </c>
       <c r="E9">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -4166,7 +4166,7 @@
         <v>1</v>
       </c>
       <c r="E13">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -4262,7 +4262,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -4294,7 +4294,7 @@
         <v>2</v>
       </c>
       <c r="E17">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G17">
         <v>2</v>
@@ -4326,7 +4326,7 @@
         <v>1</v>
       </c>
       <c r="E18">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -4358,7 +4358,7 @@
         <v>10</v>
       </c>
       <c r="E19">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G19">
         <v>9</v>
@@ -4454,7 +4454,7 @@
         <v>2</v>
       </c>
       <c r="E22">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="G22">
         <v>3</v>
@@ -4550,7 +4550,7 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -4582,7 +4582,7 @@
         <v>2</v>
       </c>
       <c r="E26">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -4646,7 +4646,7 @@
         <v>3</v>
       </c>
       <c r="E28">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -4678,7 +4678,7 @@
         <v>3</v>
       </c>
       <c r="E29">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G29">
         <v>3</v>
@@ -4774,7 +4774,7 @@
         <v>7</v>
       </c>
       <c r="E32">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G32">
         <v>7</v>
@@ -4870,7 +4870,7 @@
         <v>1</v>
       </c>
       <c r="E35">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -4934,7 +4934,7 @@
         <v>4</v>
       </c>
       <c r="E37">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G37">
         <v>4</v>
@@ -5062,7 +5062,7 @@
         <v>3</v>
       </c>
       <c r="E41">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G41">
         <v>3</v>
@@ -5094,7 +5094,7 @@
         <v>4</v>
       </c>
       <c r="E42">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G42">
         <v>4</v>
@@ -5158,7 +5158,7 @@
         <v>2</v>
       </c>
       <c r="E44">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G44">
         <v>2</v>
@@ -5190,7 +5190,7 @@
         <v>3</v>
       </c>
       <c r="E45">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -5254,7 +5254,7 @@
         <v>3</v>
       </c>
       <c r="E47">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G47">
         <v>3</v>
@@ -5286,7 +5286,7 @@
         <v>7</v>
       </c>
       <c r="E48">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G48">
         <v>7</v>
@@ -5555,7 +5555,7 @@
         <v>10</v>
       </c>
       <c r="E6">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G6">
         <v>10</v>
@@ -5587,7 +5587,7 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -5619,7 +5619,7 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -5651,7 +5651,7 @@
         <v>1</v>
       </c>
       <c r="E9">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -5779,7 +5779,7 @@
         <v>1</v>
       </c>
       <c r="E13">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -5875,7 +5875,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -5907,7 +5907,7 @@
         <v>2</v>
       </c>
       <c r="E17">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G17">
         <v>2</v>
@@ -5939,7 +5939,7 @@
         <v>1</v>
       </c>
       <c r="E18">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -5971,7 +5971,7 @@
         <v>10</v>
       </c>
       <c r="E19">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G19">
         <v>9</v>
@@ -6067,7 +6067,7 @@
         <v>2</v>
       </c>
       <c r="E22">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="G22">
         <v>3</v>
@@ -6163,7 +6163,7 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -6195,7 +6195,7 @@
         <v>2</v>
       </c>
       <c r="E26">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -6259,7 +6259,7 @@
         <v>3</v>
       </c>
       <c r="E28">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -6291,7 +6291,7 @@
         <v>3</v>
       </c>
       <c r="E29">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G29">
         <v>3</v>
@@ -6387,7 +6387,7 @@
         <v>7</v>
       </c>
       <c r="E32">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G32">
         <v>7</v>
@@ -6483,7 +6483,7 @@
         <v>1</v>
       </c>
       <c r="E35">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -6547,7 +6547,7 @@
         <v>4</v>
       </c>
       <c r="E37">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G37">
         <v>4</v>
@@ -6675,7 +6675,7 @@
         <v>3</v>
       </c>
       <c r="E41">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G41">
         <v>3</v>
@@ -6707,7 +6707,7 @@
         <v>4</v>
       </c>
       <c r="E42">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G42">
         <v>4</v>
@@ -6771,7 +6771,7 @@
         <v>2</v>
       </c>
       <c r="E44">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G44">
         <v>2</v>
@@ -6803,7 +6803,7 @@
         <v>3</v>
       </c>
       <c r="E45">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -6867,7 +6867,7 @@
         <v>3</v>
       </c>
       <c r="E47">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G47">
         <v>3</v>
@@ -6899,7 +6899,7 @@
         <v>7</v>
       </c>
       <c r="E48">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G48">
         <v>7</v>
@@ -7168,7 +7168,7 @@
         <v>10</v>
       </c>
       <c r="E6">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G6">
         <v>10</v>
@@ -7200,7 +7200,7 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -7232,7 +7232,7 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -7264,7 +7264,7 @@
         <v>1</v>
       </c>
       <c r="E9">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -7392,7 +7392,7 @@
         <v>1</v>
       </c>
       <c r="E13">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -7488,7 +7488,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -7520,7 +7520,7 @@
         <v>2</v>
       </c>
       <c r="E17">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G17">
         <v>2</v>
@@ -7552,7 +7552,7 @@
         <v>1</v>
       </c>
       <c r="E18">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -7584,7 +7584,7 @@
         <v>10</v>
       </c>
       <c r="E19">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G19">
         <v>9</v>
@@ -7680,7 +7680,7 @@
         <v>2</v>
       </c>
       <c r="E22">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="G22">
         <v>3</v>
@@ -7776,7 +7776,7 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -7808,7 +7808,7 @@
         <v>2</v>
       </c>
       <c r="E26">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -7872,7 +7872,7 @@
         <v>3</v>
       </c>
       <c r="E28">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -7904,7 +7904,7 @@
         <v>3</v>
       </c>
       <c r="E29">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G29">
         <v>3</v>
@@ -8000,7 +8000,7 @@
         <v>7</v>
       </c>
       <c r="E32">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G32">
         <v>7</v>
@@ -8096,7 +8096,7 @@
         <v>1</v>
       </c>
       <c r="E35">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -8160,7 +8160,7 @@
         <v>4</v>
       </c>
       <c r="E37">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G37">
         <v>4</v>
@@ -8288,7 +8288,7 @@
         <v>3</v>
       </c>
       <c r="E41">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G41">
         <v>3</v>
@@ -8320,7 +8320,7 @@
         <v>4</v>
       </c>
       <c r="E42">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G42">
         <v>4</v>
@@ -8384,7 +8384,7 @@
         <v>2</v>
       </c>
       <c r="E44">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G44">
         <v>2</v>
@@ -8416,7 +8416,7 @@
         <v>3</v>
       </c>
       <c r="E45">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -8480,7 +8480,7 @@
         <v>3</v>
       </c>
       <c r="E47">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G47">
         <v>3</v>
@@ -8512,7 +8512,7 @@
         <v>7</v>
       </c>
       <c r="E48">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G48">
         <v>7</v>
@@ -8781,7 +8781,7 @@
         <v>10</v>
       </c>
       <c r="E6">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G6">
         <v>10</v>
@@ -8813,7 +8813,7 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -8845,7 +8845,7 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -8877,7 +8877,7 @@
         <v>1</v>
       </c>
       <c r="E9">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -9005,7 +9005,7 @@
         <v>1</v>
       </c>
       <c r="E13">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -9101,7 +9101,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -9133,7 +9133,7 @@
         <v>2</v>
       </c>
       <c r="E17">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G17">
         <v>2</v>
@@ -9165,7 +9165,7 @@
         <v>1</v>
       </c>
       <c r="E18">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -9197,7 +9197,7 @@
         <v>8</v>
       </c>
       <c r="E19">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G19">
         <v>7</v>
@@ -9293,7 +9293,7 @@
         <v>2</v>
       </c>
       <c r="E22">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="G22">
         <v>3</v>
@@ -9389,7 +9389,7 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -9421,7 +9421,7 @@
         <v>2</v>
       </c>
       <c r="E26">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -9485,7 +9485,7 @@
         <v>3</v>
       </c>
       <c r="E28">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -9517,7 +9517,7 @@
         <v>3</v>
       </c>
       <c r="E29">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G29">
         <v>3</v>
@@ -9613,7 +9613,7 @@
         <v>7</v>
       </c>
       <c r="E32">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G32">
         <v>7</v>
@@ -9709,7 +9709,7 @@
         <v>1</v>
       </c>
       <c r="E35">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -9773,7 +9773,7 @@
         <v>4</v>
       </c>
       <c r="E37">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G37">
         <v>4</v>
@@ -9901,7 +9901,7 @@
         <v>3</v>
       </c>
       <c r="E41">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G41">
         <v>3</v>
@@ -9933,7 +9933,7 @@
         <v>4</v>
       </c>
       <c r="E42">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G42">
         <v>4</v>
@@ -9997,7 +9997,7 @@
         <v>2</v>
       </c>
       <c r="E44">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G44">
         <v>2</v>
@@ -10029,7 +10029,7 @@
         <v>3</v>
       </c>
       <c r="E45">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -10093,7 +10093,7 @@
         <v>3</v>
       </c>
       <c r="E47">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G47">
         <v>3</v>
@@ -10125,7 +10125,7 @@
         <v>7</v>
       </c>
       <c r="E48">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G48">
         <v>7</v>
@@ -10394,7 +10394,7 @@
         <v>10</v>
       </c>
       <c r="E6">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G6">
         <v>10</v>
@@ -10426,7 +10426,7 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -10458,7 +10458,7 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -10490,7 +10490,7 @@
         <v>1</v>
       </c>
       <c r="E9">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -10618,7 +10618,7 @@
         <v>1</v>
       </c>
       <c r="E13">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -10714,7 +10714,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -10746,7 +10746,7 @@
         <v>2</v>
       </c>
       <c r="E17">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G17">
         <v>2</v>
@@ -10778,7 +10778,7 @@
         <v>1</v>
       </c>
       <c r="E18">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -10810,7 +10810,7 @@
         <v>8</v>
       </c>
       <c r="E19">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G19">
         <v>7</v>
@@ -10906,7 +10906,7 @@
         <v>2</v>
       </c>
       <c r="E22">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="G22">
         <v>3</v>
@@ -11002,7 +11002,7 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -11034,7 +11034,7 @@
         <v>2</v>
       </c>
       <c r="E26">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -11098,7 +11098,7 @@
         <v>3</v>
       </c>
       <c r="E28">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -11130,7 +11130,7 @@
         <v>3</v>
       </c>
       <c r="E29">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G29">
         <v>3</v>
@@ -11226,7 +11226,7 @@
         <v>7</v>
       </c>
       <c r="E32">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G32">
         <v>7</v>
@@ -11322,7 +11322,7 @@
         <v>2</v>
       </c>
       <c r="E35">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -11386,7 +11386,7 @@
         <v>4</v>
       </c>
       <c r="E37">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G37">
         <v>4</v>
@@ -11514,7 +11514,7 @@
         <v>3</v>
       </c>
       <c r="E41">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G41">
         <v>3</v>
@@ -11546,7 +11546,7 @@
         <v>4</v>
       </c>
       <c r="E42">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G42">
         <v>4</v>
@@ -11610,7 +11610,7 @@
         <v>2</v>
       </c>
       <c r="E44">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G44">
         <v>2</v>
@@ -11642,7 +11642,7 @@
         <v>3</v>
       </c>
       <c r="E45">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -11706,7 +11706,7 @@
         <v>3</v>
       </c>
       <c r="E47">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G47">
         <v>3</v>
@@ -11738,7 +11738,7 @@
         <v>7</v>
       </c>
       <c r="E48">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G48">
         <v>7</v>
@@ -12007,7 +12007,7 @@
         <v>10</v>
       </c>
       <c r="E6">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G6">
         <v>10</v>
@@ -12039,7 +12039,7 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -12071,7 +12071,7 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -12103,7 +12103,7 @@
         <v>1</v>
       </c>
       <c r="E9">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -12231,7 +12231,7 @@
         <v>1</v>
       </c>
       <c r="E13">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -12327,7 +12327,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -12359,7 +12359,7 @@
         <v>2</v>
       </c>
       <c r="E17">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G17">
         <v>2</v>
@@ -12391,7 +12391,7 @@
         <v>1</v>
       </c>
       <c r="E18">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -12423,7 +12423,7 @@
         <v>8</v>
       </c>
       <c r="E19">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G19">
         <v>7</v>
@@ -12519,7 +12519,7 @@
         <v>2</v>
       </c>
       <c r="E22">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="G22">
         <v>3</v>
@@ -12615,7 +12615,7 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -12647,7 +12647,7 @@
         <v>2</v>
       </c>
       <c r="E26">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -12711,7 +12711,7 @@
         <v>3</v>
       </c>
       <c r="E28">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -12743,7 +12743,7 @@
         <v>3</v>
       </c>
       <c r="E29">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G29">
         <v>3</v>
@@ -12839,7 +12839,7 @@
         <v>7</v>
       </c>
       <c r="E32">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G32">
         <v>7</v>
@@ -12935,7 +12935,7 @@
         <v>1</v>
       </c>
       <c r="E35">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -12999,7 +12999,7 @@
         <v>4</v>
       </c>
       <c r="E37">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G37">
         <v>4</v>
@@ -13127,7 +13127,7 @@
         <v>3</v>
       </c>
       <c r="E41">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G41">
         <v>3</v>
@@ -13159,7 +13159,7 @@
         <v>4</v>
       </c>
       <c r="E42">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G42">
         <v>4</v>
@@ -13223,7 +13223,7 @@
         <v>2</v>
       </c>
       <c r="E44">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G44">
         <v>2</v>
@@ -13255,7 +13255,7 @@
         <v>3</v>
       </c>
       <c r="E45">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -13319,7 +13319,7 @@
         <v>3</v>
       </c>
       <c r="E47">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G47">
         <v>3</v>
@@ -13351,7 +13351,7 @@
         <v>7</v>
       </c>
       <c r="E48">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G48">
         <v>7</v>
@@ -13620,7 +13620,7 @@
         <v>10</v>
       </c>
       <c r="E6">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G6">
         <v>10</v>
@@ -13652,7 +13652,7 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -13684,7 +13684,7 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -13716,7 +13716,7 @@
         <v>1</v>
       </c>
       <c r="E9">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -13844,7 +13844,7 @@
         <v>1</v>
       </c>
       <c r="E13">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -13940,7 +13940,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -13972,7 +13972,7 @@
         <v>2</v>
       </c>
       <c r="E17">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G17">
         <v>2</v>
@@ -14004,7 +14004,7 @@
         <v>1</v>
       </c>
       <c r="E18">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -14036,7 +14036,7 @@
         <v>8</v>
       </c>
       <c r="E19">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G19">
         <v>7</v>
@@ -14132,7 +14132,7 @@
         <v>2</v>
       </c>
       <c r="E22">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="G22">
         <v>3</v>
@@ -14228,7 +14228,7 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -14260,7 +14260,7 @@
         <v>2</v>
       </c>
       <c r="E26">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -14324,7 +14324,7 @@
         <v>3</v>
       </c>
       <c r="E28">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -14356,7 +14356,7 @@
         <v>3</v>
       </c>
       <c r="E29">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G29">
         <v>3</v>
@@ -14452,7 +14452,7 @@
         <v>7</v>
       </c>
       <c r="E32">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G32">
         <v>7</v>
@@ -14548,7 +14548,7 @@
         <v>1</v>
       </c>
       <c r="E35">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -14612,7 +14612,7 @@
         <v>4</v>
       </c>
       <c r="E37">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G37">
         <v>4</v>
@@ -14740,7 +14740,7 @@
         <v>3</v>
       </c>
       <c r="E41">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G41">
         <v>3</v>
@@ -14772,7 +14772,7 @@
         <v>4</v>
       </c>
       <c r="E42">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G42">
         <v>4</v>
@@ -14836,7 +14836,7 @@
         <v>2</v>
       </c>
       <c r="E44">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G44">
         <v>2</v>
@@ -14868,7 +14868,7 @@
         <v>3</v>
       </c>
       <c r="E45">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -14932,7 +14932,7 @@
         <v>3</v>
       </c>
       <c r="E47">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G47">
         <v>3</v>
@@ -14964,7 +14964,7 @@
         <v>7</v>
       </c>
       <c r="E48">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G48">
         <v>7</v>
@@ -15233,7 +15233,7 @@
         <v>10</v>
       </c>
       <c r="E6">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G6">
         <v>10</v>
@@ -15265,7 +15265,7 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -15297,7 +15297,7 @@
         <v>9</v>
       </c>
       <c r="E8">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G8">
         <v>10</v>
@@ -15329,7 +15329,7 @@
         <v>15</v>
       </c>
       <c r="E9">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G9">
         <v>16</v>
@@ -15457,7 +15457,7 @@
         <v>2</v>
       </c>
       <c r="E13">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G13">
         <v>2</v>
@@ -15553,7 +15553,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -15585,7 +15585,7 @@
         <v>2</v>
       </c>
       <c r="E17">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G17">
         <v>2</v>
@@ -15617,7 +15617,7 @@
         <v>1</v>
       </c>
       <c r="E18">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -15649,7 +15649,7 @@
         <v>10</v>
       </c>
       <c r="E19">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G19">
         <v>9</v>
@@ -15745,7 +15745,7 @@
         <v>2</v>
       </c>
       <c r="E22">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="G22">
         <v>3</v>
@@ -15832,16 +15832,16 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
       <c r="D25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E25">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -15873,7 +15873,7 @@
         <v>2</v>
       </c>
       <c r="E26">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -15937,7 +15937,7 @@
         <v>13</v>
       </c>
       <c r="E28">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G28">
         <v>13</v>
@@ -15969,7 +15969,7 @@
         <v>3</v>
       </c>
       <c r="E29">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G29">
         <v>3</v>
@@ -16065,7 +16065,7 @@
         <v>7</v>
       </c>
       <c r="E32">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G32">
         <v>7</v>
@@ -16161,7 +16161,7 @@
         <v>4</v>
       </c>
       <c r="E35">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="G35">
         <v>4</v>
@@ -16225,7 +16225,7 @@
         <v>8</v>
       </c>
       <c r="E37">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G37">
         <v>8</v>
@@ -16353,7 +16353,7 @@
         <v>6</v>
       </c>
       <c r="E41">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G41">
         <v>6</v>
@@ -16385,7 +16385,7 @@
         <v>6</v>
       </c>
       <c r="E42">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G42">
         <v>6</v>
@@ -16449,7 +16449,7 @@
         <v>4</v>
       </c>
       <c r="E44">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G44">
         <v>4</v>
@@ -16481,7 +16481,7 @@
         <v>13</v>
       </c>
       <c r="E45">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G45">
         <v>13</v>
@@ -16545,7 +16545,7 @@
         <v>5</v>
       </c>
       <c r="E47">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G47">
         <v>5</v>
@@ -16577,7 +16577,7 @@
         <v>7</v>
       </c>
       <c r="E48">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G48">
         <v>7</v>
@@ -16846,7 +16846,7 @@
         <v>16</v>
       </c>
       <c r="E6">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G6">
         <v>10</v>
@@ -16878,7 +16878,7 @@
         <v>8</v>
       </c>
       <c r="E7">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -16910,7 +16910,7 @@
         <v>2</v>
       </c>
       <c r="E8">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -16942,7 +16942,7 @@
         <v>2</v>
       </c>
       <c r="E9">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -17070,7 +17070,7 @@
         <v>9</v>
       </c>
       <c r="E13">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -17166,7 +17166,7 @@
         <v>16</v>
       </c>
       <c r="E16">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -17198,7 +17198,7 @@
         <v>8</v>
       </c>
       <c r="E17">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G17">
         <v>2</v>
@@ -17221,7 +17221,7 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -17230,7 +17230,7 @@
         <v>1</v>
       </c>
       <c r="E18">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -17262,7 +17262,7 @@
         <v>8</v>
       </c>
       <c r="E19">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G19">
         <v>7</v>
@@ -17349,7 +17349,7 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C22">
         <v>2</v>
@@ -17358,7 +17358,7 @@
         <v>2</v>
       </c>
       <c r="E22">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="G22">
         <v>3</v>
@@ -17445,7 +17445,7 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C25">
         <v>2</v>
@@ -17454,7 +17454,7 @@
         <v>2</v>
       </c>
       <c r="E25">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -17486,7 +17486,7 @@
         <v>2</v>
       </c>
       <c r="E26">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -17550,7 +17550,7 @@
         <v>8</v>
       </c>
       <c r="E28">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -17582,7 +17582,7 @@
         <v>16</v>
       </c>
       <c r="E29">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G29">
         <v>3</v>
@@ -17678,7 +17678,7 @@
         <v>8</v>
       </c>
       <c r="E32">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G32">
         <v>7</v>
@@ -17765,7 +17765,7 @@
         <v>43</v>
       </c>
       <c r="B35">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C35">
         <v>9</v>
@@ -17774,7 +17774,7 @@
         <v>9</v>
       </c>
       <c r="E35">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -17838,7 +17838,7 @@
         <v>5</v>
       </c>
       <c r="E37">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G37">
         <v>4</v>
@@ -17966,7 +17966,7 @@
         <v>4</v>
       </c>
       <c r="E41">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G41">
         <v>3</v>
@@ -17998,7 +17998,7 @@
         <v>5</v>
       </c>
       <c r="E42">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G42">
         <v>4</v>
@@ -18062,7 +18062,7 @@
         <v>7</v>
       </c>
       <c r="E44">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G44">
         <v>2</v>
@@ -18094,7 +18094,7 @@
         <v>10</v>
       </c>
       <c r="E45">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -18158,7 +18158,7 @@
         <v>4</v>
       </c>
       <c r="E47">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G47">
         <v>3</v>
@@ -18190,7 +18190,7 @@
         <v>8</v>
       </c>
       <c r="E48">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G48">
         <v>7</v>
@@ -18459,7 +18459,7 @@
         <v>16</v>
       </c>
       <c r="E6">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G6">
         <v>40</v>
@@ -18491,7 +18491,7 @@
         <v>8</v>
       </c>
       <c r="E7">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G7">
         <v>24</v>
@@ -18523,7 +18523,7 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G8">
         <v>10</v>
@@ -18555,7 +18555,7 @@
         <v>1</v>
       </c>
       <c r="E9">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G9">
         <v>10</v>
@@ -18683,7 +18683,7 @@
         <v>8</v>
       </c>
       <c r="E13">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G13">
         <v>25</v>
@@ -18779,7 +18779,7 @@
         <v>16</v>
       </c>
       <c r="E16">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G16">
         <v>40</v>
@@ -18811,7 +18811,7 @@
         <v>8</v>
       </c>
       <c r="E17">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G17">
         <v>24</v>
@@ -18834,7 +18834,7 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -18843,7 +18843,7 @@
         <v>1</v>
       </c>
       <c r="E18">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="G18">
         <v>17</v>
@@ -18875,7 +18875,7 @@
         <v>8</v>
       </c>
       <c r="E19">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G19">
         <v>25</v>
@@ -18962,7 +18962,7 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C22">
         <v>2</v>
@@ -18971,7 +18971,7 @@
         <v>2</v>
       </c>
       <c r="E22">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="G22">
         <v>10</v>
@@ -19058,7 +19058,7 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C25">
         <v>2</v>
@@ -19067,7 +19067,7 @@
         <v>2</v>
       </c>
       <c r="E25">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="G25">
         <v>15</v>
@@ -19099,7 +19099,7 @@
         <v>2</v>
       </c>
       <c r="E26">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G26">
         <v>14</v>
@@ -19163,7 +19163,7 @@
         <v>4</v>
       </c>
       <c r="E28">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G28">
         <v>14</v>
@@ -19195,7 +19195,7 @@
         <v>16</v>
       </c>
       <c r="E29">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G29">
         <v>39</v>
@@ -19291,7 +19291,7 @@
         <v>8</v>
       </c>
       <c r="E32">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G32">
         <v>25</v>
@@ -19378,7 +19378,7 @@
         <v>43</v>
       </c>
       <c r="B35">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C35">
         <v>24</v>
@@ -19387,7 +19387,7 @@
         <v>29</v>
       </c>
       <c r="E35">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="G35">
         <v>16</v>
@@ -19451,7 +19451,7 @@
         <v>5</v>
       </c>
       <c r="E37">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G37">
         <v>22</v>
@@ -19579,7 +19579,7 @@
         <v>4</v>
       </c>
       <c r="E41">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G41">
         <v>14</v>
@@ -19611,7 +19611,7 @@
         <v>5</v>
       </c>
       <c r="E42">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G42">
         <v>15</v>
@@ -19675,7 +19675,7 @@
         <v>7</v>
       </c>
       <c r="E44">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G44">
         <v>23</v>
@@ -19707,7 +19707,7 @@
         <v>4</v>
       </c>
       <c r="E45">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G45">
         <v>18</v>
@@ -19771,7 +19771,7 @@
         <v>4</v>
       </c>
       <c r="E47">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G47">
         <v>18</v>
@@ -19803,7 +19803,7 @@
         <v>8</v>
       </c>
       <c r="E48">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G48">
         <v>31</v>
@@ -20063,16 +20063,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C6">
         <v>14</v>
       </c>
       <c r="D6">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E6">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G6">
         <v>25</v>
@@ -20104,7 +20104,7 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -20136,7 +20136,7 @@
         <v>2</v>
       </c>
       <c r="E8">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G8">
         <v>3</v>
@@ -20168,7 +20168,7 @@
         <v>1</v>
       </c>
       <c r="E9">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -20296,7 +20296,7 @@
         <v>1</v>
       </c>
       <c r="E13">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -20392,7 +20392,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -20424,7 +20424,7 @@
         <v>2</v>
       </c>
       <c r="E17">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G17">
         <v>2</v>
@@ -20456,7 +20456,7 @@
         <v>5</v>
       </c>
       <c r="E18">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="G18">
         <v>20</v>
@@ -20479,16 +20479,16 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C19">
         <v>20</v>
       </c>
       <c r="D19">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E19">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G19">
         <v>57</v>
@@ -20575,16 +20575,16 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C22">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D22">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E22">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="G22">
         <v>145</v>
@@ -20680,7 +20680,7 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -20712,7 +20712,7 @@
         <v>2</v>
       </c>
       <c r="E26">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -20776,7 +20776,7 @@
         <v>3</v>
       </c>
       <c r="E28">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -20808,7 +20808,7 @@
         <v>3</v>
       </c>
       <c r="E29">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G29">
         <v>3</v>
@@ -20895,16 +20895,16 @@
         <v>40</v>
       </c>
       <c r="B32">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C32">
         <v>21</v>
       </c>
       <c r="D32">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="E32">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G32">
         <v>66</v>
@@ -21000,7 +21000,7 @@
         <v>1</v>
       </c>
       <c r="E35">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -21064,7 +21064,7 @@
         <v>8</v>
       </c>
       <c r="E37">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G37">
         <v>10</v>
@@ -21192,7 +21192,7 @@
         <v>3</v>
       </c>
       <c r="E41">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G41">
         <v>3</v>
@@ -21224,7 +21224,7 @@
         <v>4</v>
       </c>
       <c r="E42">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G42">
         <v>4</v>
@@ -21279,16 +21279,16 @@
         <v>52</v>
       </c>
       <c r="B44">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C44">
         <v>9</v>
       </c>
       <c r="D44">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G44">
         <v>19</v>
@@ -21320,7 +21320,7 @@
         <v>10</v>
       </c>
       <c r="E45">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G45">
         <v>10</v>
@@ -21384,7 +21384,7 @@
         <v>3</v>
       </c>
       <c r="E47">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G47">
         <v>3</v>
@@ -21407,16 +21407,16 @@
         <v>56</v>
       </c>
       <c r="B48">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C48">
         <v>14</v>
       </c>
       <c r="D48">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E48">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G48">
         <v>35</v>
@@ -21676,16 +21676,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C6">
         <v>14</v>
       </c>
       <c r="D6">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E6">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G6">
         <v>25</v>
@@ -21717,7 +21717,7 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -21749,7 +21749,7 @@
         <v>2</v>
       </c>
       <c r="E8">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G8">
         <v>3</v>
@@ -21781,7 +21781,7 @@
         <v>1</v>
       </c>
       <c r="E9">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -21909,7 +21909,7 @@
         <v>1</v>
       </c>
       <c r="E13">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -22005,7 +22005,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -22037,7 +22037,7 @@
         <v>2</v>
       </c>
       <c r="E17">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G17">
         <v>2</v>
@@ -22069,7 +22069,7 @@
         <v>5</v>
       </c>
       <c r="E18">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="G18">
         <v>20</v>
@@ -22092,16 +22092,16 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C19">
         <v>20</v>
       </c>
       <c r="D19">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E19">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G19">
         <v>57</v>
@@ -22188,16 +22188,16 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C22">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D22">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E22">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="G22">
         <v>145</v>
@@ -22293,7 +22293,7 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -22325,7 +22325,7 @@
         <v>2</v>
       </c>
       <c r="E26">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -22389,7 +22389,7 @@
         <v>3</v>
       </c>
       <c r="E28">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -22421,7 +22421,7 @@
         <v>3</v>
       </c>
       <c r="E29">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G29">
         <v>3</v>
@@ -22508,16 +22508,16 @@
         <v>40</v>
       </c>
       <c r="B32">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C32">
         <v>21</v>
       </c>
       <c r="D32">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="E32">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G32">
         <v>66</v>
@@ -22613,7 +22613,7 @@
         <v>1</v>
       </c>
       <c r="E35">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -22677,7 +22677,7 @@
         <v>8</v>
       </c>
       <c r="E37">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G37">
         <v>10</v>
@@ -22805,7 +22805,7 @@
         <v>3</v>
       </c>
       <c r="E41">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G41">
         <v>3</v>
@@ -22837,7 +22837,7 @@
         <v>4</v>
       </c>
       <c r="E42">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G42">
         <v>4</v>
@@ -22892,16 +22892,16 @@
         <v>52</v>
       </c>
       <c r="B44">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C44">
         <v>9</v>
       </c>
       <c r="D44">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G44">
         <v>19</v>
@@ -22933,7 +22933,7 @@
         <v>10</v>
       </c>
       <c r="E45">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G45">
         <v>10</v>
@@ -22997,7 +22997,7 @@
         <v>3</v>
       </c>
       <c r="E47">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G47">
         <v>3</v>
@@ -23020,16 +23020,16 @@
         <v>56</v>
       </c>
       <c r="B48">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C48">
         <v>14</v>
       </c>
       <c r="D48">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E48">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G48">
         <v>35</v>
@@ -23298,7 +23298,7 @@
         <v>10</v>
       </c>
       <c r="E6">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G6">
         <v>10</v>
@@ -23330,7 +23330,7 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -23362,7 +23362,7 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -23394,7 +23394,7 @@
         <v>1</v>
       </c>
       <c r="E9">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -23522,7 +23522,7 @@
         <v>1</v>
       </c>
       <c r="E13">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -23618,7 +23618,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -23650,7 +23650,7 @@
         <v>2</v>
       </c>
       <c r="E17">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G17">
         <v>2</v>
@@ -23682,7 +23682,7 @@
         <v>1</v>
       </c>
       <c r="E18">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -23714,7 +23714,7 @@
         <v>8</v>
       </c>
       <c r="E19">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G19">
         <v>7</v>
@@ -23810,7 +23810,7 @@
         <v>2</v>
       </c>
       <c r="E22">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="G22">
         <v>3</v>
@@ -23906,7 +23906,7 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -23938,7 +23938,7 @@
         <v>2</v>
       </c>
       <c r="E26">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -24002,7 +24002,7 @@
         <v>3</v>
       </c>
       <c r="E28">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -24034,7 +24034,7 @@
         <v>3</v>
       </c>
       <c r="E29">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G29">
         <v>3</v>
@@ -24130,7 +24130,7 @@
         <v>7</v>
       </c>
       <c r="E32">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G32">
         <v>7</v>
@@ -24226,7 +24226,7 @@
         <v>1</v>
       </c>
       <c r="E35">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -24290,7 +24290,7 @@
         <v>4</v>
       </c>
       <c r="E37">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G37">
         <v>4</v>
@@ -24418,7 +24418,7 @@
         <v>3</v>
       </c>
       <c r="E41">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G41">
         <v>3</v>
@@ -24450,7 +24450,7 @@
         <v>4</v>
       </c>
       <c r="E42">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G42">
         <v>4</v>
@@ -24514,7 +24514,7 @@
         <v>2</v>
       </c>
       <c r="E44">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G44">
         <v>2</v>
@@ -24546,7 +24546,7 @@
         <v>3</v>
       </c>
       <c r="E45">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -24610,7 +24610,7 @@
         <v>3</v>
       </c>
       <c r="E47">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G47">
         <v>3</v>
@@ -24642,7 +24642,7 @@
         <v>7</v>
       </c>
       <c r="E48">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G48">
         <v>7</v>

--- a/experiment_results/worst_case/ExamDB/4wise/0.8_worst_case.xlsx
+++ b/experiment_results/worst_case/ExamDB/4wise/0.8_worst_case.xlsx
@@ -588,7 +588,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>101</v>
+        <v>36</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -620,7 +620,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>101</v>
+        <v>35</v>
       </c>
       <c r="G3">
         <v>7</v>
@@ -652,7 +652,7 @@
         <v>3</v>
       </c>
       <c r="E4">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="G4">
         <v>3</v>
@@ -684,7 +684,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -716,7 +716,7 @@
         <v>10</v>
       </c>
       <c r="E6">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="G6">
         <v>10</v>
@@ -748,7 +748,7 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -780,7 +780,7 @@
         <v>9</v>
       </c>
       <c r="E8">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="G8">
         <v>10</v>
@@ -812,7 +812,7 @@
         <v>15</v>
       </c>
       <c r="E9">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="G9">
         <v>16</v>
@@ -844,7 +844,7 @@
         <v>7</v>
       </c>
       <c r="E10">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="G10">
         <v>14</v>
@@ -876,7 +876,7 @@
         <v>3</v>
       </c>
       <c r="E11">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="G11">
         <v>3</v>
@@ -908,7 +908,7 @@
         <v>3</v>
       </c>
       <c r="E12">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -940,7 +940,7 @@
         <v>2</v>
       </c>
       <c r="E13">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="G13">
         <v>2</v>
@@ -972,7 +972,7 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -1004,7 +1004,7 @@
         <v>10</v>
       </c>
       <c r="E15">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="G15">
         <v>11</v>
@@ -1036,7 +1036,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -1068,7 +1068,7 @@
         <v>2</v>
       </c>
       <c r="E17">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="G17">
         <v>2</v>
@@ -1100,7 +1100,7 @@
         <v>1</v>
       </c>
       <c r="E18">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -1132,7 +1132,7 @@
         <v>10</v>
       </c>
       <c r="E19">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="G19">
         <v>9</v>
@@ -1164,7 +1164,7 @@
         <v>1</v>
       </c>
       <c r="E20">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="G20">
         <v>3</v>
@@ -1196,7 +1196,7 @@
         <v>6</v>
       </c>
       <c r="E21">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="G21">
         <v>6</v>
@@ -1228,7 +1228,7 @@
         <v>2</v>
       </c>
       <c r="E22">
-        <v>72</v>
+        <v>7</v>
       </c>
       <c r="G22">
         <v>3</v>
@@ -1260,7 +1260,7 @@
         <v>11</v>
       </c>
       <c r="E23">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="G23">
         <v>12</v>
@@ -1292,7 +1292,7 @@
         <v>2</v>
       </c>
       <c r="E24">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="G24">
         <v>3</v>
@@ -1324,7 +1324,7 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1356,7 +1356,7 @@
         <v>2</v>
       </c>
       <c r="E26">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -1388,7 +1388,7 @@
         <v>8</v>
       </c>
       <c r="E27">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="G27">
         <v>7</v>
@@ -1420,7 +1420,7 @@
         <v>13</v>
       </c>
       <c r="E28">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="G28">
         <v>13</v>
@@ -1452,7 +1452,7 @@
         <v>3</v>
       </c>
       <c r="E29">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="G29">
         <v>3</v>
@@ -1484,7 +1484,7 @@
         <v>2</v>
       </c>
       <c r="E30">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="G30">
         <v>2</v>
@@ -1516,7 +1516,7 @@
         <v>2</v>
       </c>
       <c r="E31">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="G31">
         <v>2</v>
@@ -1548,7 +1548,7 @@
         <v>7</v>
       </c>
       <c r="E32">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="G32">
         <v>7</v>
@@ -1580,7 +1580,7 @@
         <v>7</v>
       </c>
       <c r="E33">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="G33">
         <v>7</v>
@@ -1612,7 +1612,7 @@
         <v>2</v>
       </c>
       <c r="E34">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="G34">
         <v>2</v>
@@ -1644,7 +1644,7 @@
         <v>3</v>
       </c>
       <c r="E35">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="G35">
         <v>4</v>
@@ -1676,7 +1676,7 @@
         <v>7</v>
       </c>
       <c r="E36">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="G36">
         <v>7</v>
@@ -1708,7 +1708,7 @@
         <v>8</v>
       </c>
       <c r="E37">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="G37">
         <v>4</v>
@@ -1740,7 +1740,7 @@
         <v>4</v>
       </c>
       <c r="E38">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="G38">
         <v>4</v>
@@ -1772,7 +1772,7 @@
         <v>3</v>
       </c>
       <c r="E39">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="G39">
         <v>3</v>
@@ -1804,7 +1804,7 @@
         <v>6</v>
       </c>
       <c r="E40">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="G40">
         <v>6</v>
@@ -1836,7 +1836,7 @@
         <v>6</v>
       </c>
       <c r="E41">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="G41">
         <v>6</v>
@@ -1868,7 +1868,7 @@
         <v>6</v>
       </c>
       <c r="E42">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="G42">
         <v>6</v>
@@ -1900,7 +1900,7 @@
         <v>2</v>
       </c>
       <c r="E43">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="G43">
         <v>3</v>
@@ -1932,7 +1932,7 @@
         <v>4</v>
       </c>
       <c r="E44">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="G44">
         <v>4</v>
@@ -1964,7 +1964,7 @@
         <v>13</v>
       </c>
       <c r="E45">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="G45">
         <v>13</v>
@@ -1996,7 +1996,7 @@
         <v>1</v>
       </c>
       <c r="E46">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="G46">
         <v>1</v>
@@ -2028,7 +2028,7 @@
         <v>5</v>
       </c>
       <c r="E47">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="G47">
         <v>5</v>
@@ -2060,7 +2060,7 @@
         <v>7</v>
       </c>
       <c r="E48">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="G48">
         <v>7</v>
@@ -2092,7 +2092,7 @@
         <v>5</v>
       </c>
       <c r="E49">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="G49">
         <v>5</v>
@@ -2124,7 +2124,7 @@
         <v>1</v>
       </c>
       <c r="E50">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="G50">
         <v>2</v>
@@ -2201,7 +2201,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>101</v>
+        <v>36</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -2233,7 +2233,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>101</v>
+        <v>35</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -2265,7 +2265,7 @@
         <v>3</v>
       </c>
       <c r="E4">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="G4">
         <v>3</v>
@@ -2297,7 +2297,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -2329,7 +2329,7 @@
         <v>10</v>
       </c>
       <c r="E6">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="G6">
         <v>10</v>
@@ -2361,7 +2361,7 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -2393,7 +2393,7 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -2425,7 +2425,7 @@
         <v>1</v>
       </c>
       <c r="E9">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -2457,7 +2457,7 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -2489,7 +2489,7 @@
         <v>3</v>
       </c>
       <c r="E11">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="G11">
         <v>3</v>
@@ -2521,7 +2521,7 @@
         <v>3</v>
       </c>
       <c r="E12">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -2553,7 +2553,7 @@
         <v>1</v>
       </c>
       <c r="E13">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -2585,7 +2585,7 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -2617,7 +2617,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="G15">
         <v>2</v>
@@ -2649,7 +2649,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -2681,7 +2681,7 @@
         <v>2</v>
       </c>
       <c r="E17">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="G17">
         <v>2</v>
@@ -2713,7 +2713,7 @@
         <v>1</v>
       </c>
       <c r="E18">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -2745,7 +2745,7 @@
         <v>10</v>
       </c>
       <c r="E19">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="G19">
         <v>9</v>
@@ -2777,7 +2777,7 @@
         <v>2</v>
       </c>
       <c r="E20">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -2809,7 +2809,7 @@
         <v>3</v>
       </c>
       <c r="E21">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="G21">
         <v>3</v>
@@ -2841,7 +2841,7 @@
         <v>2</v>
       </c>
       <c r="E22">
-        <v>72</v>
+        <v>7</v>
       </c>
       <c r="G22">
         <v>3</v>
@@ -2873,7 +2873,7 @@
         <v>1</v>
       </c>
       <c r="E23">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="G23">
         <v>2</v>
@@ -2905,7 +2905,7 @@
         <v>2</v>
       </c>
       <c r="E24">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="G24">
         <v>3</v>
@@ -2937,7 +2937,7 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -2969,7 +2969,7 @@
         <v>2</v>
       </c>
       <c r="E26">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -3001,7 +3001,7 @@
         <v>8</v>
       </c>
       <c r="E27">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="G27">
         <v>7</v>
@@ -3033,7 +3033,7 @@
         <v>3</v>
       </c>
       <c r="E28">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -3065,7 +3065,7 @@
         <v>3</v>
       </c>
       <c r="E29">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="G29">
         <v>3</v>
@@ -3097,7 +3097,7 @@
         <v>2</v>
       </c>
       <c r="E30">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="G30">
         <v>2</v>
@@ -3129,7 +3129,7 @@
         <v>2</v>
       </c>
       <c r="E31">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="G31">
         <v>2</v>
@@ -3161,7 +3161,7 @@
         <v>7</v>
       </c>
       <c r="E32">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="G32">
         <v>7</v>
@@ -3193,7 +3193,7 @@
         <v>4</v>
       </c>
       <c r="E33">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="G33">
         <v>4</v>
@@ -3225,7 +3225,7 @@
         <v>1</v>
       </c>
       <c r="E34">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -3257,7 +3257,7 @@
         <v>1</v>
       </c>
       <c r="E35">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -3289,7 +3289,7 @@
         <v>4</v>
       </c>
       <c r="E36">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="G36">
         <v>4</v>
@@ -3321,7 +3321,7 @@
         <v>4</v>
       </c>
       <c r="E37">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="G37">
         <v>4</v>
@@ -3353,7 +3353,7 @@
         <v>4</v>
       </c>
       <c r="E38">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="G38">
         <v>4</v>
@@ -3385,7 +3385,7 @@
         <v>2</v>
       </c>
       <c r="E39">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="G39">
         <v>2</v>
@@ -3417,7 +3417,7 @@
         <v>3</v>
       </c>
       <c r="E40">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="G40">
         <v>3</v>
@@ -3449,7 +3449,7 @@
         <v>3</v>
       </c>
       <c r="E41">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="G41">
         <v>3</v>
@@ -3481,7 +3481,7 @@
         <v>4</v>
       </c>
       <c r="E42">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="G42">
         <v>4</v>
@@ -3513,7 +3513,7 @@
         <v>2</v>
       </c>
       <c r="E43">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="G43">
         <v>3</v>
@@ -3545,7 +3545,7 @@
         <v>2</v>
       </c>
       <c r="E44">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="G44">
         <v>2</v>
@@ -3577,7 +3577,7 @@
         <v>3</v>
       </c>
       <c r="E45">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -3609,7 +3609,7 @@
         <v>1</v>
       </c>
       <c r="E46">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="G46">
         <v>1</v>
@@ -3641,7 +3641,7 @@
         <v>3</v>
       </c>
       <c r="E47">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="G47">
         <v>3</v>
@@ -3673,7 +3673,7 @@
         <v>7</v>
       </c>
       <c r="E48">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="G48">
         <v>7</v>
@@ -3705,7 +3705,7 @@
         <v>5</v>
       </c>
       <c r="E49">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="G49">
         <v>5</v>
@@ -3737,7 +3737,7 @@
         <v>1</v>
       </c>
       <c r="E50">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="G50">
         <v>2</v>
@@ -3814,7 +3814,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>101</v>
+        <v>36</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -3846,7 +3846,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>101</v>
+        <v>35</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -3878,7 +3878,7 @@
         <v>3</v>
       </c>
       <c r="E4">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="G4">
         <v>3</v>
@@ -3910,7 +3910,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -3942,7 +3942,7 @@
         <v>10</v>
       </c>
       <c r="E6">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="G6">
         <v>10</v>
@@ -3974,7 +3974,7 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -4006,7 +4006,7 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -4038,7 +4038,7 @@
         <v>1</v>
       </c>
       <c r="E9">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -4070,7 +4070,7 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -4102,7 +4102,7 @@
         <v>3</v>
       </c>
       <c r="E11">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="G11">
         <v>3</v>
@@ -4134,7 +4134,7 @@
         <v>3</v>
       </c>
       <c r="E12">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -4166,7 +4166,7 @@
         <v>1</v>
       </c>
       <c r="E13">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -4198,7 +4198,7 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -4230,7 +4230,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="G15">
         <v>2</v>
@@ -4262,7 +4262,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -4294,7 +4294,7 @@
         <v>2</v>
       </c>
       <c r="E17">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="G17">
         <v>2</v>
@@ -4326,7 +4326,7 @@
         <v>1</v>
       </c>
       <c r="E18">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -4358,7 +4358,7 @@
         <v>10</v>
       </c>
       <c r="E19">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="G19">
         <v>9</v>
@@ -4390,7 +4390,7 @@
         <v>2</v>
       </c>
       <c r="E20">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -4422,7 +4422,7 @@
         <v>3</v>
       </c>
       <c r="E21">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="G21">
         <v>3</v>
@@ -4454,7 +4454,7 @@
         <v>2</v>
       </c>
       <c r="E22">
-        <v>72</v>
+        <v>7</v>
       </c>
       <c r="G22">
         <v>3</v>
@@ -4486,7 +4486,7 @@
         <v>1</v>
       </c>
       <c r="E23">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="G23">
         <v>2</v>
@@ -4518,7 +4518,7 @@
         <v>2</v>
       </c>
       <c r="E24">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="G24">
         <v>3</v>
@@ -4550,7 +4550,7 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -4582,7 +4582,7 @@
         <v>2</v>
       </c>
       <c r="E26">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -4614,7 +4614,7 @@
         <v>8</v>
       </c>
       <c r="E27">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="G27">
         <v>7</v>
@@ -4646,7 +4646,7 @@
         <v>3</v>
       </c>
       <c r="E28">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -4678,7 +4678,7 @@
         <v>3</v>
       </c>
       <c r="E29">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="G29">
         <v>3</v>
@@ -4710,7 +4710,7 @@
         <v>2</v>
       </c>
       <c r="E30">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="G30">
         <v>2</v>
@@ -4742,7 +4742,7 @@
         <v>2</v>
       </c>
       <c r="E31">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="G31">
         <v>2</v>
@@ -4774,7 +4774,7 @@
         <v>7</v>
       </c>
       <c r="E32">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="G32">
         <v>7</v>
@@ -4806,7 +4806,7 @@
         <v>4</v>
       </c>
       <c r="E33">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="G33">
         <v>4</v>
@@ -4838,7 +4838,7 @@
         <v>1</v>
       </c>
       <c r="E34">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -4870,7 +4870,7 @@
         <v>1</v>
       </c>
       <c r="E35">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -4902,7 +4902,7 @@
         <v>4</v>
       </c>
       <c r="E36">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="G36">
         <v>4</v>
@@ -4934,7 +4934,7 @@
         <v>4</v>
       </c>
       <c r="E37">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="G37">
         <v>4</v>
@@ -4966,7 +4966,7 @@
         <v>4</v>
       </c>
       <c r="E38">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="G38">
         <v>4</v>
@@ -4998,7 +4998,7 @@
         <v>2</v>
       </c>
       <c r="E39">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="G39">
         <v>2</v>
@@ -5030,7 +5030,7 @@
         <v>3</v>
       </c>
       <c r="E40">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="G40">
         <v>3</v>
@@ -5062,7 +5062,7 @@
         <v>3</v>
       </c>
       <c r="E41">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="G41">
         <v>3</v>
@@ -5094,7 +5094,7 @@
         <v>4</v>
       </c>
       <c r="E42">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="G42">
         <v>4</v>
@@ -5126,7 +5126,7 @@
         <v>2</v>
       </c>
       <c r="E43">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="G43">
         <v>3</v>
@@ -5158,7 +5158,7 @@
         <v>2</v>
       </c>
       <c r="E44">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="G44">
         <v>2</v>
@@ -5190,7 +5190,7 @@
         <v>3</v>
       </c>
       <c r="E45">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -5222,7 +5222,7 @@
         <v>1</v>
       </c>
       <c r="E46">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="G46">
         <v>1</v>
@@ -5254,7 +5254,7 @@
         <v>3</v>
       </c>
       <c r="E47">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="G47">
         <v>3</v>
@@ -5286,7 +5286,7 @@
         <v>7</v>
       </c>
       <c r="E48">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="G48">
         <v>7</v>
@@ -5318,7 +5318,7 @@
         <v>5</v>
       </c>
       <c r="E49">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="G49">
         <v>5</v>
@@ -5350,7 +5350,7 @@
         <v>1</v>
       </c>
       <c r="E50">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="G50">
         <v>2</v>
@@ -5427,7 +5427,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>101</v>
+        <v>36</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -5459,7 +5459,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>101</v>
+        <v>35</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -5491,7 +5491,7 @@
         <v>3</v>
       </c>
       <c r="E4">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="G4">
         <v>3</v>
@@ -5523,7 +5523,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -5555,7 +5555,7 @@
         <v>10</v>
       </c>
       <c r="E6">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="G6">
         <v>10</v>
@@ -5587,7 +5587,7 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -5619,7 +5619,7 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -5651,7 +5651,7 @@
         <v>1</v>
       </c>
       <c r="E9">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -5683,7 +5683,7 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -5715,7 +5715,7 @@
         <v>3</v>
       </c>
       <c r="E11">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="G11">
         <v>3</v>
@@ -5747,7 +5747,7 @@
         <v>3</v>
       </c>
       <c r="E12">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -5779,7 +5779,7 @@
         <v>1</v>
       </c>
       <c r="E13">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -5811,7 +5811,7 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -5843,7 +5843,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="G15">
         <v>2</v>
@@ -5875,7 +5875,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -5907,7 +5907,7 @@
         <v>2</v>
       </c>
       <c r="E17">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="G17">
         <v>2</v>
@@ -5939,7 +5939,7 @@
         <v>1</v>
       </c>
       <c r="E18">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -5971,7 +5971,7 @@
         <v>10</v>
       </c>
       <c r="E19">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="G19">
         <v>9</v>
@@ -6003,7 +6003,7 @@
         <v>2</v>
       </c>
       <c r="E20">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -6035,7 +6035,7 @@
         <v>3</v>
       </c>
       <c r="E21">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="G21">
         <v>3</v>
@@ -6067,7 +6067,7 @@
         <v>2</v>
       </c>
       <c r="E22">
-        <v>72</v>
+        <v>7</v>
       </c>
       <c r="G22">
         <v>3</v>
@@ -6099,7 +6099,7 @@
         <v>1</v>
       </c>
       <c r="E23">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="G23">
         <v>2</v>
@@ -6131,7 +6131,7 @@
         <v>2</v>
       </c>
       <c r="E24">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="G24">
         <v>3</v>
@@ -6163,7 +6163,7 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -6195,7 +6195,7 @@
         <v>2</v>
       </c>
       <c r="E26">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -6227,7 +6227,7 @@
         <v>8</v>
       </c>
       <c r="E27">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="G27">
         <v>7</v>
@@ -6259,7 +6259,7 @@
         <v>3</v>
       </c>
       <c r="E28">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -6291,7 +6291,7 @@
         <v>3</v>
       </c>
       <c r="E29">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="G29">
         <v>3</v>
@@ -6323,7 +6323,7 @@
         <v>2</v>
       </c>
       <c r="E30">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="G30">
         <v>2</v>
@@ -6355,7 +6355,7 @@
         <v>2</v>
       </c>
       <c r="E31">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="G31">
         <v>2</v>
@@ -6387,7 +6387,7 @@
         <v>7</v>
       </c>
       <c r="E32">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="G32">
         <v>7</v>
@@ -6419,7 +6419,7 @@
         <v>4</v>
       </c>
       <c r="E33">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="G33">
         <v>4</v>
@@ -6451,7 +6451,7 @@
         <v>1</v>
       </c>
       <c r="E34">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -6483,7 +6483,7 @@
         <v>1</v>
       </c>
       <c r="E35">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -6515,7 +6515,7 @@
         <v>4</v>
       </c>
       <c r="E36">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="G36">
         <v>4</v>
@@ -6547,7 +6547,7 @@
         <v>4</v>
       </c>
       <c r="E37">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="G37">
         <v>4</v>
@@ -6579,7 +6579,7 @@
         <v>4</v>
       </c>
       <c r="E38">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="G38">
         <v>4</v>
@@ -6611,7 +6611,7 @@
         <v>2</v>
       </c>
       <c r="E39">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="G39">
         <v>2</v>
@@ -6643,7 +6643,7 @@
         <v>3</v>
       </c>
       <c r="E40">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="G40">
         <v>3</v>
@@ -6675,7 +6675,7 @@
         <v>3</v>
       </c>
       <c r="E41">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="G41">
         <v>3</v>
@@ -6707,7 +6707,7 @@
         <v>4</v>
       </c>
       <c r="E42">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="G42">
         <v>4</v>
@@ -6739,7 +6739,7 @@
         <v>2</v>
       </c>
       <c r="E43">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="G43">
         <v>3</v>
@@ -6771,7 +6771,7 @@
         <v>2</v>
       </c>
       <c r="E44">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="G44">
         <v>2</v>
@@ -6803,7 +6803,7 @@
         <v>3</v>
       </c>
       <c r="E45">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -6835,7 +6835,7 @@
         <v>1</v>
       </c>
       <c r="E46">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="G46">
         <v>1</v>
@@ -6867,7 +6867,7 @@
         <v>3</v>
       </c>
       <c r="E47">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="G47">
         <v>3</v>
@@ -6899,7 +6899,7 @@
         <v>7</v>
       </c>
       <c r="E48">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="G48">
         <v>7</v>
@@ -6931,7 +6931,7 @@
         <v>5</v>
       </c>
       <c r="E49">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="G49">
         <v>5</v>
@@ -6963,7 +6963,7 @@
         <v>1</v>
       </c>
       <c r="E50">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="G50">
         <v>2</v>
@@ -7040,7 +7040,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>101</v>
+        <v>36</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -7072,7 +7072,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>101</v>
+        <v>35</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -7104,7 +7104,7 @@
         <v>3</v>
       </c>
       <c r="E4">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="G4">
         <v>3</v>
@@ -7136,7 +7136,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -7168,7 +7168,7 @@
         <v>10</v>
       </c>
       <c r="E6">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="G6">
         <v>10</v>
@@ -7200,7 +7200,7 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -7232,7 +7232,7 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -7264,7 +7264,7 @@
         <v>1</v>
       </c>
       <c r="E9">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -7296,7 +7296,7 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -7328,7 +7328,7 @@
         <v>3</v>
       </c>
       <c r="E11">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="G11">
         <v>3</v>
@@ -7360,7 +7360,7 @@
         <v>3</v>
       </c>
       <c r="E12">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -7392,7 +7392,7 @@
         <v>1</v>
       </c>
       <c r="E13">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -7424,7 +7424,7 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -7456,7 +7456,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="G15">
         <v>2</v>
@@ -7488,7 +7488,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -7520,7 +7520,7 @@
         <v>2</v>
       </c>
       <c r="E17">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="G17">
         <v>2</v>
@@ -7552,7 +7552,7 @@
         <v>1</v>
       </c>
       <c r="E18">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -7584,7 +7584,7 @@
         <v>10</v>
       </c>
       <c r="E19">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="G19">
         <v>9</v>
@@ -7610,13 +7610,13 @@
         <v>2</v>
       </c>
       <c r="C20">
+        <v>16</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20">
         <v>30</v>
-      </c>
-      <c r="D20">
-        <v>2</v>
-      </c>
-      <c r="E20">
-        <v>72</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -7648,7 +7648,7 @@
         <v>3</v>
       </c>
       <c r="E21">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="G21">
         <v>3</v>
@@ -7674,13 +7674,13 @@
         <v>2</v>
       </c>
       <c r="C22">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="D22">
         <v>2</v>
       </c>
       <c r="E22">
-        <v>72</v>
+        <v>7</v>
       </c>
       <c r="G22">
         <v>3</v>
@@ -7712,7 +7712,7 @@
         <v>1</v>
       </c>
       <c r="E23">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="G23">
         <v>2</v>
@@ -7744,7 +7744,7 @@
         <v>2</v>
       </c>
       <c r="E24">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="G24">
         <v>3</v>
@@ -7776,7 +7776,7 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -7808,7 +7808,7 @@
         <v>2</v>
       </c>
       <c r="E26">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -7840,7 +7840,7 @@
         <v>8</v>
       </c>
       <c r="E27">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="G27">
         <v>7</v>
@@ -7872,7 +7872,7 @@
         <v>3</v>
       </c>
       <c r="E28">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -7904,7 +7904,7 @@
         <v>3</v>
       </c>
       <c r="E29">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="G29">
         <v>3</v>
@@ -7936,7 +7936,7 @@
         <v>2</v>
       </c>
       <c r="E30">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="G30">
         <v>2</v>
@@ -7968,7 +7968,7 @@
         <v>2</v>
       </c>
       <c r="E31">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="G31">
         <v>2</v>
@@ -8000,7 +8000,7 @@
         <v>7</v>
       </c>
       <c r="E32">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="G32">
         <v>7</v>
@@ -8032,7 +8032,7 @@
         <v>4</v>
       </c>
       <c r="E33">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="G33">
         <v>4</v>
@@ -8064,7 +8064,7 @@
         <v>1</v>
       </c>
       <c r="E34">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -8096,7 +8096,7 @@
         <v>1</v>
       </c>
       <c r="E35">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -8128,7 +8128,7 @@
         <v>4</v>
       </c>
       <c r="E36">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="G36">
         <v>4</v>
@@ -8160,7 +8160,7 @@
         <v>4</v>
       </c>
       <c r="E37">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="G37">
         <v>4</v>
@@ -8192,7 +8192,7 @@
         <v>4</v>
       </c>
       <c r="E38">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="G38">
         <v>4</v>
@@ -8224,7 +8224,7 @@
         <v>2</v>
       </c>
       <c r="E39">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="G39">
         <v>2</v>
@@ -8256,7 +8256,7 @@
         <v>3</v>
       </c>
       <c r="E40">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="G40">
         <v>3</v>
@@ -8288,7 +8288,7 @@
         <v>3</v>
       </c>
       <c r="E41">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="G41">
         <v>3</v>
@@ -8320,7 +8320,7 @@
         <v>4</v>
       </c>
       <c r="E42">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="G42">
         <v>4</v>
@@ -8352,7 +8352,7 @@
         <v>2</v>
       </c>
       <c r="E43">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="G43">
         <v>3</v>
@@ -8384,7 +8384,7 @@
         <v>2</v>
       </c>
       <c r="E44">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="G44">
         <v>2</v>
@@ -8416,7 +8416,7 @@
         <v>3</v>
       </c>
       <c r="E45">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -8448,7 +8448,7 @@
         <v>1</v>
       </c>
       <c r="E46">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="G46">
         <v>1</v>
@@ -8480,7 +8480,7 @@
         <v>3</v>
       </c>
       <c r="E47">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="G47">
         <v>3</v>
@@ -8512,7 +8512,7 @@
         <v>7</v>
       </c>
       <c r="E48">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="G48">
         <v>7</v>
@@ -8544,7 +8544,7 @@
         <v>5</v>
       </c>
       <c r="E49">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="G49">
         <v>5</v>
@@ -8576,7 +8576,7 @@
         <v>1</v>
       </c>
       <c r="E50">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="G50">
         <v>2</v>
@@ -8653,7 +8653,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>101</v>
+        <v>36</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -8685,7 +8685,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>101</v>
+        <v>35</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -8717,7 +8717,7 @@
         <v>3</v>
       </c>
       <c r="E4">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="G4">
         <v>3</v>
@@ -8749,7 +8749,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -8781,7 +8781,7 @@
         <v>10</v>
       </c>
       <c r="E6">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="G6">
         <v>10</v>
@@ -8813,7 +8813,7 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -8845,7 +8845,7 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -8877,7 +8877,7 @@
         <v>1</v>
       </c>
       <c r="E9">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -8909,7 +8909,7 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -8941,7 +8941,7 @@
         <v>3</v>
       </c>
       <c r="E11">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="G11">
         <v>3</v>
@@ -8973,7 +8973,7 @@
         <v>3</v>
       </c>
       <c r="E12">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -9005,7 +9005,7 @@
         <v>1</v>
       </c>
       <c r="E13">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -9037,7 +9037,7 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -9069,7 +9069,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="G15">
         <v>2</v>
@@ -9101,7 +9101,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -9133,7 +9133,7 @@
         <v>2</v>
       </c>
       <c r="E17">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="G17">
         <v>2</v>
@@ -9165,7 +9165,7 @@
         <v>1</v>
       </c>
       <c r="E18">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -9197,7 +9197,7 @@
         <v>8</v>
       </c>
       <c r="E19">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="G19">
         <v>7</v>
@@ -9229,7 +9229,7 @@
         <v>2</v>
       </c>
       <c r="E20">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -9261,7 +9261,7 @@
         <v>3</v>
       </c>
       <c r="E21">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="G21">
         <v>3</v>
@@ -9293,7 +9293,7 @@
         <v>2</v>
       </c>
       <c r="E22">
-        <v>72</v>
+        <v>7</v>
       </c>
       <c r="G22">
         <v>3</v>
@@ -9325,7 +9325,7 @@
         <v>1</v>
       </c>
       <c r="E23">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="G23">
         <v>2</v>
@@ -9357,7 +9357,7 @@
         <v>2</v>
       </c>
       <c r="E24">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="G24">
         <v>3</v>
@@ -9389,7 +9389,7 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -9421,7 +9421,7 @@
         <v>2</v>
       </c>
       <c r="E26">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -9453,7 +9453,7 @@
         <v>8</v>
       </c>
       <c r="E27">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="G27">
         <v>7</v>
@@ -9485,7 +9485,7 @@
         <v>3</v>
       </c>
       <c r="E28">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -9517,7 +9517,7 @@
         <v>3</v>
       </c>
       <c r="E29">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="G29">
         <v>3</v>
@@ -9549,7 +9549,7 @@
         <v>2</v>
       </c>
       <c r="E30">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="G30">
         <v>2</v>
@@ -9581,7 +9581,7 @@
         <v>2</v>
       </c>
       <c r="E31">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="G31">
         <v>2</v>
@@ -9613,7 +9613,7 @@
         <v>7</v>
       </c>
       <c r="E32">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="G32">
         <v>7</v>
@@ -9645,7 +9645,7 @@
         <v>4</v>
       </c>
       <c r="E33">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="G33">
         <v>4</v>
@@ -9677,7 +9677,7 @@
         <v>1</v>
       </c>
       <c r="E34">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -9709,7 +9709,7 @@
         <v>1</v>
       </c>
       <c r="E35">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -9741,7 +9741,7 @@
         <v>4</v>
       </c>
       <c r="E36">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="G36">
         <v>4</v>
@@ -9773,7 +9773,7 @@
         <v>4</v>
       </c>
       <c r="E37">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="G37">
         <v>4</v>
@@ -9805,7 +9805,7 @@
         <v>4</v>
       </c>
       <c r="E38">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="G38">
         <v>4</v>
@@ -9837,7 +9837,7 @@
         <v>2</v>
       </c>
       <c r="E39">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="G39">
         <v>2</v>
@@ -9869,7 +9869,7 @@
         <v>3</v>
       </c>
       <c r="E40">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="G40">
         <v>3</v>
@@ -9901,7 +9901,7 @@
         <v>3</v>
       </c>
       <c r="E41">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="G41">
         <v>3</v>
@@ -9933,7 +9933,7 @@
         <v>4</v>
       </c>
       <c r="E42">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="G42">
         <v>4</v>
@@ -9965,7 +9965,7 @@
         <v>2</v>
       </c>
       <c r="E43">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="G43">
         <v>3</v>
@@ -9997,7 +9997,7 @@
         <v>2</v>
       </c>
       <c r="E44">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="G44">
         <v>2</v>
@@ -10029,7 +10029,7 @@
         <v>3</v>
       </c>
       <c r="E45">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -10061,7 +10061,7 @@
         <v>1</v>
       </c>
       <c r="E46">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="G46">
         <v>1</v>
@@ -10093,7 +10093,7 @@
         <v>3</v>
       </c>
       <c r="E47">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="G47">
         <v>3</v>
@@ -10125,7 +10125,7 @@
         <v>7</v>
       </c>
       <c r="E48">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="G48">
         <v>7</v>
@@ -10157,7 +10157,7 @@
         <v>5</v>
       </c>
       <c r="E49">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="G49">
         <v>5</v>
@@ -10189,7 +10189,7 @@
         <v>1</v>
       </c>
       <c r="E50">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="G50">
         <v>2</v>
@@ -10266,7 +10266,7 @@
         <v>18</v>
       </c>
       <c r="E2">
-        <v>101</v>
+        <v>36</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -10298,7 +10298,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>101</v>
+        <v>35</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -10330,7 +10330,7 @@
         <v>3</v>
       </c>
       <c r="E4">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="G4">
         <v>3</v>
@@ -10362,7 +10362,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -10394,7 +10394,7 @@
         <v>10</v>
       </c>
       <c r="E6">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="G6">
         <v>10</v>
@@ -10426,7 +10426,7 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -10458,7 +10458,7 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -10490,7 +10490,7 @@
         <v>1</v>
       </c>
       <c r="E9">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -10522,7 +10522,7 @@
         <v>18</v>
       </c>
       <c r="E10">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -10554,7 +10554,7 @@
         <v>3</v>
       </c>
       <c r="E11">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="G11">
         <v>3</v>
@@ -10586,7 +10586,7 @@
         <v>3</v>
       </c>
       <c r="E12">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -10618,7 +10618,7 @@
         <v>1</v>
       </c>
       <c r="E13">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -10650,7 +10650,7 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -10682,7 +10682,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="G15">
         <v>2</v>
@@ -10714,7 +10714,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -10746,7 +10746,7 @@
         <v>2</v>
       </c>
       <c r="E17">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="G17">
         <v>2</v>
@@ -10778,7 +10778,7 @@
         <v>1</v>
       </c>
       <c r="E18">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -10810,7 +10810,7 @@
         <v>8</v>
       </c>
       <c r="E19">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="G19">
         <v>7</v>
@@ -10842,7 +10842,7 @@
         <v>1</v>
       </c>
       <c r="E20">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -10874,7 +10874,7 @@
         <v>3</v>
       </c>
       <c r="E21">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="G21">
         <v>3</v>
@@ -10906,7 +10906,7 @@
         <v>2</v>
       </c>
       <c r="E22">
-        <v>72</v>
+        <v>7</v>
       </c>
       <c r="G22">
         <v>3</v>
@@ -10938,7 +10938,7 @@
         <v>1</v>
       </c>
       <c r="E23">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="G23">
         <v>2</v>
@@ -10970,7 +10970,7 @@
         <v>2</v>
       </c>
       <c r="E24">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="G24">
         <v>3</v>
@@ -11002,7 +11002,7 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -11034,7 +11034,7 @@
         <v>2</v>
       </c>
       <c r="E26">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -11066,7 +11066,7 @@
         <v>7</v>
       </c>
       <c r="E27">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="G27">
         <v>7</v>
@@ -11098,7 +11098,7 @@
         <v>3</v>
       </c>
       <c r="E28">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -11130,7 +11130,7 @@
         <v>3</v>
       </c>
       <c r="E29">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="G29">
         <v>3</v>
@@ -11162,7 +11162,7 @@
         <v>2</v>
       </c>
       <c r="E30">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="G30">
         <v>2</v>
@@ -11194,7 +11194,7 @@
         <v>2</v>
       </c>
       <c r="E31">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="G31">
         <v>2</v>
@@ -11226,7 +11226,7 @@
         <v>7</v>
       </c>
       <c r="E32">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="G32">
         <v>7</v>
@@ -11258,7 +11258,7 @@
         <v>4</v>
       </c>
       <c r="E33">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="G33">
         <v>4</v>
@@ -11290,7 +11290,7 @@
         <v>1</v>
       </c>
       <c r="E34">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -11322,7 +11322,7 @@
         <v>2</v>
       </c>
       <c r="E35">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -11354,7 +11354,7 @@
         <v>4</v>
       </c>
       <c r="E36">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="G36">
         <v>4</v>
@@ -11386,7 +11386,7 @@
         <v>4</v>
       </c>
       <c r="E37">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="G37">
         <v>4</v>
@@ -11418,7 +11418,7 @@
         <v>4</v>
       </c>
       <c r="E38">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="G38">
         <v>4</v>
@@ -11450,7 +11450,7 @@
         <v>2</v>
       </c>
       <c r="E39">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="G39">
         <v>2</v>
@@ -11482,7 +11482,7 @@
         <v>3</v>
       </c>
       <c r="E40">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="G40">
         <v>3</v>
@@ -11514,7 +11514,7 @@
         <v>3</v>
       </c>
       <c r="E41">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="G41">
         <v>3</v>
@@ -11546,7 +11546,7 @@
         <v>4</v>
       </c>
       <c r="E42">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="G42">
         <v>4</v>
@@ -11578,7 +11578,7 @@
         <v>2</v>
       </c>
       <c r="E43">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="G43">
         <v>3</v>
@@ -11610,7 +11610,7 @@
         <v>2</v>
       </c>
       <c r="E44">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="G44">
         <v>2</v>
@@ -11642,7 +11642,7 @@
         <v>3</v>
       </c>
       <c r="E45">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -11674,7 +11674,7 @@
         <v>1</v>
       </c>
       <c r="E46">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="G46">
         <v>1</v>
@@ -11706,7 +11706,7 @@
         <v>3</v>
       </c>
       <c r="E47">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="G47">
         <v>3</v>
@@ -11738,7 +11738,7 @@
         <v>7</v>
       </c>
       <c r="E48">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="G48">
         <v>7</v>
@@ -11770,7 +11770,7 @@
         <v>5</v>
       </c>
       <c r="E49">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="G49">
         <v>5</v>
@@ -11802,7 +11802,7 @@
         <v>1</v>
       </c>
       <c r="E50">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="G50">
         <v>2</v>
@@ -11879,7 +11879,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>101</v>
+        <v>36</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -11911,7 +11911,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>101</v>
+        <v>35</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -11943,7 +11943,7 @@
         <v>3</v>
       </c>
       <c r="E4">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="G4">
         <v>3</v>
@@ -11975,7 +11975,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -12007,7 +12007,7 @@
         <v>10</v>
       </c>
       <c r="E6">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="G6">
         <v>10</v>
@@ -12039,7 +12039,7 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -12071,7 +12071,7 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -12103,7 +12103,7 @@
         <v>1</v>
       </c>
       <c r="E9">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -12135,7 +12135,7 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -12167,7 +12167,7 @@
         <v>3</v>
       </c>
       <c r="E11">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="G11">
         <v>3</v>
@@ -12199,7 +12199,7 @@
         <v>3</v>
       </c>
       <c r="E12">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -12231,7 +12231,7 @@
         <v>1</v>
       </c>
       <c r="E13">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -12263,7 +12263,7 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -12295,7 +12295,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="G15">
         <v>2</v>
@@ -12327,7 +12327,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -12359,7 +12359,7 @@
         <v>2</v>
       </c>
       <c r="E17">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="G17">
         <v>2</v>
@@ -12391,7 +12391,7 @@
         <v>1</v>
       </c>
       <c r="E18">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -12423,7 +12423,7 @@
         <v>8</v>
       </c>
       <c r="E19">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="G19">
         <v>7</v>
@@ -12455,7 +12455,7 @@
         <v>2</v>
       </c>
       <c r="E20">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -12487,7 +12487,7 @@
         <v>3</v>
       </c>
       <c r="E21">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="G21">
         <v>3</v>
@@ -12519,7 +12519,7 @@
         <v>2</v>
       </c>
       <c r="E22">
-        <v>72</v>
+        <v>7</v>
       </c>
       <c r="G22">
         <v>3</v>
@@ -12551,7 +12551,7 @@
         <v>1</v>
       </c>
       <c r="E23">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="G23">
         <v>2</v>
@@ -12583,7 +12583,7 @@
         <v>2</v>
       </c>
       <c r="E24">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="G24">
         <v>3</v>
@@ -12615,7 +12615,7 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -12647,7 +12647,7 @@
         <v>2</v>
       </c>
       <c r="E26">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -12679,7 +12679,7 @@
         <v>8</v>
       </c>
       <c r="E27">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="G27">
         <v>7</v>
@@ -12711,7 +12711,7 @@
         <v>3</v>
       </c>
       <c r="E28">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -12743,7 +12743,7 @@
         <v>3</v>
       </c>
       <c r="E29">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="G29">
         <v>3</v>
@@ -12775,7 +12775,7 @@
         <v>2</v>
       </c>
       <c r="E30">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="G30">
         <v>2</v>
@@ -12807,7 +12807,7 @@
         <v>2</v>
       </c>
       <c r="E31">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="G31">
         <v>2</v>
@@ -12839,7 +12839,7 @@
         <v>7</v>
       </c>
       <c r="E32">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="G32">
         <v>7</v>
@@ -12871,7 +12871,7 @@
         <v>4</v>
       </c>
       <c r="E33">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="G33">
         <v>4</v>
@@ -12903,7 +12903,7 @@
         <v>1</v>
       </c>
       <c r="E34">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -12935,7 +12935,7 @@
         <v>1</v>
       </c>
       <c r="E35">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -12967,7 +12967,7 @@
         <v>4</v>
       </c>
       <c r="E36">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="G36">
         <v>4</v>
@@ -12999,7 +12999,7 @@
         <v>4</v>
       </c>
       <c r="E37">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="G37">
         <v>4</v>
@@ -13031,7 +13031,7 @@
         <v>4</v>
       </c>
       <c r="E38">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="G38">
         <v>4</v>
@@ -13063,7 +13063,7 @@
         <v>2</v>
       </c>
       <c r="E39">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="G39">
         <v>2</v>
@@ -13095,7 +13095,7 @@
         <v>3</v>
       </c>
       <c r="E40">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="G40">
         <v>3</v>
@@ -13127,7 +13127,7 @@
         <v>3</v>
       </c>
       <c r="E41">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="G41">
         <v>3</v>
@@ -13159,7 +13159,7 @@
         <v>4</v>
       </c>
       <c r="E42">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="G42">
         <v>4</v>
@@ -13191,7 +13191,7 @@
         <v>2</v>
       </c>
       <c r="E43">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="G43">
         <v>3</v>
@@ -13223,7 +13223,7 @@
         <v>2</v>
       </c>
       <c r="E44">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="G44">
         <v>2</v>
@@ -13255,7 +13255,7 @@
         <v>3</v>
       </c>
       <c r="E45">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -13287,7 +13287,7 @@
         <v>1</v>
       </c>
       <c r="E46">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="G46">
         <v>1</v>
@@ -13319,7 +13319,7 @@
         <v>3</v>
       </c>
       <c r="E47">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="G47">
         <v>3</v>
@@ -13351,7 +13351,7 @@
         <v>7</v>
       </c>
       <c r="E48">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="G48">
         <v>7</v>
@@ -13383,7 +13383,7 @@
         <v>5</v>
       </c>
       <c r="E49">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="G49">
         <v>5</v>
@@ -13415,7 +13415,7 @@
         <v>1</v>
       </c>
       <c r="E50">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="G50">
         <v>2</v>
@@ -13492,7 +13492,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>101</v>
+        <v>36</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -13524,7 +13524,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>101</v>
+        <v>35</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -13556,7 +13556,7 @@
         <v>3</v>
       </c>
       <c r="E4">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="G4">
         <v>3</v>
@@ -13588,7 +13588,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -13620,7 +13620,7 @@
         <v>10</v>
       </c>
       <c r="E6">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="G6">
         <v>10</v>
@@ -13652,7 +13652,7 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -13684,7 +13684,7 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -13716,7 +13716,7 @@
         <v>1</v>
       </c>
       <c r="E9">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -13748,7 +13748,7 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -13780,7 +13780,7 @@
         <v>3</v>
       </c>
       <c r="E11">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="G11">
         <v>3</v>
@@ -13812,7 +13812,7 @@
         <v>3</v>
       </c>
       <c r="E12">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -13844,7 +13844,7 @@
         <v>1</v>
       </c>
       <c r="E13">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -13876,7 +13876,7 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -13908,7 +13908,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="G15">
         <v>2</v>
@@ -13940,7 +13940,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -13972,7 +13972,7 @@
         <v>2</v>
       </c>
       <c r="E17">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="G17">
         <v>2</v>
@@ -14004,7 +14004,7 @@
         <v>1</v>
       </c>
       <c r="E18">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -14036,7 +14036,7 @@
         <v>8</v>
       </c>
       <c r="E19">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="G19">
         <v>7</v>
@@ -14068,7 +14068,7 @@
         <v>1</v>
       </c>
       <c r="E20">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -14100,7 +14100,7 @@
         <v>3</v>
       </c>
       <c r="E21">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="G21">
         <v>3</v>
@@ -14132,7 +14132,7 @@
         <v>2</v>
       </c>
       <c r="E22">
-        <v>72</v>
+        <v>7</v>
       </c>
       <c r="G22">
         <v>3</v>
@@ -14164,7 +14164,7 @@
         <v>1</v>
       </c>
       <c r="E23">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="G23">
         <v>2</v>
@@ -14196,7 +14196,7 @@
         <v>2</v>
       </c>
       <c r="E24">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="G24">
         <v>3</v>
@@ -14228,7 +14228,7 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -14260,7 +14260,7 @@
         <v>2</v>
       </c>
       <c r="E26">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -14292,7 +14292,7 @@
         <v>7</v>
       </c>
       <c r="E27">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="G27">
         <v>7</v>
@@ -14324,7 +14324,7 @@
         <v>3</v>
       </c>
       <c r="E28">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -14356,7 +14356,7 @@
         <v>3</v>
       </c>
       <c r="E29">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="G29">
         <v>3</v>
@@ -14388,7 +14388,7 @@
         <v>2</v>
       </c>
       <c r="E30">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="G30">
         <v>2</v>
@@ -14420,7 +14420,7 @@
         <v>2</v>
       </c>
       <c r="E31">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="G31">
         <v>2</v>
@@ -14452,7 +14452,7 @@
         <v>7</v>
       </c>
       <c r="E32">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="G32">
         <v>7</v>
@@ -14484,7 +14484,7 @@
         <v>4</v>
       </c>
       <c r="E33">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="G33">
         <v>4</v>
@@ -14516,7 +14516,7 @@
         <v>1</v>
       </c>
       <c r="E34">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -14548,7 +14548,7 @@
         <v>1</v>
       </c>
       <c r="E35">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -14580,7 +14580,7 @@
         <v>4</v>
       </c>
       <c r="E36">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="G36">
         <v>4</v>
@@ -14612,7 +14612,7 @@
         <v>4</v>
       </c>
       <c r="E37">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="G37">
         <v>4</v>
@@ -14644,7 +14644,7 @@
         <v>4</v>
       </c>
       <c r="E38">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="G38">
         <v>4</v>
@@ -14676,7 +14676,7 @@
         <v>2</v>
       </c>
       <c r="E39">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="G39">
         <v>2</v>
@@ -14708,7 +14708,7 @@
         <v>3</v>
       </c>
       <c r="E40">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="G40">
         <v>3</v>
@@ -14740,7 +14740,7 @@
         <v>3</v>
       </c>
       <c r="E41">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="G41">
         <v>3</v>
@@ -14772,7 +14772,7 @@
         <v>4</v>
       </c>
       <c r="E42">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="G42">
         <v>4</v>
@@ -14804,7 +14804,7 @@
         <v>2</v>
       </c>
       <c r="E43">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="G43">
         <v>3</v>
@@ -14836,7 +14836,7 @@
         <v>2</v>
       </c>
       <c r="E44">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="G44">
         <v>2</v>
@@ -14868,7 +14868,7 @@
         <v>3</v>
       </c>
       <c r="E45">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -14900,7 +14900,7 @@
         <v>1</v>
       </c>
       <c r="E46">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="G46">
         <v>1</v>
@@ -14932,7 +14932,7 @@
         <v>3</v>
       </c>
       <c r="E47">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="G47">
         <v>3</v>
@@ -14964,7 +14964,7 @@
         <v>7</v>
       </c>
       <c r="E48">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="G48">
         <v>7</v>
@@ -14996,7 +14996,7 @@
         <v>5</v>
       </c>
       <c r="E49">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="G49">
         <v>5</v>
@@ -15028,7 +15028,7 @@
         <v>1</v>
       </c>
       <c r="E50">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="G50">
         <v>2</v>
@@ -15105,7 +15105,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>101</v>
+        <v>36</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -15137,7 +15137,7 @@
         <v>4</v>
       </c>
       <c r="E3">
-        <v>101</v>
+        <v>35</v>
       </c>
       <c r="G3">
         <v>7</v>
@@ -15169,7 +15169,7 @@
         <v>3</v>
       </c>
       <c r="E4">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="G4">
         <v>3</v>
@@ -15201,7 +15201,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -15233,7 +15233,7 @@
         <v>10</v>
       </c>
       <c r="E6">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="G6">
         <v>10</v>
@@ -15265,7 +15265,7 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -15297,7 +15297,7 @@
         <v>9</v>
       </c>
       <c r="E8">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="G8">
         <v>10</v>
@@ -15329,7 +15329,7 @@
         <v>15</v>
       </c>
       <c r="E9">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="G9">
         <v>16</v>
@@ -15361,7 +15361,7 @@
         <v>7</v>
       </c>
       <c r="E10">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="G10">
         <v>14</v>
@@ -15393,7 +15393,7 @@
         <v>3</v>
       </c>
       <c r="E11">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="G11">
         <v>3</v>
@@ -15425,7 +15425,7 @@
         <v>3</v>
       </c>
       <c r="E12">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -15457,7 +15457,7 @@
         <v>2</v>
       </c>
       <c r="E13">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="G13">
         <v>2</v>
@@ -15489,7 +15489,7 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -15521,7 +15521,7 @@
         <v>10</v>
       </c>
       <c r="E15">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="G15">
         <v>11</v>
@@ -15553,7 +15553,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -15585,7 +15585,7 @@
         <v>2</v>
       </c>
       <c r="E17">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="G17">
         <v>2</v>
@@ -15617,7 +15617,7 @@
         <v>1</v>
       </c>
       <c r="E18">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -15649,7 +15649,7 @@
         <v>10</v>
       </c>
       <c r="E19">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="G19">
         <v>9</v>
@@ -15681,7 +15681,7 @@
         <v>2</v>
       </c>
       <c r="E20">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="G20">
         <v>3</v>
@@ -15713,7 +15713,7 @@
         <v>6</v>
       </c>
       <c r="E21">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="G21">
         <v>6</v>
@@ -15745,7 +15745,7 @@
         <v>2</v>
       </c>
       <c r="E22">
-        <v>72</v>
+        <v>7</v>
       </c>
       <c r="G22">
         <v>3</v>
@@ -15777,7 +15777,7 @@
         <v>11</v>
       </c>
       <c r="E23">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="G23">
         <v>12</v>
@@ -15809,7 +15809,7 @@
         <v>2</v>
       </c>
       <c r="E24">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="G24">
         <v>3</v>
@@ -15841,7 +15841,7 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -15873,7 +15873,7 @@
         <v>2</v>
       </c>
       <c r="E26">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -15905,7 +15905,7 @@
         <v>8</v>
       </c>
       <c r="E27">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="G27">
         <v>7</v>
@@ -15937,7 +15937,7 @@
         <v>13</v>
       </c>
       <c r="E28">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="G28">
         <v>13</v>
@@ -15969,7 +15969,7 @@
         <v>3</v>
       </c>
       <c r="E29">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="G29">
         <v>3</v>
@@ -16001,7 +16001,7 @@
         <v>2</v>
       </c>
       <c r="E30">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="G30">
         <v>2</v>
@@ -16033,7 +16033,7 @@
         <v>2</v>
       </c>
       <c r="E31">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="G31">
         <v>2</v>
@@ -16065,7 +16065,7 @@
         <v>7</v>
       </c>
       <c r="E32">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="G32">
         <v>7</v>
@@ -16097,7 +16097,7 @@
         <v>7</v>
       </c>
       <c r="E33">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="G33">
         <v>7</v>
@@ -16129,7 +16129,7 @@
         <v>2</v>
       </c>
       <c r="E34">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="G34">
         <v>2</v>
@@ -16161,7 +16161,7 @@
         <v>4</v>
       </c>
       <c r="E35">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="G35">
         <v>4</v>
@@ -16193,7 +16193,7 @@
         <v>7</v>
       </c>
       <c r="E36">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="G36">
         <v>7</v>
@@ -16225,7 +16225,7 @@
         <v>8</v>
       </c>
       <c r="E37">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="G37">
         <v>8</v>
@@ -16257,7 +16257,7 @@
         <v>4</v>
       </c>
       <c r="E38">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="G38">
         <v>4</v>
@@ -16289,7 +16289,7 @@
         <v>3</v>
       </c>
       <c r="E39">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="G39">
         <v>3</v>
@@ -16321,7 +16321,7 @@
         <v>6</v>
       </c>
       <c r="E40">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="G40">
         <v>6</v>
@@ -16353,7 +16353,7 @@
         <v>6</v>
       </c>
       <c r="E41">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="G41">
         <v>6</v>
@@ -16385,7 +16385,7 @@
         <v>6</v>
       </c>
       <c r="E42">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="G42">
         <v>6</v>
@@ -16417,7 +16417,7 @@
         <v>2</v>
       </c>
       <c r="E43">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="G43">
         <v>3</v>
@@ -16449,7 +16449,7 @@
         <v>4</v>
       </c>
       <c r="E44">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="G44">
         <v>4</v>
@@ -16481,7 +16481,7 @@
         <v>13</v>
       </c>
       <c r="E45">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="G45">
         <v>13</v>
@@ -16513,7 +16513,7 @@
         <v>1</v>
       </c>
       <c r="E46">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="G46">
         <v>1</v>
@@ -16545,7 +16545,7 @@
         <v>5</v>
       </c>
       <c r="E47">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="G47">
         <v>5</v>
@@ -16577,7 +16577,7 @@
         <v>7</v>
       </c>
       <c r="E48">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="G48">
         <v>7</v>
@@ -16609,7 +16609,7 @@
         <v>5</v>
       </c>
       <c r="E49">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="G49">
         <v>5</v>
@@ -16641,7 +16641,7 @@
         <v>1</v>
       </c>
       <c r="E50">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="G50">
         <v>2</v>
@@ -16718,7 +16718,7 @@
         <v>18</v>
       </c>
       <c r="E2">
-        <v>101</v>
+        <v>36</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -16750,7 +16750,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>101</v>
+        <v>35</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -16782,7 +16782,7 @@
         <v>8</v>
       </c>
       <c r="E4">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="G4">
         <v>3</v>
@@ -16814,7 +16814,7 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -16846,7 +16846,7 @@
         <v>16</v>
       </c>
       <c r="E6">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="G6">
         <v>10</v>
@@ -16878,7 +16878,7 @@
         <v>8</v>
       </c>
       <c r="E7">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -16910,7 +16910,7 @@
         <v>2</v>
       </c>
       <c r="E8">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -16942,7 +16942,7 @@
         <v>2</v>
       </c>
       <c r="E9">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -16974,7 +16974,7 @@
         <v>7</v>
       </c>
       <c r="E10">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -17006,7 +17006,7 @@
         <v>4</v>
       </c>
       <c r="E11">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="G11">
         <v>3</v>
@@ -17038,7 +17038,7 @@
         <v>4</v>
       </c>
       <c r="E12">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -17070,7 +17070,7 @@
         <v>9</v>
       </c>
       <c r="E13">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -17102,7 +17102,7 @@
         <v>8</v>
       </c>
       <c r="E14">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -17134,7 +17134,7 @@
         <v>2</v>
       </c>
       <c r="E15">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="G15">
         <v>2</v>
@@ -17166,7 +17166,7 @@
         <v>16</v>
       </c>
       <c r="E16">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -17198,7 +17198,7 @@
         <v>8</v>
       </c>
       <c r="E17">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="G17">
         <v>2</v>
@@ -17230,7 +17230,7 @@
         <v>1</v>
       </c>
       <c r="E18">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -17262,7 +17262,7 @@
         <v>8</v>
       </c>
       <c r="E19">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="G19">
         <v>7</v>
@@ -17294,7 +17294,7 @@
         <v>1</v>
       </c>
       <c r="E20">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -17326,7 +17326,7 @@
         <v>5</v>
       </c>
       <c r="E21">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="G21">
         <v>3</v>
@@ -17358,7 +17358,7 @@
         <v>2</v>
       </c>
       <c r="E22">
-        <v>72</v>
+        <v>7</v>
       </c>
       <c r="G22">
         <v>3</v>
@@ -17390,7 +17390,7 @@
         <v>2</v>
       </c>
       <c r="E23">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="G23">
         <v>2</v>
@@ -17422,7 +17422,7 @@
         <v>2</v>
       </c>
       <c r="E24">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="G24">
         <v>3</v>
@@ -17454,7 +17454,7 @@
         <v>2</v>
       </c>
       <c r="E25">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -17486,7 +17486,7 @@
         <v>2</v>
       </c>
       <c r="E26">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -17518,7 +17518,7 @@
         <v>8</v>
       </c>
       <c r="E27">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="G27">
         <v>7</v>
@@ -17550,7 +17550,7 @@
         <v>8</v>
       </c>
       <c r="E28">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -17582,7 +17582,7 @@
         <v>16</v>
       </c>
       <c r="E29">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="G29">
         <v>3</v>
@@ -17614,7 +17614,7 @@
         <v>7</v>
       </c>
       <c r="E30">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="G30">
         <v>2</v>
@@ -17646,7 +17646,7 @@
         <v>16</v>
       </c>
       <c r="E31">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="G31">
         <v>2</v>
@@ -17678,7 +17678,7 @@
         <v>8</v>
       </c>
       <c r="E32">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="G32">
         <v>7</v>
@@ -17710,7 +17710,7 @@
         <v>5</v>
       </c>
       <c r="E33">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="G33">
         <v>4</v>
@@ -17742,7 +17742,7 @@
         <v>8</v>
       </c>
       <c r="E34">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -17774,7 +17774,7 @@
         <v>9</v>
       </c>
       <c r="E35">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -17806,7 +17806,7 @@
         <v>5</v>
       </c>
       <c r="E36">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="G36">
         <v>4</v>
@@ -17838,7 +17838,7 @@
         <v>5</v>
       </c>
       <c r="E37">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="G37">
         <v>4</v>
@@ -17870,7 +17870,7 @@
         <v>8</v>
       </c>
       <c r="E38">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="G38">
         <v>4</v>
@@ -17902,7 +17902,7 @@
         <v>8</v>
       </c>
       <c r="E39">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="G39">
         <v>2</v>
@@ -17934,7 +17934,7 @@
         <v>5</v>
       </c>
       <c r="E40">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="G40">
         <v>3</v>
@@ -17966,7 +17966,7 @@
         <v>4</v>
       </c>
       <c r="E41">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="G41">
         <v>3</v>
@@ -17998,7 +17998,7 @@
         <v>5</v>
       </c>
       <c r="E42">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="G42">
         <v>4</v>
@@ -18030,7 +18030,7 @@
         <v>2</v>
       </c>
       <c r="E43">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="G43">
         <v>3</v>
@@ -18062,7 +18062,7 @@
         <v>7</v>
       </c>
       <c r="E44">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="G44">
         <v>2</v>
@@ -18094,7 +18094,7 @@
         <v>10</v>
       </c>
       <c r="E45">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -18126,7 +18126,7 @@
         <v>2</v>
       </c>
       <c r="E46">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="G46">
         <v>1</v>
@@ -18158,7 +18158,7 @@
         <v>4</v>
       </c>
       <c r="E47">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="G47">
         <v>3</v>
@@ -18190,7 +18190,7 @@
         <v>8</v>
       </c>
       <c r="E48">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="G48">
         <v>7</v>
@@ -18222,7 +18222,7 @@
         <v>24</v>
       </c>
       <c r="E49">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="G49">
         <v>5</v>
@@ -18254,7 +18254,7 @@
         <v>1</v>
       </c>
       <c r="E50">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="G50">
         <v>2</v>
@@ -18331,7 +18331,7 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>101</v>
+        <v>36</v>
       </c>
       <c r="G2">
         <v>15</v>
@@ -18363,7 +18363,7 @@
         <v>4</v>
       </c>
       <c r="E3">
-        <v>101</v>
+        <v>35</v>
       </c>
       <c r="G3">
         <v>8</v>
@@ -18395,7 +18395,7 @@
         <v>8</v>
       </c>
       <c r="E4">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="G4">
         <v>25</v>
@@ -18427,7 +18427,7 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="G5">
         <v>63</v>
@@ -18459,7 +18459,7 @@
         <v>16</v>
       </c>
       <c r="E6">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="G6">
         <v>40</v>
@@ -18491,7 +18491,7 @@
         <v>8</v>
       </c>
       <c r="E7">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="G7">
         <v>24</v>
@@ -18523,7 +18523,7 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="G8">
         <v>10</v>
@@ -18555,7 +18555,7 @@
         <v>1</v>
       </c>
       <c r="E9">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="G9">
         <v>10</v>
@@ -18587,7 +18587,7 @@
         <v>19</v>
       </c>
       <c r="E10">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="G10">
         <v>11</v>
@@ -18619,7 +18619,7 @@
         <v>4</v>
       </c>
       <c r="E11">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="G11">
         <v>14</v>
@@ -18651,7 +18651,7 @@
         <v>4</v>
       </c>
       <c r="E12">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="G12">
         <v>14</v>
@@ -18683,7 +18683,7 @@
         <v>8</v>
       </c>
       <c r="E13">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="G13">
         <v>25</v>
@@ -18715,7 +18715,7 @@
         <v>8</v>
       </c>
       <c r="E14">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="G14">
         <v>31</v>
@@ -18747,7 +18747,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="G15">
         <v>10</v>
@@ -18779,7 +18779,7 @@
         <v>16</v>
       </c>
       <c r="E16">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="G16">
         <v>40</v>
@@ -18811,7 +18811,7 @@
         <v>8</v>
       </c>
       <c r="E17">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="G17">
         <v>24</v>
@@ -18843,7 +18843,7 @@
         <v>1</v>
       </c>
       <c r="E18">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="G18">
         <v>17</v>
@@ -18875,7 +18875,7 @@
         <v>8</v>
       </c>
       <c r="E19">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="G19">
         <v>25</v>
@@ -18907,7 +18907,7 @@
         <v>1</v>
       </c>
       <c r="E20">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="G20">
         <v>16</v>
@@ -18939,7 +18939,7 @@
         <v>4</v>
       </c>
       <c r="E21">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="G21">
         <v>14</v>
@@ -18971,7 +18971,7 @@
         <v>2</v>
       </c>
       <c r="E22">
-        <v>72</v>
+        <v>7</v>
       </c>
       <c r="G22">
         <v>10</v>
@@ -19003,7 +19003,7 @@
         <v>1</v>
       </c>
       <c r="E23">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="G23">
         <v>10</v>
@@ -19035,7 +19035,7 @@
         <v>2</v>
       </c>
       <c r="E24">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="G24">
         <v>10</v>
@@ -19067,7 +19067,7 @@
         <v>2</v>
       </c>
       <c r="E25">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="G25">
         <v>15</v>
@@ -19099,7 +19099,7 @@
         <v>2</v>
       </c>
       <c r="E26">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="G26">
         <v>14</v>
@@ -19131,7 +19131,7 @@
         <v>8</v>
       </c>
       <c r="E27">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="G27">
         <v>31</v>
@@ -19163,7 +19163,7 @@
         <v>4</v>
       </c>
       <c r="E28">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="G28">
         <v>14</v>
@@ -19195,7 +19195,7 @@
         <v>16</v>
       </c>
       <c r="E29">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="G29">
         <v>39</v>
@@ -19227,7 +19227,7 @@
         <v>7</v>
       </c>
       <c r="E30">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="G30">
         <v>31</v>
@@ -19259,7 +19259,7 @@
         <v>16</v>
       </c>
       <c r="E31">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="G31">
         <v>55</v>
@@ -19291,7 +19291,7 @@
         <v>8</v>
       </c>
       <c r="E32">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="G32">
         <v>25</v>
@@ -19323,7 +19323,7 @@
         <v>5</v>
       </c>
       <c r="E33">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="G33">
         <v>15</v>
@@ -19355,7 +19355,7 @@
         <v>8</v>
       </c>
       <c r="E34">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="G34">
         <v>25</v>
@@ -19387,7 +19387,7 @@
         <v>29</v>
       </c>
       <c r="E35">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="G35">
         <v>16</v>
@@ -19419,7 +19419,7 @@
         <v>5</v>
       </c>
       <c r="E36">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="G36">
         <v>15</v>
@@ -19451,7 +19451,7 @@
         <v>5</v>
       </c>
       <c r="E37">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="G37">
         <v>22</v>
@@ -19483,7 +19483,7 @@
         <v>8</v>
       </c>
       <c r="E38">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="G38">
         <v>47</v>
@@ -19515,7 +19515,7 @@
         <v>8</v>
       </c>
       <c r="E39">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="G39">
         <v>25</v>
@@ -19547,7 +19547,7 @@
         <v>4</v>
       </c>
       <c r="E40">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="G40">
         <v>14</v>
@@ -19579,7 +19579,7 @@
         <v>4</v>
       </c>
       <c r="E41">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="G41">
         <v>14</v>
@@ -19611,7 +19611,7 @@
         <v>5</v>
       </c>
       <c r="E42">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="G42">
         <v>15</v>
@@ -19643,7 +19643,7 @@
         <v>2</v>
       </c>
       <c r="E43">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="G43">
         <v>14</v>
@@ -19675,7 +19675,7 @@
         <v>7</v>
       </c>
       <c r="E44">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="G44">
         <v>23</v>
@@ -19707,7 +19707,7 @@
         <v>4</v>
       </c>
       <c r="E45">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="G45">
         <v>18</v>
@@ -19739,7 +19739,7 @@
         <v>2</v>
       </c>
       <c r="E46">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="G46">
         <v>16</v>
@@ -19771,7 +19771,7 @@
         <v>4</v>
       </c>
       <c r="E47">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="G47">
         <v>18</v>
@@ -19803,7 +19803,7 @@
         <v>8</v>
       </c>
       <c r="E48">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="G48">
         <v>31</v>
@@ -19835,7 +19835,7 @@
         <v>24</v>
       </c>
       <c r="E49">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="G49">
         <v>63</v>
@@ -19867,7 +19867,7 @@
         <v>1</v>
       </c>
       <c r="E50">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="G50">
         <v>16</v>
@@ -19935,16 +19935,16 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>101</v>
+        <v>36</v>
       </c>
       <c r="G2">
         <v>113</v>
@@ -19976,7 +19976,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>101</v>
+        <v>35</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -19999,16 +19999,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="D4">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="E4">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="G4">
         <v>98</v>
@@ -20040,7 +20040,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -20063,16 +20063,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C6">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D6">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E6">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="G6">
         <v>25</v>
@@ -20104,7 +20104,7 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -20136,7 +20136,7 @@
         <v>2</v>
       </c>
       <c r="E8">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="G8">
         <v>3</v>
@@ -20168,7 +20168,7 @@
         <v>1</v>
       </c>
       <c r="E9">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -20191,16 +20191,16 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="C10">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="D10">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="E10">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="G10">
         <v>210</v>
@@ -20232,7 +20232,7 @@
         <v>3</v>
       </c>
       <c r="E11">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="G11">
         <v>3</v>
@@ -20264,7 +20264,7 @@
         <v>3</v>
       </c>
       <c r="E12">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -20296,7 +20296,7 @@
         <v>1</v>
       </c>
       <c r="E13">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -20328,7 +20328,7 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -20360,7 +20360,7 @@
         <v>2</v>
       </c>
       <c r="E15">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="G15">
         <v>3</v>
@@ -20392,7 +20392,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -20424,7 +20424,7 @@
         <v>2</v>
       </c>
       <c r="E17">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="G17">
         <v>2</v>
@@ -20447,16 +20447,16 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D18">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E18">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="G18">
         <v>20</v>
@@ -20479,16 +20479,16 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="C19">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D19">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="E19">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="G19">
         <v>57</v>
@@ -20511,16 +20511,16 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="C20">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="D20">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="E20">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="G20">
         <v>133</v>
@@ -20552,7 +20552,7 @@
         <v>3</v>
       </c>
       <c r="E21">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="G21">
         <v>3</v>
@@ -20575,16 +20575,16 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="C22">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="D22">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="E22">
-        <v>72</v>
+        <v>7</v>
       </c>
       <c r="G22">
         <v>145</v>
@@ -20616,7 +20616,7 @@
         <v>1</v>
       </c>
       <c r="E23">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="G23">
         <v>2</v>
@@ -20639,16 +20639,16 @@
         <v>32</v>
       </c>
       <c r="B24">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C24">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D24">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E24">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="G24">
         <v>24</v>
@@ -20680,7 +20680,7 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -20712,7 +20712,7 @@
         <v>2</v>
       </c>
       <c r="E26">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -20735,16 +20735,16 @@
         <v>35</v>
       </c>
       <c r="B27">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="C27">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D27">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E27">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="G27">
         <v>39</v>
@@ -20776,7 +20776,7 @@
         <v>3</v>
       </c>
       <c r="E28">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -20808,7 +20808,7 @@
         <v>3</v>
       </c>
       <c r="E29">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="G29">
         <v>3</v>
@@ -20831,16 +20831,16 @@
         <v>38</v>
       </c>
       <c r="B30">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C30">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D30">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E30">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="G30">
         <v>20</v>
@@ -20863,16 +20863,16 @@
         <v>39</v>
       </c>
       <c r="B31">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C31">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D31">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E31">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="G31">
         <v>17</v>
@@ -20895,16 +20895,16 @@
         <v>40</v>
       </c>
       <c r="B32">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="C32">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D32">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="E32">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="G32">
         <v>66</v>
@@ -20936,7 +20936,7 @@
         <v>4</v>
       </c>
       <c r="E33">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="G33">
         <v>4</v>
@@ -20968,7 +20968,7 @@
         <v>1</v>
       </c>
       <c r="E34">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -21000,7 +21000,7 @@
         <v>1</v>
       </c>
       <c r="E35">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -21032,7 +21032,7 @@
         <v>4</v>
       </c>
       <c r="E36">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="G36">
         <v>4</v>
@@ -21064,7 +21064,7 @@
         <v>8</v>
       </c>
       <c r="E37">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="G37">
         <v>10</v>
@@ -21087,16 +21087,16 @@
         <v>46</v>
       </c>
       <c r="B38">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="C38">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D38">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E38">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="G38">
         <v>25</v>
@@ -21128,7 +21128,7 @@
         <v>2</v>
       </c>
       <c r="E39">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="G39">
         <v>2</v>
@@ -21160,7 +21160,7 @@
         <v>3</v>
       </c>
       <c r="E40">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="G40">
         <v>3</v>
@@ -21192,7 +21192,7 @@
         <v>3</v>
       </c>
       <c r="E41">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="G41">
         <v>3</v>
@@ -21224,7 +21224,7 @@
         <v>4</v>
       </c>
       <c r="E42">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="G42">
         <v>4</v>
@@ -21256,7 +21256,7 @@
         <v>2</v>
       </c>
       <c r="E43">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="G43">
         <v>3</v>
@@ -21279,16 +21279,16 @@
         <v>52</v>
       </c>
       <c r="B44">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C44">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D44">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E44">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="G44">
         <v>19</v>
@@ -21320,7 +21320,7 @@
         <v>10</v>
       </c>
       <c r="E45">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="G45">
         <v>10</v>
@@ -21343,16 +21343,16 @@
         <v>54</v>
       </c>
       <c r="B46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E46">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="G46">
         <v>4</v>
@@ -21384,7 +21384,7 @@
         <v>3</v>
       </c>
       <c r="E47">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="G47">
         <v>3</v>
@@ -21407,16 +21407,16 @@
         <v>56</v>
       </c>
       <c r="B48">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C48">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D48">
+        <v>7</v>
+      </c>
+      <c r="E48">
         <v>22</v>
-      </c>
-      <c r="E48">
-        <v>62</v>
       </c>
       <c r="G48">
         <v>35</v>
@@ -21439,16 +21439,16 @@
         <v>57</v>
       </c>
       <c r="B49">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C49">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D49">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E49">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="G49">
         <v>8</v>
@@ -21471,16 +21471,16 @@
         <v>58</v>
       </c>
       <c r="B50">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C50">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D50">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E50">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="G50">
         <v>26</v>
@@ -21548,16 +21548,16 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>101</v>
+        <v>36</v>
       </c>
       <c r="G2">
         <v>113</v>
@@ -21589,7 +21589,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>101</v>
+        <v>35</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -21612,16 +21612,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="D4">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="E4">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="G4">
         <v>98</v>
@@ -21653,7 +21653,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -21676,16 +21676,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C6">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D6">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E6">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="G6">
         <v>25</v>
@@ -21717,7 +21717,7 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -21749,7 +21749,7 @@
         <v>2</v>
       </c>
       <c r="E8">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="G8">
         <v>3</v>
@@ -21781,7 +21781,7 @@
         <v>1</v>
       </c>
       <c r="E9">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -21804,16 +21804,16 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="C10">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="D10">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="E10">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="G10">
         <v>210</v>
@@ -21845,7 +21845,7 @@
         <v>3</v>
       </c>
       <c r="E11">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="G11">
         <v>3</v>
@@ -21877,7 +21877,7 @@
         <v>3</v>
       </c>
       <c r="E12">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -21909,7 +21909,7 @@
         <v>1</v>
       </c>
       <c r="E13">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -21941,7 +21941,7 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -21973,7 +21973,7 @@
         <v>2</v>
       </c>
       <c r="E15">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="G15">
         <v>3</v>
@@ -22005,7 +22005,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -22037,7 +22037,7 @@
         <v>2</v>
       </c>
       <c r="E17">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="G17">
         <v>2</v>
@@ -22060,16 +22060,16 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D18">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E18">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="G18">
         <v>20</v>
@@ -22092,16 +22092,16 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="C19">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D19">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="E19">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="G19">
         <v>57</v>
@@ -22124,16 +22124,16 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="C20">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="D20">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="E20">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="G20">
         <v>133</v>
@@ -22165,7 +22165,7 @@
         <v>3</v>
       </c>
       <c r="E21">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="G21">
         <v>3</v>
@@ -22188,16 +22188,16 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="C22">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="D22">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="E22">
-        <v>72</v>
+        <v>7</v>
       </c>
       <c r="G22">
         <v>145</v>
@@ -22229,7 +22229,7 @@
         <v>1</v>
       </c>
       <c r="E23">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="G23">
         <v>2</v>
@@ -22252,16 +22252,16 @@
         <v>32</v>
       </c>
       <c r="B24">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C24">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D24">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E24">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="G24">
         <v>24</v>
@@ -22293,7 +22293,7 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -22325,7 +22325,7 @@
         <v>2</v>
       </c>
       <c r="E26">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -22348,16 +22348,16 @@
         <v>35</v>
       </c>
       <c r="B27">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="C27">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D27">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E27">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="G27">
         <v>39</v>
@@ -22389,7 +22389,7 @@
         <v>3</v>
       </c>
       <c r="E28">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -22421,7 +22421,7 @@
         <v>3</v>
       </c>
       <c r="E29">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="G29">
         <v>3</v>
@@ -22444,16 +22444,16 @@
         <v>38</v>
       </c>
       <c r="B30">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C30">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D30">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E30">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="G30">
         <v>20</v>
@@ -22476,16 +22476,16 @@
         <v>39</v>
       </c>
       <c r="B31">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C31">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D31">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E31">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="G31">
         <v>17</v>
@@ -22508,16 +22508,16 @@
         <v>40</v>
       </c>
       <c r="B32">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="C32">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D32">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="E32">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="G32">
         <v>66</v>
@@ -22549,7 +22549,7 @@
         <v>4</v>
       </c>
       <c r="E33">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="G33">
         <v>4</v>
@@ -22581,7 +22581,7 @@
         <v>1</v>
       </c>
       <c r="E34">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -22613,7 +22613,7 @@
         <v>1</v>
       </c>
       <c r="E35">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -22645,7 +22645,7 @@
         <v>4</v>
       </c>
       <c r="E36">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="G36">
         <v>4</v>
@@ -22677,7 +22677,7 @@
         <v>8</v>
       </c>
       <c r="E37">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="G37">
         <v>10</v>
@@ -22700,16 +22700,16 @@
         <v>46</v>
       </c>
       <c r="B38">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="C38">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D38">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E38">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="G38">
         <v>25</v>
@@ -22741,7 +22741,7 @@
         <v>2</v>
       </c>
       <c r="E39">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="G39">
         <v>2</v>
@@ -22773,7 +22773,7 @@
         <v>3</v>
       </c>
       <c r="E40">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="G40">
         <v>3</v>
@@ -22805,7 +22805,7 @@
         <v>3</v>
       </c>
       <c r="E41">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="G41">
         <v>3</v>
@@ -22837,7 +22837,7 @@
         <v>4</v>
       </c>
       <c r="E42">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="G42">
         <v>4</v>
@@ -22869,7 +22869,7 @@
         <v>2</v>
       </c>
       <c r="E43">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="G43">
         <v>3</v>
@@ -22892,16 +22892,16 @@
         <v>52</v>
       </c>
       <c r="B44">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C44">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D44">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E44">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="G44">
         <v>19</v>
@@ -22933,7 +22933,7 @@
         <v>10</v>
       </c>
       <c r="E45">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="G45">
         <v>10</v>
@@ -22956,16 +22956,16 @@
         <v>54</v>
       </c>
       <c r="B46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E46">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="G46">
         <v>4</v>
@@ -22997,7 +22997,7 @@
         <v>3</v>
       </c>
       <c r="E47">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="G47">
         <v>3</v>
@@ -23020,16 +23020,16 @@
         <v>56</v>
       </c>
       <c r="B48">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C48">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D48">
+        <v>7</v>
+      </c>
+      <c r="E48">
         <v>22</v>
-      </c>
-      <c r="E48">
-        <v>62</v>
       </c>
       <c r="G48">
         <v>35</v>
@@ -23052,16 +23052,16 @@
         <v>57</v>
       </c>
       <c r="B49">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C49">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D49">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E49">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="G49">
         <v>8</v>
@@ -23084,16 +23084,16 @@
         <v>58</v>
       </c>
       <c r="B50">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C50">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D50">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E50">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="G50">
         <v>26</v>
@@ -23170,7 +23170,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>101</v>
+        <v>36</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -23202,7 +23202,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>101</v>
+        <v>35</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -23234,7 +23234,7 @@
         <v>3</v>
       </c>
       <c r="E4">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="G4">
         <v>3</v>
@@ -23266,7 +23266,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -23298,7 +23298,7 @@
         <v>10</v>
       </c>
       <c r="E6">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="G6">
         <v>10</v>
@@ -23330,7 +23330,7 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -23362,7 +23362,7 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -23394,7 +23394,7 @@
         <v>1</v>
       </c>
       <c r="E9">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -23426,7 +23426,7 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -23458,7 +23458,7 @@
         <v>3</v>
       </c>
       <c r="E11">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="G11">
         <v>3</v>
@@ -23490,7 +23490,7 @@
         <v>3</v>
       </c>
       <c r="E12">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -23522,7 +23522,7 @@
         <v>1</v>
       </c>
       <c r="E13">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -23554,7 +23554,7 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -23586,7 +23586,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="G15">
         <v>2</v>
@@ -23618,7 +23618,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -23650,7 +23650,7 @@
         <v>2</v>
       </c>
       <c r="E17">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="G17">
         <v>2</v>
@@ -23682,7 +23682,7 @@
         <v>1</v>
       </c>
       <c r="E18">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -23714,7 +23714,7 @@
         <v>8</v>
       </c>
       <c r="E19">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="G19">
         <v>7</v>
@@ -23746,7 +23746,7 @@
         <v>1</v>
       </c>
       <c r="E20">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -23778,7 +23778,7 @@
         <v>3</v>
       </c>
       <c r="E21">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="G21">
         <v>3</v>
@@ -23810,7 +23810,7 @@
         <v>2</v>
       </c>
       <c r="E22">
-        <v>72</v>
+        <v>7</v>
       </c>
       <c r="G22">
         <v>3</v>
@@ -23842,7 +23842,7 @@
         <v>1</v>
       </c>
       <c r="E23">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="G23">
         <v>2</v>
@@ -23874,7 +23874,7 @@
         <v>2</v>
       </c>
       <c r="E24">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="G24">
         <v>3</v>
@@ -23906,7 +23906,7 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -23938,7 +23938,7 @@
         <v>2</v>
       </c>
       <c r="E26">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -23970,7 +23970,7 @@
         <v>7</v>
       </c>
       <c r="E27">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="G27">
         <v>7</v>
@@ -24002,7 +24002,7 @@
         <v>3</v>
       </c>
       <c r="E28">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -24034,7 +24034,7 @@
         <v>3</v>
       </c>
       <c r="E29">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="G29">
         <v>3</v>
@@ -24066,7 +24066,7 @@
         <v>2</v>
       </c>
       <c r="E30">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="G30">
         <v>2</v>
@@ -24098,7 +24098,7 @@
         <v>2</v>
       </c>
       <c r="E31">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="G31">
         <v>2</v>
@@ -24130,7 +24130,7 @@
         <v>7</v>
       </c>
       <c r="E32">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="G32">
         <v>7</v>
@@ -24162,7 +24162,7 @@
         <v>4</v>
       </c>
       <c r="E33">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="G33">
         <v>4</v>
@@ -24194,7 +24194,7 @@
         <v>1</v>
       </c>
       <c r="E34">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -24226,7 +24226,7 @@
         <v>1</v>
       </c>
       <c r="E35">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -24258,7 +24258,7 @@
         <v>4</v>
       </c>
       <c r="E36">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="G36">
         <v>4</v>
@@ -24290,7 +24290,7 @@
         <v>4</v>
       </c>
       <c r="E37">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="G37">
         <v>4</v>
@@ -24322,7 +24322,7 @@
         <v>4</v>
       </c>
       <c r="E38">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="G38">
         <v>4</v>
@@ -24354,7 +24354,7 @@
         <v>2</v>
       </c>
       <c r="E39">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="G39">
         <v>2</v>
@@ -24386,7 +24386,7 @@
         <v>3</v>
       </c>
       <c r="E40">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="G40">
         <v>3</v>
@@ -24418,7 +24418,7 @@
         <v>3</v>
       </c>
       <c r="E41">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="G41">
         <v>3</v>
@@ -24450,7 +24450,7 @@
         <v>4</v>
       </c>
       <c r="E42">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="G42">
         <v>4</v>
@@ -24482,7 +24482,7 @@
         <v>2</v>
       </c>
       <c r="E43">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="G43">
         <v>3</v>
@@ -24514,7 +24514,7 @@
         <v>2</v>
       </c>
       <c r="E44">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="G44">
         <v>2</v>
@@ -24546,7 +24546,7 @@
         <v>3</v>
       </c>
       <c r="E45">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -24578,7 +24578,7 @@
         <v>1</v>
       </c>
       <c r="E46">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="G46">
         <v>1</v>
@@ -24610,7 +24610,7 @@
         <v>3</v>
       </c>
       <c r="E47">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="G47">
         <v>3</v>
@@ -24642,7 +24642,7 @@
         <v>7</v>
       </c>
       <c r="E48">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="G48">
         <v>7</v>
@@ -24674,7 +24674,7 @@
         <v>5</v>
       </c>
       <c r="E49">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="G49">
         <v>5</v>
@@ -24706,7 +24706,7 @@
         <v>1</v>
       </c>
       <c r="E50">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="G50">
         <v>2</v>

--- a/experiment_results/worst_case/ExamDB/4wise/0.8_worst_case.xlsx
+++ b/experiment_results/worst_case/ExamDB/4wise/0.8_worst_case.xlsx
@@ -22,13 +22,15 @@
     <sheet name="rogot1" sheetId="13" r:id="rId13"/>
     <sheet name="geometric_mean" sheetId="14" r:id="rId14"/>
     <sheet name="m2" sheetId="15" r:id="rId15"/>
+    <sheet name="wong1" sheetId="16" r:id="rId16"/>
+    <sheet name="sokal" sheetId="17" r:id="rId17"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1003" uniqueCount="59">
   <si>
     <t>MUTATED_PROJECT</t>
   </si>
@@ -11825,6 +11827,3232 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>25</v>
+      </c>
+      <c r="C2">
+        <v>18</v>
+      </c>
+      <c r="D2">
+        <v>18</v>
+      </c>
+      <c r="E2">
+        <v>36</v>
+      </c>
+      <c r="G2">
+        <v>15</v>
+      </c>
+      <c r="H2">
+        <v>251</v>
+      </c>
+      <c r="J2">
+        <v>5</v>
+      </c>
+      <c r="K2">
+        <v>99</v>
+      </c>
+      <c r="L2">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>35</v>
+      </c>
+      <c r="G3">
+        <v>8</v>
+      </c>
+      <c r="H3">
+        <v>251</v>
+      </c>
+      <c r="J3">
+        <v>5</v>
+      </c>
+      <c r="K3">
+        <v>99</v>
+      </c>
+      <c r="L3">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>17</v>
+      </c>
+      <c r="C4">
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <v>8</v>
+      </c>
+      <c r="E4">
+        <v>17</v>
+      </c>
+      <c r="G4">
+        <v>25</v>
+      </c>
+      <c r="H4">
+        <v>251</v>
+      </c>
+      <c r="J4">
+        <v>7</v>
+      </c>
+      <c r="K4">
+        <v>164</v>
+      </c>
+      <c r="L4">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>42</v>
+      </c>
+      <c r="C5">
+        <v>24</v>
+      </c>
+      <c r="D5">
+        <v>24</v>
+      </c>
+      <c r="E5">
+        <v>42</v>
+      </c>
+      <c r="G5">
+        <v>63</v>
+      </c>
+      <c r="H5">
+        <v>251</v>
+      </c>
+      <c r="J5">
+        <v>7</v>
+      </c>
+      <c r="K5">
+        <v>164</v>
+      </c>
+      <c r="L5">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>30</v>
+      </c>
+      <c r="C6">
+        <v>16</v>
+      </c>
+      <c r="D6">
+        <v>16</v>
+      </c>
+      <c r="E6">
+        <v>38</v>
+      </c>
+      <c r="G6">
+        <v>40</v>
+      </c>
+      <c r="H6">
+        <v>251</v>
+      </c>
+      <c r="J6">
+        <v>9</v>
+      </c>
+      <c r="K6">
+        <v>183</v>
+      </c>
+      <c r="L6">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>16</v>
+      </c>
+      <c r="C7">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>8</v>
+      </c>
+      <c r="E7">
+        <v>44</v>
+      </c>
+      <c r="G7">
+        <v>24</v>
+      </c>
+      <c r="H7">
+        <v>251</v>
+      </c>
+      <c r="J7">
+        <v>9</v>
+      </c>
+      <c r="K7">
+        <v>183</v>
+      </c>
+      <c r="L7">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>48</v>
+      </c>
+      <c r="G8">
+        <v>10</v>
+      </c>
+      <c r="H8">
+        <v>251</v>
+      </c>
+      <c r="J8">
+        <v>9</v>
+      </c>
+      <c r="K8">
+        <v>183</v>
+      </c>
+      <c r="L8">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>31</v>
+      </c>
+      <c r="G9">
+        <v>10</v>
+      </c>
+      <c r="H9">
+        <v>251</v>
+      </c>
+      <c r="J9">
+        <v>9</v>
+      </c>
+      <c r="K9">
+        <v>183</v>
+      </c>
+      <c r="L9">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>11</v>
+      </c>
+      <c r="C10">
+        <v>7</v>
+      </c>
+      <c r="D10">
+        <v>7</v>
+      </c>
+      <c r="E10">
+        <v>60</v>
+      </c>
+      <c r="G10">
+        <v>11</v>
+      </c>
+      <c r="H10">
+        <v>251</v>
+      </c>
+      <c r="J10">
+        <v>5</v>
+      </c>
+      <c r="K10">
+        <v>99</v>
+      </c>
+      <c r="L10">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11">
+        <v>4</v>
+      </c>
+      <c r="E11">
+        <v>16</v>
+      </c>
+      <c r="G11">
+        <v>14</v>
+      </c>
+      <c r="H11">
+        <v>251</v>
+      </c>
+      <c r="J11">
+        <v>7</v>
+      </c>
+      <c r="K11">
+        <v>164</v>
+      </c>
+      <c r="L11">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+      <c r="E12">
+        <v>16</v>
+      </c>
+      <c r="G12">
+        <v>14</v>
+      </c>
+      <c r="H12">
+        <v>251</v>
+      </c>
+      <c r="J12">
+        <v>7</v>
+      </c>
+      <c r="K12">
+        <v>164</v>
+      </c>
+      <c r="L12">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13">
+        <v>17</v>
+      </c>
+      <c r="C13">
+        <v>8</v>
+      </c>
+      <c r="D13">
+        <v>8</v>
+      </c>
+      <c r="E13">
+        <v>38</v>
+      </c>
+      <c r="G13">
+        <v>25</v>
+      </c>
+      <c r="H13">
+        <v>251</v>
+      </c>
+      <c r="J13">
+        <v>9</v>
+      </c>
+      <c r="K13">
+        <v>183</v>
+      </c>
+      <c r="L13">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14">
+        <v>20</v>
+      </c>
+      <c r="C14">
+        <v>8</v>
+      </c>
+      <c r="D14">
+        <v>8</v>
+      </c>
+      <c r="E14">
+        <v>43</v>
+      </c>
+      <c r="G14">
+        <v>31</v>
+      </c>
+      <c r="H14">
+        <v>251</v>
+      </c>
+      <c r="J14">
+        <v>7</v>
+      </c>
+      <c r="K14">
+        <v>164</v>
+      </c>
+      <c r="L14">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15">
+        <v>6</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>47</v>
+      </c>
+      <c r="G15">
+        <v>10</v>
+      </c>
+      <c r="H15">
+        <v>251</v>
+      </c>
+      <c r="J15">
+        <v>7</v>
+      </c>
+      <c r="K15">
+        <v>164</v>
+      </c>
+      <c r="L15">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16">
+        <v>30</v>
+      </c>
+      <c r="C16">
+        <v>16</v>
+      </c>
+      <c r="D16">
+        <v>16</v>
+      </c>
+      <c r="E16">
+        <v>38</v>
+      </c>
+      <c r="G16">
+        <v>40</v>
+      </c>
+      <c r="H16">
+        <v>251</v>
+      </c>
+      <c r="J16">
+        <v>9</v>
+      </c>
+      <c r="K16">
+        <v>183</v>
+      </c>
+      <c r="L16">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17">
+        <v>17</v>
+      </c>
+      <c r="C17">
+        <v>8</v>
+      </c>
+      <c r="D17">
+        <v>8</v>
+      </c>
+      <c r="E17">
+        <v>44</v>
+      </c>
+      <c r="G17">
+        <v>24</v>
+      </c>
+      <c r="H17">
+        <v>251</v>
+      </c>
+      <c r="J17">
+        <v>9</v>
+      </c>
+      <c r="K17">
+        <v>183</v>
+      </c>
+      <c r="L17">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18">
+        <v>9</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>9</v>
+      </c>
+      <c r="G18">
+        <v>17</v>
+      </c>
+      <c r="H18">
+        <v>251</v>
+      </c>
+      <c r="J18">
+        <v>7</v>
+      </c>
+      <c r="K18">
+        <v>115</v>
+      </c>
+      <c r="L18">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>8</v>
+      </c>
+      <c r="D19">
+        <v>8</v>
+      </c>
+      <c r="E19">
+        <v>38</v>
+      </c>
+      <c r="G19">
+        <v>25</v>
+      </c>
+      <c r="H19">
+        <v>251</v>
+      </c>
+      <c r="J19">
+        <v>9</v>
+      </c>
+      <c r="K19">
+        <v>183</v>
+      </c>
+      <c r="L19">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20">
+        <v>8</v>
+      </c>
+      <c r="C20">
+        <v>16</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>30</v>
+      </c>
+      <c r="G20">
+        <v>16</v>
+      </c>
+      <c r="H20">
+        <v>251</v>
+      </c>
+      <c r="J20">
+        <v>5</v>
+      </c>
+      <c r="K20">
+        <v>96</v>
+      </c>
+      <c r="L20">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21">
+        <v>10</v>
+      </c>
+      <c r="C21">
+        <v>4</v>
+      </c>
+      <c r="D21">
+        <v>4</v>
+      </c>
+      <c r="E21">
+        <v>32</v>
+      </c>
+      <c r="G21">
+        <v>14</v>
+      </c>
+      <c r="H21">
+        <v>251</v>
+      </c>
+      <c r="J21">
+        <v>7</v>
+      </c>
+      <c r="K21">
+        <v>164</v>
+      </c>
+      <c r="L21">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22">
+        <v>6</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22">
+        <v>7</v>
+      </c>
+      <c r="G22">
+        <v>10</v>
+      </c>
+      <c r="H22">
+        <v>251</v>
+      </c>
+      <c r="J22">
+        <v>5</v>
+      </c>
+      <c r="K22">
+        <v>96</v>
+      </c>
+      <c r="L22">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23">
+        <v>6</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>36</v>
+      </c>
+      <c r="G23">
+        <v>10</v>
+      </c>
+      <c r="H23">
+        <v>251</v>
+      </c>
+      <c r="J23">
+        <v>7</v>
+      </c>
+      <c r="K23">
+        <v>164</v>
+      </c>
+      <c r="L23">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24">
+        <v>7</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24">
+        <v>12</v>
+      </c>
+      <c r="G24">
+        <v>10</v>
+      </c>
+      <c r="H24">
+        <v>251</v>
+      </c>
+      <c r="J24">
+        <v>5</v>
+      </c>
+      <c r="K24">
+        <v>96</v>
+      </c>
+      <c r="L24">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25">
+        <v>9</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25">
+        <v>11</v>
+      </c>
+      <c r="G25">
+        <v>15</v>
+      </c>
+      <c r="H25">
+        <v>251</v>
+      </c>
+      <c r="J25">
+        <v>7</v>
+      </c>
+      <c r="K25">
+        <v>115</v>
+      </c>
+      <c r="L25">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26">
+        <v>9</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26">
+        <v>15</v>
+      </c>
+      <c r="G26">
+        <v>14</v>
+      </c>
+      <c r="H26">
+        <v>251</v>
+      </c>
+      <c r="J26">
+        <v>9</v>
+      </c>
+      <c r="K26">
+        <v>183</v>
+      </c>
+      <c r="L26">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27">
+        <v>20</v>
+      </c>
+      <c r="C27">
+        <v>8</v>
+      </c>
+      <c r="D27">
+        <v>8</v>
+      </c>
+      <c r="E27">
+        <v>43</v>
+      </c>
+      <c r="G27">
+        <v>31</v>
+      </c>
+      <c r="H27">
+        <v>251</v>
+      </c>
+      <c r="J27">
+        <v>7</v>
+      </c>
+      <c r="K27">
+        <v>164</v>
+      </c>
+      <c r="L27">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28">
+        <v>10</v>
+      </c>
+      <c r="C28">
+        <v>4</v>
+      </c>
+      <c r="D28">
+        <v>4</v>
+      </c>
+      <c r="E28">
+        <v>29</v>
+      </c>
+      <c r="G28">
+        <v>14</v>
+      </c>
+      <c r="H28">
+        <v>251</v>
+      </c>
+      <c r="J28">
+        <v>9</v>
+      </c>
+      <c r="K28">
+        <v>183</v>
+      </c>
+      <c r="L28">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29">
+        <v>30</v>
+      </c>
+      <c r="C29">
+        <v>16</v>
+      </c>
+      <c r="D29">
+        <v>16</v>
+      </c>
+      <c r="E29">
+        <v>38</v>
+      </c>
+      <c r="G29">
+        <v>39</v>
+      </c>
+      <c r="H29">
+        <v>251</v>
+      </c>
+      <c r="J29">
+        <v>9</v>
+      </c>
+      <c r="K29">
+        <v>183</v>
+      </c>
+      <c r="L29">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30">
+        <v>20</v>
+      </c>
+      <c r="C30">
+        <v>7</v>
+      </c>
+      <c r="D30">
+        <v>7</v>
+      </c>
+      <c r="E30">
+        <v>42</v>
+      </c>
+      <c r="G30">
+        <v>31</v>
+      </c>
+      <c r="H30">
+        <v>251</v>
+      </c>
+      <c r="J30">
+        <v>7</v>
+      </c>
+      <c r="K30">
+        <v>164</v>
+      </c>
+      <c r="L30">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31">
+        <v>34</v>
+      </c>
+      <c r="C31">
+        <v>16</v>
+      </c>
+      <c r="D31">
+        <v>16</v>
+      </c>
+      <c r="E31">
+        <v>34</v>
+      </c>
+      <c r="G31">
+        <v>55</v>
+      </c>
+      <c r="H31">
+        <v>251</v>
+      </c>
+      <c r="J31">
+        <v>7</v>
+      </c>
+      <c r="K31">
+        <v>164</v>
+      </c>
+      <c r="L31">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32">
+        <v>17</v>
+      </c>
+      <c r="C32">
+        <v>8</v>
+      </c>
+      <c r="D32">
+        <v>8</v>
+      </c>
+      <c r="E32">
+        <v>17</v>
+      </c>
+      <c r="G32">
+        <v>25</v>
+      </c>
+      <c r="H32">
+        <v>251</v>
+      </c>
+      <c r="J32">
+        <v>9</v>
+      </c>
+      <c r="K32">
+        <v>183</v>
+      </c>
+      <c r="L32">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33">
+        <v>11</v>
+      </c>
+      <c r="C33">
+        <v>5</v>
+      </c>
+      <c r="D33">
+        <v>5</v>
+      </c>
+      <c r="E33">
+        <v>43</v>
+      </c>
+      <c r="G33">
+        <v>15</v>
+      </c>
+      <c r="H33">
+        <v>251</v>
+      </c>
+      <c r="J33">
+        <v>7</v>
+      </c>
+      <c r="K33">
+        <v>164</v>
+      </c>
+      <c r="L33">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34">
+        <v>17</v>
+      </c>
+      <c r="C34">
+        <v>8</v>
+      </c>
+      <c r="D34">
+        <v>8</v>
+      </c>
+      <c r="E34">
+        <v>44</v>
+      </c>
+      <c r="G34">
+        <v>25</v>
+      </c>
+      <c r="H34">
+        <v>251</v>
+      </c>
+      <c r="J34">
+        <v>7</v>
+      </c>
+      <c r="K34">
+        <v>164</v>
+      </c>
+      <c r="L34">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35">
+        <v>9</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+      <c r="E35">
+        <v>49</v>
+      </c>
+      <c r="G35">
+        <v>16</v>
+      </c>
+      <c r="H35">
+        <v>251</v>
+      </c>
+      <c r="J35">
+        <v>5</v>
+      </c>
+      <c r="K35">
+        <v>99</v>
+      </c>
+      <c r="L35">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36">
+        <v>11</v>
+      </c>
+      <c r="C36">
+        <v>5</v>
+      </c>
+      <c r="D36">
+        <v>5</v>
+      </c>
+      <c r="E36">
+        <v>43</v>
+      </c>
+      <c r="G36">
+        <v>15</v>
+      </c>
+      <c r="H36">
+        <v>251</v>
+      </c>
+      <c r="J36">
+        <v>7</v>
+      </c>
+      <c r="K36">
+        <v>164</v>
+      </c>
+      <c r="L36">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37">
+        <v>14</v>
+      </c>
+      <c r="C37">
+        <v>5</v>
+      </c>
+      <c r="D37">
+        <v>5</v>
+      </c>
+      <c r="E37">
+        <v>43</v>
+      </c>
+      <c r="G37">
+        <v>22</v>
+      </c>
+      <c r="H37">
+        <v>251</v>
+      </c>
+      <c r="J37">
+        <v>9</v>
+      </c>
+      <c r="K37">
+        <v>183</v>
+      </c>
+      <c r="L37">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38">
+        <v>27</v>
+      </c>
+      <c r="C38">
+        <v>8</v>
+      </c>
+      <c r="D38">
+        <v>8</v>
+      </c>
+      <c r="E38">
+        <v>27</v>
+      </c>
+      <c r="G38">
+        <v>47</v>
+      </c>
+      <c r="H38">
+        <v>251</v>
+      </c>
+      <c r="J38">
+        <v>7</v>
+      </c>
+      <c r="K38">
+        <v>164</v>
+      </c>
+      <c r="L38">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39">
+        <v>17</v>
+      </c>
+      <c r="C39">
+        <v>8</v>
+      </c>
+      <c r="D39">
+        <v>8</v>
+      </c>
+      <c r="E39">
+        <v>43</v>
+      </c>
+      <c r="G39">
+        <v>25</v>
+      </c>
+      <c r="H39">
+        <v>251</v>
+      </c>
+      <c r="J39">
+        <v>7</v>
+      </c>
+      <c r="K39">
+        <v>164</v>
+      </c>
+      <c r="L39">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40">
+        <v>10</v>
+      </c>
+      <c r="C40">
+        <v>4</v>
+      </c>
+      <c r="D40">
+        <v>4</v>
+      </c>
+      <c r="E40">
+        <v>32</v>
+      </c>
+      <c r="G40">
+        <v>14</v>
+      </c>
+      <c r="H40">
+        <v>251</v>
+      </c>
+      <c r="J40">
+        <v>7</v>
+      </c>
+      <c r="K40">
+        <v>164</v>
+      </c>
+      <c r="L40">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41">
+        <v>10</v>
+      </c>
+      <c r="C41">
+        <v>4</v>
+      </c>
+      <c r="D41">
+        <v>4</v>
+      </c>
+      <c r="E41">
+        <v>21</v>
+      </c>
+      <c r="G41">
+        <v>14</v>
+      </c>
+      <c r="H41">
+        <v>251</v>
+      </c>
+      <c r="J41">
+        <v>9</v>
+      </c>
+      <c r="K41">
+        <v>183</v>
+      </c>
+      <c r="L41">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42">
+        <v>11</v>
+      </c>
+      <c r="C42">
+        <v>5</v>
+      </c>
+      <c r="D42">
+        <v>5</v>
+      </c>
+      <c r="E42">
+        <v>43</v>
+      </c>
+      <c r="G42">
+        <v>15</v>
+      </c>
+      <c r="H42">
+        <v>251</v>
+      </c>
+      <c r="J42">
+        <v>9</v>
+      </c>
+      <c r="K42">
+        <v>183</v>
+      </c>
+      <c r="L42">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43">
+        <v>9</v>
+      </c>
+      <c r="C43">
+        <v>2</v>
+      </c>
+      <c r="D43">
+        <v>2</v>
+      </c>
+      <c r="E43">
+        <v>15</v>
+      </c>
+      <c r="G43">
+        <v>14</v>
+      </c>
+      <c r="H43">
+        <v>251</v>
+      </c>
+      <c r="J43">
+        <v>7</v>
+      </c>
+      <c r="K43">
+        <v>164</v>
+      </c>
+      <c r="L43">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44" t="s">
+        <v>52</v>
+      </c>
+      <c r="B44">
+        <v>16</v>
+      </c>
+      <c r="C44">
+        <v>7</v>
+      </c>
+      <c r="D44">
+        <v>7</v>
+      </c>
+      <c r="E44">
+        <v>37</v>
+      </c>
+      <c r="G44">
+        <v>23</v>
+      </c>
+      <c r="H44">
+        <v>251</v>
+      </c>
+      <c r="J44">
+        <v>9</v>
+      </c>
+      <c r="K44">
+        <v>183</v>
+      </c>
+      <c r="L44">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45">
+        <v>11</v>
+      </c>
+      <c r="C45">
+        <v>4</v>
+      </c>
+      <c r="D45">
+        <v>4</v>
+      </c>
+      <c r="E45">
+        <v>29</v>
+      </c>
+      <c r="G45">
+        <v>18</v>
+      </c>
+      <c r="H45">
+        <v>251</v>
+      </c>
+      <c r="J45">
+        <v>9</v>
+      </c>
+      <c r="K45">
+        <v>183</v>
+      </c>
+      <c r="L45">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46">
+        <v>10</v>
+      </c>
+      <c r="C46">
+        <v>2</v>
+      </c>
+      <c r="D46">
+        <v>2</v>
+      </c>
+      <c r="E46">
+        <v>10</v>
+      </c>
+      <c r="G46">
+        <v>16</v>
+      </c>
+      <c r="H46">
+        <v>251</v>
+      </c>
+      <c r="J46">
+        <v>5</v>
+      </c>
+      <c r="K46">
+        <v>96</v>
+      </c>
+      <c r="L46">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47" t="s">
+        <v>55</v>
+      </c>
+      <c r="B47">
+        <v>11</v>
+      </c>
+      <c r="C47">
+        <v>4</v>
+      </c>
+      <c r="D47">
+        <v>4</v>
+      </c>
+      <c r="E47">
+        <v>14</v>
+      </c>
+      <c r="G47">
+        <v>18</v>
+      </c>
+      <c r="H47">
+        <v>251</v>
+      </c>
+      <c r="J47">
+        <v>9</v>
+      </c>
+      <c r="K47">
+        <v>183</v>
+      </c>
+      <c r="L47">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="A48" t="s">
+        <v>56</v>
+      </c>
+      <c r="B48">
+        <v>22</v>
+      </c>
+      <c r="C48">
+        <v>8</v>
+      </c>
+      <c r="D48">
+        <v>8</v>
+      </c>
+      <c r="E48">
+        <v>22</v>
+      </c>
+      <c r="G48">
+        <v>31</v>
+      </c>
+      <c r="H48">
+        <v>251</v>
+      </c>
+      <c r="J48">
+        <v>9</v>
+      </c>
+      <c r="K48">
+        <v>183</v>
+      </c>
+      <c r="L48">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="A49" t="s">
+        <v>57</v>
+      </c>
+      <c r="B49">
+        <v>42</v>
+      </c>
+      <c r="C49">
+        <v>24</v>
+      </c>
+      <c r="D49">
+        <v>24</v>
+      </c>
+      <c r="E49">
+        <v>42</v>
+      </c>
+      <c r="G49">
+        <v>63</v>
+      </c>
+      <c r="H49">
+        <v>251</v>
+      </c>
+      <c r="J49">
+        <v>7</v>
+      </c>
+      <c r="K49">
+        <v>164</v>
+      </c>
+      <c r="L49">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50" t="s">
+        <v>58</v>
+      </c>
+      <c r="B50">
+        <v>10</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <v>10</v>
+      </c>
+      <c r="G50">
+        <v>16</v>
+      </c>
+      <c r="H50">
+        <v>251</v>
+      </c>
+      <c r="J50">
+        <v>5</v>
+      </c>
+      <c r="K50">
+        <v>96</v>
+      </c>
+      <c r="L50">
+        <v>251</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>36</v>
+      </c>
+      <c r="G2">
+        <v>113</v>
+      </c>
+      <c r="H2">
+        <v>251</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>14</v>
+      </c>
+      <c r="L2">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>35</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
+      <c r="H3">
+        <v>251</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>14</v>
+      </c>
+      <c r="L3">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>17</v>
+      </c>
+      <c r="G4">
+        <v>98</v>
+      </c>
+      <c r="H4">
+        <v>251</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>31</v>
+      </c>
+      <c r="L4">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>42</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>251</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>31</v>
+      </c>
+      <c r="L5">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>10</v>
+      </c>
+      <c r="D6">
+        <v>10</v>
+      </c>
+      <c r="E6">
+        <v>38</v>
+      </c>
+      <c r="G6">
+        <v>25</v>
+      </c>
+      <c r="H6">
+        <v>251</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>31</v>
+      </c>
+      <c r="L6">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>44</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7">
+        <v>251</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>31</v>
+      </c>
+      <c r="L7">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>48</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="H8">
+        <v>251</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>31</v>
+      </c>
+      <c r="L8">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>31</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9">
+        <v>251</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>31</v>
+      </c>
+      <c r="L9">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>30</v>
+      </c>
+      <c r="C10">
+        <v>25</v>
+      </c>
+      <c r="D10">
+        <v>30</v>
+      </c>
+      <c r="E10">
+        <v>60</v>
+      </c>
+      <c r="G10">
+        <v>210</v>
+      </c>
+      <c r="H10">
+        <v>251</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>14</v>
+      </c>
+      <c r="L10">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11">
+        <v>16</v>
+      </c>
+      <c r="G11">
+        <v>3</v>
+      </c>
+      <c r="H11">
+        <v>251</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>31</v>
+      </c>
+      <c r="L11">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <v>16</v>
+      </c>
+      <c r="G12">
+        <v>3</v>
+      </c>
+      <c r="H12">
+        <v>251</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>31</v>
+      </c>
+      <c r="L12">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>38</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>251</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>31</v>
+      </c>
+      <c r="L13">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>43</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>251</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>31</v>
+      </c>
+      <c r="L14">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>47</v>
+      </c>
+      <c r="G15">
+        <v>3</v>
+      </c>
+      <c r="H15">
+        <v>251</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>31</v>
+      </c>
+      <c r="L15">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>38</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>251</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>31</v>
+      </c>
+      <c r="L16">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>44</v>
+      </c>
+      <c r="G17">
+        <v>2</v>
+      </c>
+      <c r="H17">
+        <v>251</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>31</v>
+      </c>
+      <c r="L17">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>9</v>
+      </c>
+      <c r="G18">
+        <v>20</v>
+      </c>
+      <c r="H18">
+        <v>251</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>5</v>
+      </c>
+      <c r="L18">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="C19">
+        <v>16</v>
+      </c>
+      <c r="D19">
+        <v>18</v>
+      </c>
+      <c r="E19">
+        <v>38</v>
+      </c>
+      <c r="G19">
+        <v>57</v>
+      </c>
+      <c r="H19">
+        <v>251</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>31</v>
+      </c>
+      <c r="L19">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>16</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20">
+        <v>30</v>
+      </c>
+      <c r="G20">
+        <v>133</v>
+      </c>
+      <c r="H20">
+        <v>251</v>
+      </c>
+      <c r="J20">
+        <v>4</v>
+      </c>
+      <c r="K20">
+        <v>84</v>
+      </c>
+      <c r="L20">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21">
+        <v>3</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="E21">
+        <v>32</v>
+      </c>
+      <c r="G21">
+        <v>3</v>
+      </c>
+      <c r="H21">
+        <v>251</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>31</v>
+      </c>
+      <c r="L21">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22">
+        <v>7</v>
+      </c>
+      <c r="G22">
+        <v>145</v>
+      </c>
+      <c r="H22">
+        <v>251</v>
+      </c>
+      <c r="J22">
+        <v>4</v>
+      </c>
+      <c r="K22">
+        <v>84</v>
+      </c>
+      <c r="L22">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>36</v>
+      </c>
+      <c r="G23">
+        <v>2</v>
+      </c>
+      <c r="H23">
+        <v>251</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>31</v>
+      </c>
+      <c r="L23">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24">
+        <v>12</v>
+      </c>
+      <c r="G24">
+        <v>24</v>
+      </c>
+      <c r="H24">
+        <v>251</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>11</v>
+      </c>
+      <c r="L24">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>11</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>251</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <v>5</v>
+      </c>
+      <c r="L25">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26">
+        <v>15</v>
+      </c>
+      <c r="G26">
+        <v>3</v>
+      </c>
+      <c r="H26">
+        <v>251</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <v>31</v>
+      </c>
+      <c r="L26">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27">
+        <v>15</v>
+      </c>
+      <c r="C27">
+        <v>14</v>
+      </c>
+      <c r="D27">
+        <v>15</v>
+      </c>
+      <c r="E27">
+        <v>43</v>
+      </c>
+      <c r="G27">
+        <v>39</v>
+      </c>
+      <c r="H27">
+        <v>251</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <v>31</v>
+      </c>
+      <c r="L27">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28">
+        <v>3</v>
+      </c>
+      <c r="D28">
+        <v>3</v>
+      </c>
+      <c r="E28">
+        <v>29</v>
+      </c>
+      <c r="G28">
+        <v>3</v>
+      </c>
+      <c r="H28">
+        <v>251</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28">
+        <v>31</v>
+      </c>
+      <c r="L28">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29">
+        <v>3</v>
+      </c>
+      <c r="D29">
+        <v>3</v>
+      </c>
+      <c r="E29">
+        <v>38</v>
+      </c>
+      <c r="G29">
+        <v>3</v>
+      </c>
+      <c r="H29">
+        <v>251</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="K29">
+        <v>31</v>
+      </c>
+      <c r="L29">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30">
+        <v>3</v>
+      </c>
+      <c r="C30">
+        <v>3</v>
+      </c>
+      <c r="D30">
+        <v>3</v>
+      </c>
+      <c r="E30">
+        <v>42</v>
+      </c>
+      <c r="G30">
+        <v>20</v>
+      </c>
+      <c r="H30">
+        <v>251</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="K30">
+        <v>31</v>
+      </c>
+      <c r="L30">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+      <c r="E31">
+        <v>34</v>
+      </c>
+      <c r="G31">
+        <v>17</v>
+      </c>
+      <c r="H31">
+        <v>251</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+      <c r="K31">
+        <v>31</v>
+      </c>
+      <c r="L31">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32">
+        <v>7</v>
+      </c>
+      <c r="C32">
+        <v>7</v>
+      </c>
+      <c r="D32">
+        <v>7</v>
+      </c>
+      <c r="E32">
+        <v>17</v>
+      </c>
+      <c r="G32">
+        <v>66</v>
+      </c>
+      <c r="H32">
+        <v>251</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+      <c r="K32">
+        <v>31</v>
+      </c>
+      <c r="L32">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33">
+        <v>4</v>
+      </c>
+      <c r="C33">
+        <v>4</v>
+      </c>
+      <c r="D33">
+        <v>4</v>
+      </c>
+      <c r="E33">
+        <v>43</v>
+      </c>
+      <c r="G33">
+        <v>4</v>
+      </c>
+      <c r="H33">
+        <v>251</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="K33">
+        <v>31</v>
+      </c>
+      <c r="L33">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>44</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="H34">
+        <v>251</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="K34">
+        <v>31</v>
+      </c>
+      <c r="L34">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>49</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <v>251</v>
+      </c>
+      <c r="J35">
+        <v>2</v>
+      </c>
+      <c r="K35">
+        <v>51</v>
+      </c>
+      <c r="L35">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36">
+        <v>4</v>
+      </c>
+      <c r="C36">
+        <v>4</v>
+      </c>
+      <c r="D36">
+        <v>4</v>
+      </c>
+      <c r="E36">
+        <v>43</v>
+      </c>
+      <c r="G36">
+        <v>4</v>
+      </c>
+      <c r="H36">
+        <v>251</v>
+      </c>
+      <c r="J36">
+        <v>1</v>
+      </c>
+      <c r="K36">
+        <v>31</v>
+      </c>
+      <c r="L36">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37">
+        <v>8</v>
+      </c>
+      <c r="C37">
+        <v>8</v>
+      </c>
+      <c r="D37">
+        <v>8</v>
+      </c>
+      <c r="E37">
+        <v>43</v>
+      </c>
+      <c r="G37">
+        <v>10</v>
+      </c>
+      <c r="H37">
+        <v>251</v>
+      </c>
+      <c r="J37">
+        <v>1</v>
+      </c>
+      <c r="K37">
+        <v>31</v>
+      </c>
+      <c r="L37">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38">
+        <v>4</v>
+      </c>
+      <c r="C38">
+        <v>4</v>
+      </c>
+      <c r="D38">
+        <v>4</v>
+      </c>
+      <c r="E38">
+        <v>27</v>
+      </c>
+      <c r="G38">
+        <v>25</v>
+      </c>
+      <c r="H38">
+        <v>251</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
+      <c r="K38">
+        <v>31</v>
+      </c>
+      <c r="L38">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+      <c r="E39">
+        <v>43</v>
+      </c>
+      <c r="G39">
+        <v>2</v>
+      </c>
+      <c r="H39">
+        <v>251</v>
+      </c>
+      <c r="J39">
+        <v>1</v>
+      </c>
+      <c r="K39">
+        <v>31</v>
+      </c>
+      <c r="L39">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40">
+        <v>3</v>
+      </c>
+      <c r="C40">
+        <v>3</v>
+      </c>
+      <c r="D40">
+        <v>3</v>
+      </c>
+      <c r="E40">
+        <v>32</v>
+      </c>
+      <c r="G40">
+        <v>3</v>
+      </c>
+      <c r="H40">
+        <v>251</v>
+      </c>
+      <c r="J40">
+        <v>1</v>
+      </c>
+      <c r="K40">
+        <v>31</v>
+      </c>
+      <c r="L40">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41">
+        <v>3</v>
+      </c>
+      <c r="C41">
+        <v>3</v>
+      </c>
+      <c r="D41">
+        <v>3</v>
+      </c>
+      <c r="E41">
+        <v>21</v>
+      </c>
+      <c r="G41">
+        <v>3</v>
+      </c>
+      <c r="H41">
+        <v>251</v>
+      </c>
+      <c r="J41">
+        <v>1</v>
+      </c>
+      <c r="K41">
+        <v>31</v>
+      </c>
+      <c r="L41">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42">
+        <v>4</v>
+      </c>
+      <c r="C42">
+        <v>4</v>
+      </c>
+      <c r="D42">
+        <v>4</v>
+      </c>
+      <c r="E42">
+        <v>43</v>
+      </c>
+      <c r="G42">
+        <v>4</v>
+      </c>
+      <c r="H42">
+        <v>251</v>
+      </c>
+      <c r="J42">
+        <v>1</v>
+      </c>
+      <c r="K42">
+        <v>31</v>
+      </c>
+      <c r="L42">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43">
+        <v>2</v>
+      </c>
+      <c r="C43">
+        <v>2</v>
+      </c>
+      <c r="D43">
+        <v>2</v>
+      </c>
+      <c r="E43">
+        <v>15</v>
+      </c>
+      <c r="G43">
+        <v>3</v>
+      </c>
+      <c r="H43">
+        <v>251</v>
+      </c>
+      <c r="J43">
+        <v>1</v>
+      </c>
+      <c r="K43">
+        <v>31</v>
+      </c>
+      <c r="L43">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44" t="s">
+        <v>52</v>
+      </c>
+      <c r="B44">
+        <v>4</v>
+      </c>
+      <c r="C44">
+        <v>4</v>
+      </c>
+      <c r="D44">
+        <v>4</v>
+      </c>
+      <c r="E44">
+        <v>37</v>
+      </c>
+      <c r="G44">
+        <v>19</v>
+      </c>
+      <c r="H44">
+        <v>251</v>
+      </c>
+      <c r="J44">
+        <v>1</v>
+      </c>
+      <c r="K44">
+        <v>31</v>
+      </c>
+      <c r="L44">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45">
+        <v>10</v>
+      </c>
+      <c r="C45">
+        <v>10</v>
+      </c>
+      <c r="D45">
+        <v>10</v>
+      </c>
+      <c r="E45">
+        <v>29</v>
+      </c>
+      <c r="G45">
+        <v>10</v>
+      </c>
+      <c r="H45">
+        <v>251</v>
+      </c>
+      <c r="J45">
+        <v>1</v>
+      </c>
+      <c r="K45">
+        <v>31</v>
+      </c>
+      <c r="L45">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>10</v>
+      </c>
+      <c r="G46">
+        <v>4</v>
+      </c>
+      <c r="H46">
+        <v>251</v>
+      </c>
+      <c r="J46">
+        <v>3</v>
+      </c>
+      <c r="K46">
+        <v>79</v>
+      </c>
+      <c r="L46">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47" t="s">
+        <v>55</v>
+      </c>
+      <c r="B47">
+        <v>3</v>
+      </c>
+      <c r="C47">
+        <v>3</v>
+      </c>
+      <c r="D47">
+        <v>3</v>
+      </c>
+      <c r="E47">
+        <v>14</v>
+      </c>
+      <c r="G47">
+        <v>3</v>
+      </c>
+      <c r="H47">
+        <v>251</v>
+      </c>
+      <c r="J47">
+        <v>1</v>
+      </c>
+      <c r="K47">
+        <v>31</v>
+      </c>
+      <c r="L47">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="A48" t="s">
+        <v>56</v>
+      </c>
+      <c r="B48">
+        <v>7</v>
+      </c>
+      <c r="C48">
+        <v>7</v>
+      </c>
+      <c r="D48">
+        <v>7</v>
+      </c>
+      <c r="E48">
+        <v>22</v>
+      </c>
+      <c r="G48">
+        <v>35</v>
+      </c>
+      <c r="H48">
+        <v>251</v>
+      </c>
+      <c r="J48">
+        <v>1</v>
+      </c>
+      <c r="K48">
+        <v>31</v>
+      </c>
+      <c r="L48">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="A49" t="s">
+        <v>57</v>
+      </c>
+      <c r="B49">
+        <v>5</v>
+      </c>
+      <c r="C49">
+        <v>5</v>
+      </c>
+      <c r="D49">
+        <v>5</v>
+      </c>
+      <c r="E49">
+        <v>42</v>
+      </c>
+      <c r="G49">
+        <v>8</v>
+      </c>
+      <c r="H49">
+        <v>251</v>
+      </c>
+      <c r="J49">
+        <v>1</v>
+      </c>
+      <c r="K49">
+        <v>31</v>
+      </c>
+      <c r="L49">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50" t="s">
+        <v>58</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <v>10</v>
+      </c>
+      <c r="G50">
+        <v>26</v>
+      </c>
+      <c r="H50">
+        <v>251</v>
+      </c>
+      <c r="J50">
+        <v>3</v>
+      </c>
+      <c r="K50">
+        <v>79</v>
+      </c>
+      <c r="L50">
+        <v>251</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L50"/>
@@ -16709,13 +19937,13 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="E2">
         <v>36</v>
@@ -16741,7 +19969,7 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -16773,13 +20001,13 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D4">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E4">
         <v>17</v>
@@ -16805,13 +20033,13 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="E5">
         <v>42</v>
@@ -16837,13 +20065,13 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C6">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D6">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E6">
         <v>38</v>
@@ -16869,13 +20097,13 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E7">
         <v>44</v>
@@ -16901,13 +20129,13 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E8">
         <v>48</v>
@@ -16933,13 +20161,13 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E9">
         <v>31</v>
@@ -16965,13 +20193,13 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E10">
         <v>60</v>
@@ -16997,13 +20225,13 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E11">
         <v>16</v>
@@ -17029,13 +20257,13 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E12">
         <v>16</v>
@@ -17061,13 +20289,13 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="C13">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D13">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E13">
         <v>38</v>
@@ -17093,13 +20321,13 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="C14">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D14">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E14">
         <v>43</v>
@@ -17125,13 +20353,13 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E15">
         <v>47</v>
@@ -17157,13 +20385,13 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="C16">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D16">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E16">
         <v>38</v>
@@ -17189,13 +20417,13 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="C17">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D17">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E17">
         <v>44</v>
@@ -17221,7 +20449,7 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -17253,7 +20481,7 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C19">
         <v>8</v>
@@ -17285,13 +20513,13 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E20">
         <v>30</v>
@@ -17317,13 +20545,13 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C21">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D21">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E21">
         <v>32</v>
@@ -17349,7 +20577,7 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C22">
         <v>2</v>
@@ -17381,13 +20609,13 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E23">
         <v>36</v>
@@ -17413,7 +20641,7 @@
         <v>32</v>
       </c>
       <c r="B24">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C24">
         <v>2</v>
@@ -17445,13 +20673,13 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E25">
         <v>11</v>
@@ -17477,7 +20705,7 @@
         <v>34</v>
       </c>
       <c r="B26">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C26">
         <v>2</v>
@@ -17509,10 +20737,10 @@
         <v>35</v>
       </c>
       <c r="B27">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C27">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D27">
         <v>8</v>
@@ -17541,13 +20769,13 @@
         <v>36</v>
       </c>
       <c r="B28">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C28">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D28">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E28">
         <v>29</v>
@@ -17573,13 +20801,13 @@
         <v>37</v>
       </c>
       <c r="B29">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="C29">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="D29">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="E29">
         <v>38</v>
@@ -17605,13 +20833,13 @@
         <v>38</v>
       </c>
       <c r="B30">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="C30">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D30">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E30">
         <v>42</v>
@@ -17637,13 +20865,13 @@
         <v>39</v>
       </c>
       <c r="B31">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="C31">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D31">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="E31">
         <v>34</v>
@@ -17669,13 +20897,13 @@
         <v>40</v>
       </c>
       <c r="B32">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C32">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D32">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E32">
         <v>17</v>
@@ -17701,13 +20929,13 @@
         <v>41</v>
       </c>
       <c r="B33">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C33">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D33">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E33">
         <v>43</v>
@@ -17733,13 +20961,13 @@
         <v>42</v>
       </c>
       <c r="B34">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="C34">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D34">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E34">
         <v>44</v>
@@ -17765,13 +20993,13 @@
         <v>43</v>
       </c>
       <c r="B35">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C35">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D35">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E35">
         <v>49</v>
@@ -17797,13 +21025,13 @@
         <v>44</v>
       </c>
       <c r="B36">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C36">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D36">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E36">
         <v>43</v>
@@ -17829,13 +21057,13 @@
         <v>45</v>
       </c>
       <c r="B37">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C37">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D37">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E37">
         <v>43</v>
@@ -17861,13 +21089,13 @@
         <v>46</v>
       </c>
       <c r="B38">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="C38">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D38">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E38">
         <v>27</v>
@@ -17893,13 +21121,13 @@
         <v>47</v>
       </c>
       <c r="B39">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="C39">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D39">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E39">
         <v>43</v>
@@ -17925,13 +21153,13 @@
         <v>48</v>
       </c>
       <c r="B40">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C40">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D40">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E40">
         <v>32</v>
@@ -17957,13 +21185,13 @@
         <v>49</v>
       </c>
       <c r="B41">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C41">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D41">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E41">
         <v>21</v>
@@ -17989,13 +21217,13 @@
         <v>50</v>
       </c>
       <c r="B42">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C42">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D42">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E42">
         <v>43</v>
@@ -18021,7 +21249,7 @@
         <v>51</v>
       </c>
       <c r="B43">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C43">
         <v>2</v>
@@ -18053,13 +21281,13 @@
         <v>52</v>
       </c>
       <c r="B44">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C44">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D44">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E44">
         <v>37</v>
@@ -18085,13 +21313,13 @@
         <v>53</v>
       </c>
       <c r="B45">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="C45">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D45">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E45">
         <v>29</v>
@@ -18117,13 +21345,13 @@
         <v>54</v>
       </c>
       <c r="B46">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E46">
         <v>10</v>
@@ -18149,13 +21377,13 @@
         <v>55</v>
       </c>
       <c r="B47">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C47">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D47">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E47">
         <v>14</v>
@@ -18181,13 +21409,13 @@
         <v>56</v>
       </c>
       <c r="B48">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="C48">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D48">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E48">
         <v>22</v>
@@ -18213,13 +21441,13 @@
         <v>57</v>
       </c>
       <c r="B49">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="C49">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="D49">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="E49">
         <v>42</v>
@@ -18245,7 +21473,7 @@
         <v>58</v>
       </c>
       <c r="B50">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C50">
         <v>1</v>
